--- a/me/6.Callouts-using-Apex.xlsx
+++ b/me/6.Callouts-using-Apex.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\salesforce-integration-with-external-systems\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF22E78C-E89D-49F7-9A8D-393FED7F60AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E246D3-D502-414E-8DF0-6CC93F58C31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Remote site settings" sheetId="1" r:id="rId1"/>
+    <sheet name="Create an Apex class" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="290">
   <si>
     <t>構成</t>
   </si>
@@ -157,16 +158,761 @@
   </si>
   <si>
     <t>6.Callouts-using-Apex</t>
+  </si>
+  <si>
+    <t>Create an Apex class which makes the Callout to external system</t>
+  </si>
+  <si>
+    <t>Create Apex Classes</t>
+  </si>
+  <si>
+    <t>1.Create-an-Apex-class</t>
+  </si>
+  <si>
+    <t>HttpCalloutCtrl.txt</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>→</t>
+  </si>
+  <si>
+    <t>public class HttpCalloutCtrl</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>    public static Map&lt;String,Object&gt; getCalloutResponseContents(String url)</t>
+  </si>
+  <si>
+    <t>    {</t>
+  </si>
+  <si>
+    <t>        Http h=new Http();</t>
+  </si>
+  <si>
+    <t>        HttpRequest req=new HttpRequest();</t>
+  </si>
+  <si>
+    <t>        req.setEndpoint(url);</t>
+  </si>
+  <si>
+    <t>        req.setMethod('GET');</t>
+  </si>
+  <si>
+    <t>        HttpResponse res=h.send(req);</t>
+  </si>
+  <si>
+    <t>        System.debug('response--&gt;: '+res.getBody());</t>
+  </si>
+  <si>
+    <t>        Map&lt;String,object&gt; resultsMap=  (Map&lt;String,object&gt;)JSON.deserializeUntyped(res.getBody());</t>
+  </si>
+  <si>
+    <t>        System.debug('resultsMap '+resultsMap);</t>
+  </si>
+  <si>
+    <t>        return resultsMap;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>salesforce-integration-with-external-systems\6.Callouts-using-Apex\1.Create-an-Apex-class\HttpCalloutCtrl.txt</t>
+  </si>
+  <si>
+    <t>Specify what kind of http request is GET request? POST request?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set up endpoint </t>
+  </si>
+  <si>
+    <t>Set up method</t>
+  </si>
+  <si>
+    <t>Send request and we will get response</t>
+  </si>
+  <si>
+    <t>Get body of response. In the response we have other things like status code, other headers. The response would be in a JSON format. So we will deserialize the JSON string into a collection of primitive data type</t>
+  </si>
+  <si>
+    <t>Debug</t>
+  </si>
+  <si>
+    <t>debug.txt</t>
+  </si>
+  <si>
+    <t>salesforce-integration-with-external-systems\6.Callouts-using-Apex\1.Create-an-Apex-class\debug.txt</t>
+  </si>
+  <si>
+    <t>HttpCalloutCtrl.getCalloutResponseContents('http://data.fixer.io/api/latest?access_key=738c44d040238a6f33970d76d41de37f');</t>
+  </si>
+  <si>
+    <t>    "success":true,</t>
+  </si>
+  <si>
+    <t>    "timestamp":1676620504,</t>
+  </si>
+  <si>
+    <t>    "base":"EUR",</t>
+  </si>
+  <si>
+    <t>    "date":"2023-02-17",</t>
+  </si>
+  <si>
+    <t>    "rates":</t>
+  </si>
+  <si>
+    <t>        {</t>
+  </si>
+  <si>
+    <t>            "AED":3.907105,</t>
+  </si>
+  <si>
+    <t>            "AFN":94.67199,</t>
+  </si>
+  <si>
+    <t>            "ALL":115.367901,</t>
+  </si>
+  <si>
+    <t>            "AMD":421.036089,</t>
+  </si>
+  <si>
+    <t>            "ANG":1.926535,</t>
+  </si>
+  <si>
+    <t>            "AOA":539.846683,</t>
+  </si>
+  <si>
+    <t>            "ARS":205.110091,</t>
+  </si>
+  <si>
+    <t>            "AUD":1.555218,</t>
+  </si>
+  <si>
+    <t>            "AWG":1.914711,</t>
+  </si>
+  <si>
+    <t>            "AZN":1.809245,</t>
+  </si>
+  <si>
+    <t>            "BAM":1.952908,</t>
+  </si>
+  <si>
+    <t>            "BBD":2.15828,</t>
+  </si>
+  <si>
+    <t>            "BDT":113.092863,</t>
+  </si>
+  <si>
+    <t>    "success": true,</t>
+  </si>
+  <si>
+    <t>    "timestamp": 1676566443,</t>
+  </si>
+  <si>
+    <t>    "base": "EUR",</t>
+  </si>
+  <si>
+    <t>    "date": "2023-02-16",</t>
+  </si>
+  <si>
+    <t>    "rates": {</t>
+  </si>
+  <si>
+    <t>        "AED": 3.925469,</t>
+  </si>
+  <si>
+    <t>        "AFN": 96.187078,</t>
+  </si>
+  <si>
+    <t>        "ALL": 115.342612,</t>
+  </si>
+  <si>
+    <t>        "AMD": 420.959602,</t>
+  </si>
+  <si>
+    <t>        "ANG": 1.926104,</t>
+  </si>
+  <si>
+    <t>        "AOA": 539.041023,</t>
+  </si>
+  <si>
+    <t>        "ARS": 206.072192,</t>
+  </si>
+  <si>
+    <t>        "AUD": 1.550372,</t>
+  </si>
+  <si>
+    <t>        "AWG": 1.923734,</t>
+  </si>
+  <si>
+    <t>        "AZN": 1.80717,</t>
+  </si>
+  <si>
+    <t>        "BAM": 1.952489,</t>
+  </si>
+  <si>
+    <t>        "BBD": 2.157827,</t>
+  </si>
+  <si>
+    <t>        "BDT": 113.068603,</t>
+  </si>
+  <si>
+    <t>        "BGN": 1.958976,</t>
+  </si>
+  <si>
+    <t>        "BHD": 0.402819,</t>
+  </si>
+  <si>
+    <t>        "BIF": 2212.293952,</t>
+  </si>
+  <si>
+    <t>        "BMD": 1.068741,</t>
+  </si>
+  <si>
+    <t>        "BND": 1.42556,</t>
+  </si>
+  <si>
+    <t>        "BOB": 7.384831,</t>
+  </si>
+  <si>
+    <t>        "BRL": 5.593682,</t>
+  </si>
+  <si>
+    <t>        "BSD": 1.068681,</t>
+  </si>
+  <si>
+    <t>        "BTC": 4.2851408e-5,</t>
+  </si>
+  <si>
+    <t>        "BTN": 88.329666,</t>
+  </si>
+  <si>
+    <t>        "BWP": 14.061967,</t>
+  </si>
+  <si>
+    <t>        "BYN": 2.698083,</t>
+  </si>
+  <si>
+    <t>        "BYR": 20947.324374,</t>
+  </si>
+  <si>
+    <t>        "BZD": 2.154234,</t>
+  </si>
+  <si>
+    <t>        "CAD": 1.436468,</t>
+  </si>
+  <si>
+    <t>        "CDF": 2187.712632,</t>
+  </si>
+  <si>
+    <t>        "CHF": 0.988313,</t>
+  </si>
+  <si>
+    <t>        "CLF": 0.030645,</t>
+  </si>
+  <si>
+    <t>        "CLP": 845.587504,</t>
+  </si>
+  <si>
+    <t>        "CNY": 7.332314,</t>
+  </si>
+  <si>
+    <t>        "COP": 5253.460704,</t>
+  </si>
+  <si>
+    <t>        "CRC": 600.478007,</t>
+  </si>
+  <si>
+    <t>        "CUC": 1.068741,</t>
+  </si>
+  <si>
+    <t>        "CUP": 28.321638,</t>
+  </si>
+  <si>
+    <t>        "CVE": 110.076623,</t>
+  </si>
+  <si>
+    <t>        "CZK": 23.67897,</t>
+  </si>
+  <si>
+    <t>        "DJF": 190.28614,</t>
+  </si>
+  <si>
+    <t>        "DKK": 7.447412,</t>
+  </si>
+  <si>
+    <t>        "DOP": 59.943977,</t>
+  </si>
+  <si>
+    <t>        "DZD": 146.23524,</t>
+  </si>
+  <si>
+    <t>        "EGP": 32.673867,</t>
+  </si>
+  <si>
+    <t>        "ERN": 16.031116,</t>
+  </si>
+  <si>
+    <t>        "ETB": 57.436745,</t>
+  </si>
+  <si>
+    <t>        "EUR": 1,</t>
+  </si>
+  <si>
+    <t>        "FJD": 2.344337,</t>
+  </si>
+  <si>
+    <t>        "FKP": 0.888313,</t>
+  </si>
+  <si>
+    <t>        "GBP": 0.889128,</t>
+  </si>
+  <si>
+    <t>        "GEL": 2.831712,</t>
+  </si>
+  <si>
+    <t>        "GGP": 0.888313,</t>
+  </si>
+  <si>
+    <t>        "GHS": 13.225167,</t>
+  </si>
+  <si>
+    <t>        "GIP": 0.888313,</t>
+  </si>
+  <si>
+    <t>        "GMD": 65.2985,</t>
+  </si>
+  <si>
+    <t>        "GNF": 9201.553176,</t>
+  </si>
+  <si>
+    <t>        "GTQ": 8.362667,</t>
+  </si>
+  <si>
+    <t>        "GYD": 225.494107,</t>
+  </si>
+  <si>
+    <t>        "HKD": 8.388597,</t>
+  </si>
+  <si>
+    <t>        "HNL": 26.344163,</t>
+  </si>
+  <si>
+    <t>        "HRK": 7.539748,</t>
+  </si>
+  <si>
+    <t>        "HTG": 161.375345,</t>
+  </si>
+  <si>
+    <t>        "HUF": 383.888589,</t>
+  </si>
+  <si>
+    <t>        "IDR": 16179.670597,</t>
+  </si>
+  <si>
+    <t>        "ILS": 3.79822,</t>
+  </si>
+  <si>
+    <t>        "IMP": 0.888313,</t>
+  </si>
+  <si>
+    <t>        "INR": 88.400596,</t>
+  </si>
+  <si>
+    <t>        "IQD": 1559.785299,</t>
+  </si>
+  <si>
+    <t>        "IRR": 45154.308535,</t>
+  </si>
+  <si>
+    <t>        "ISK": 154.476176,</t>
+  </si>
+  <si>
+    <t>        "JEP": 0.888313,</t>
+  </si>
+  <si>
+    <t>        "JMD": 165.114436,</t>
+  </si>
+  <si>
+    <t>        "JOD": 0.758167,</t>
+  </si>
+  <si>
+    <t>        "JPY": 143.141297,</t>
+  </si>
+  <si>
+    <t>        "KES": 134.28705,</t>
+  </si>
+  <si>
+    <t>        "KGS": 93.429236,</t>
+  </si>
+  <si>
+    <t>        "KHR": 4362.434468,</t>
+  </si>
+  <si>
+    <t>        "KMF": 492.636282,</t>
+  </si>
+  <si>
+    <t>        "KPW": 961.83567,</t>
+  </si>
+  <si>
+    <t>        "KRW": 1377.863571,</t>
+  </si>
+  <si>
+    <t>        "KWD": 0.327462,</t>
+  </si>
+  <si>
+    <t>        "KYD": 0.890576,</t>
+  </si>
+  <si>
+    <t>        "KZT": 474.018801,</t>
+  </si>
+  <si>
+    <t>        "LAK": 18093.13681,</t>
+  </si>
+  <si>
+    <t>        "LBP": 16041.398092,</t>
+  </si>
+  <si>
+    <t>        "LKR": 390.079698,</t>
+  </si>
+  <si>
+    <t>        "LRD": 168.112656,</t>
+  </si>
+  <si>
+    <t>        "LSL": 19.280115,</t>
+  </si>
+  <si>
+    <t>        "LTL": 3.155714,</t>
+  </si>
+  <si>
+    <t>        "LVL": 0.646471,</t>
+  </si>
+  <si>
+    <t>        "LYD": 5.130121,</t>
+  </si>
+  <si>
+    <t>        "MAD": 11.018447,</t>
+  </si>
+  <si>
+    <t>        "MDL": 20.011454,</t>
+  </si>
+  <si>
+    <t>        "MGA": 4597.714847,</t>
+  </si>
+  <si>
+    <t>        "MKD": 61.804536,</t>
+  </si>
+  <si>
+    <t>        "MMK": 2244.29349,</t>
+  </si>
+  <si>
+    <t>        "MNT": 3761.264408,</t>
+  </si>
+  <si>
+    <t>        "MOP": 8.640314,</t>
+  </si>
+  <si>
+    <t>        "MRO": 381.540367,</t>
+  </si>
+  <si>
+    <t>        "MUR": 49.319582,</t>
+  </si>
+  <si>
+    <t>        "MVR": 16.415985,</t>
+  </si>
+  <si>
+    <t>        "MWK": 1096.931061,</t>
+  </si>
+  <si>
+    <t>        "MXN": 19.785174,</t>
+  </si>
+  <si>
+    <t>        "MYR": 4.706708,</t>
+  </si>
+  <si>
+    <t>        "MZN": 67.431446,</t>
+  </si>
+  <si>
+    <t>        "NAD": 19.279836,</t>
+  </si>
+  <si>
+    <t>        "NGN": 492.208632,</t>
+  </si>
+  <si>
+    <t>        "NIO": 39.050173,</t>
+  </si>
+  <si>
+    <t>        "NOK": 10.933338,</t>
+  </si>
+  <si>
+    <t>        "NPR": 141.327466,</t>
+  </si>
+  <si>
+    <t>        "NZD": 1.704213,</t>
+  </si>
+  <si>
+    <t>        "OMR": 0.411435,</t>
+  </si>
+  <si>
+    <t>        "PAB": 1.068681,</t>
+  </si>
+  <si>
+    <t>        "PEN": 4.118951,</t>
+  </si>
+  <si>
+    <t>        "PGK": 3.765656,</t>
+  </si>
+  <si>
+    <t>        "PHP": 59.028167,</t>
+  </si>
+  <si>
+    <t>        "PKR": 282.404315,</t>
+  </si>
+  <si>
+    <t>        "PLN": 4.777449,</t>
+  </si>
+  <si>
+    <t>        "PYG": 7777.889523,</t>
+  </si>
+  <si>
+    <t>        "QAR": 3.891313,</t>
+  </si>
+  <si>
+    <t>        "RON": 4.900279,</t>
+  </si>
+  <si>
+    <t>        "RSD": 117.326408,</t>
+  </si>
+  <si>
+    <t>        "RUB": 79.85101,</t>
+  </si>
+  <si>
+    <t>        "RWF": 1160.63464,</t>
+  </si>
+  <si>
+    <t>        "SAR": 4.008892,</t>
+  </si>
+  <si>
+    <t>        "SBD": 0.130922,</t>
+  </si>
+  <si>
+    <t>        "SCR": 15.107612,</t>
+  </si>
+  <si>
+    <t>        "SDG": 624.144866,</t>
+  </si>
+  <si>
+    <t>        "SEK": 11.144367,</t>
+  </si>
+  <si>
+    <t>        "SGD": 1.427224,</t>
+  </si>
+  <si>
+    <t>        "SHP": 1.300391,</t>
+  </si>
+  <si>
+    <t>        "SLE": 21.207619,</t>
+  </si>
+  <si>
+    <t>        "SLL": 21107.6351,</t>
+  </si>
+  <si>
+    <t>        "SOS": 608.649528,</t>
+  </si>
+  <si>
+    <t>        "SRD": 35.286085,</t>
+  </si>
+  <si>
+    <t>        "STD": 22120.781738,</t>
+  </si>
+  <si>
+    <t>        "SVC": 9.351085,</t>
+  </si>
+  <si>
+    <t>        "SYP": 2684.617246,</t>
+  </si>
+  <si>
+    <t>        "SZL": 19.35975,</t>
+  </si>
+  <si>
+    <t>        "THB": 36.694173,</t>
+  </si>
+  <si>
+    <t>        "TJS": 11.237369,</t>
+  </si>
+  <si>
+    <t>        "TMT": 3.751281,</t>
+  </si>
+  <si>
+    <t>        "TND": 3.334937,</t>
+  </si>
+  <si>
+    <t>        "TOP": 2.500956,</t>
+  </si>
+  <si>
+    <t>        "TRY": 20.151438,</t>
+  </si>
+  <si>
+    <t>        "TTD": 7.25645,</t>
+  </si>
+  <si>
+    <t>        "TWD": 32.370563,</t>
+  </si>
+  <si>
+    <t>        "TZS": 2499.78555,</t>
+  </si>
+  <si>
+    <t>        "UAH": 39.469455,</t>
+  </si>
+  <si>
+    <t>        "UGX": 3922.124679,</t>
+  </si>
+  <si>
+    <t>        "USD": 1.068741,</t>
+  </si>
+  <si>
+    <t>        "UYU": 41.78649,</t>
+  </si>
+  <si>
+    <t>        "UZS": 12133.974857,</t>
+  </si>
+  <si>
+    <t>        "VEF": 2595698.678881,</t>
+  </si>
+  <si>
+    <t>        "VES": 25.82987,</t>
+  </si>
+  <si>
+    <t>        "VND": 25334.506342,</t>
+  </si>
+  <si>
+    <t>        "VUV": 124.539749,</t>
+  </si>
+  <si>
+    <t>        "WST": 2.902514,</t>
+  </si>
+  <si>
+    <t>        "XAF": 654.836364,</t>
+  </si>
+  <si>
+    <t>        "XAG": 0.049213,</t>
+  </si>
+  <si>
+    <t>        "XAU": 0.000581,</t>
+  </si>
+  <si>
+    <t>        "XCD": 2.888326,</t>
+  </si>
+  <si>
+    <t>        "XDR": 0.799033,</t>
+  </si>
+  <si>
+    <t>        "XOF": 654.836364,</t>
+  </si>
+  <si>
+    <t>        "XPF": 119.324646,</t>
+  </si>
+  <si>
+    <t>        "YER": 267.50073,</t>
+  </si>
+  <si>
+    <t>        "ZAR": 19.385256,</t>
+  </si>
+  <si>
+    <t>        "ZMK": 9619.953984,</t>
+  </si>
+  <si>
+    <t>        "ZMW": 20.738304,</t>
+  </si>
+  <si>
+    <t>        "ZWL": 344.134179</t>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <t>Can refer</t>
+  </si>
+  <si>
+    <t>Json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    base=EUR, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    date=2023-02-17, </t>
+  </si>
+  <si>
+    <t>    rates=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            AED=3.907105, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            AFN=94.67199, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ALL=115.367901, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            AMD=421.036089, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ANG=1.926535, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            AOA=539.846683, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ARS=205.110091, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            AUD=1.555218, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            AWG=1.914711, </t>
+  </si>
+  <si>
+    <t>            AZN=1.809245, ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    success=true, </t>
+  </si>
+  <si>
+    <t>    timestamp=1676620504</t>
+  </si>
+  <si>
+    <t>Map</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -278,7 +1024,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -289,8 +1035,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -797,6 +1545,443 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>109891</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59617580-8A0D-F5D6-90A3-8E1F81635C0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="707571" y="5962651"/>
+          <a:ext cx="11089822" cy="5577240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>246530</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>73732</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC0AA898-3340-31E4-DB90-3B0E87E04757}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="784412" y="15889941"/>
+          <a:ext cx="10959353" cy="5519791"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>140788</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>170717</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D60DC8F-9955-8A50-3F66-99B36EA812C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638735" y="22983265"/>
+          <a:ext cx="12209524" cy="1380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>67236</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>108499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E24512F-0C59-D22B-40E7-3D1BBE72F296}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="672354" y="24630530"/>
+          <a:ext cx="12214411" cy="1385969"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>195445</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>18925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A764B43-FE95-C02D-52C3-F97850170534}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1344706" y="30737735"/>
+          <a:ext cx="9742857" cy="5476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62A7B707-1A13-8ED5-2361-A13D6AB4D1D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="885265" y="25639059"/>
+          <a:ext cx="2879911" cy="661147"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23A806B2-908E-72E1-CEBB-75A4763052F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3810000" y="20596412"/>
+          <a:ext cx="2017059" cy="4941794"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BC962FE-F8DF-64E8-BC70-775F4F2B8DC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3899647" y="20842941"/>
+          <a:ext cx="2185147" cy="4930588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>212911</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>376</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D58AA03-0EC6-8C45-F381-70D516B9008A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="818029" y="25885588"/>
+          <a:ext cx="3003177" cy="45742412"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1062,8 +2247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:K259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView topLeftCell="A280" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1297,150 +2482,62 @@
       <c r="B196" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C196" s="10"/>
-      <c r="D196" s="10"/>
-      <c r="E196" s="10"/>
-      <c r="F196" s="10"/>
-      <c r="G196" s="10"/>
-      <c r="H196" s="10"/>
-      <c r="I196" s="10"/>
-      <c r="J196" s="10"/>
       <c r="K196" s="6"/>
     </row>
     <row r="197" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B197" s="5"/>
-      <c r="C197" s="10"/>
-      <c r="D197" s="10"/>
-      <c r="E197" s="10"/>
-      <c r="F197" s="10"/>
-      <c r="G197" s="10"/>
-      <c r="H197" s="10"/>
-      <c r="I197" s="10"/>
-      <c r="J197" s="10"/>
       <c r="K197" s="6"/>
     </row>
     <row r="198" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B198" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C198" s="10"/>
-      <c r="D198" s="10"/>
-      <c r="E198" s="10"/>
-      <c r="F198" s="10"/>
-      <c r="G198" s="10"/>
-      <c r="H198" s="10"/>
-      <c r="I198" s="10"/>
-      <c r="J198" s="10"/>
       <c r="K198" s="6"/>
     </row>
     <row r="199" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B199" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C199" s="10"/>
-      <c r="D199" s="10"/>
-      <c r="E199" s="10"/>
-      <c r="F199" s="10"/>
-      <c r="G199" s="10"/>
-      <c r="H199" s="10"/>
-      <c r="I199" s="10"/>
-      <c r="J199" s="10"/>
       <c r="K199" s="6"/>
     </row>
     <row r="200" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B200" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C200" s="10"/>
-      <c r="D200" s="10"/>
-      <c r="E200" s="10"/>
-      <c r="F200" s="10"/>
-      <c r="G200" s="10"/>
-      <c r="H200" s="10"/>
-      <c r="I200" s="10"/>
-      <c r="J200" s="10"/>
       <c r="K200" s="6"/>
     </row>
     <row r="201" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B201" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C201" s="10"/>
-      <c r="D201" s="10"/>
-      <c r="E201" s="10"/>
-      <c r="F201" s="10"/>
-      <c r="G201" s="10"/>
-      <c r="H201" s="10"/>
-      <c r="I201" s="10"/>
-      <c r="J201" s="10"/>
       <c r="K201" s="6"/>
     </row>
     <row r="202" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B202" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C202" s="10"/>
-      <c r="D202" s="10"/>
-      <c r="E202" s="10"/>
-      <c r="F202" s="10"/>
-      <c r="G202" s="10"/>
-      <c r="H202" s="10"/>
-      <c r="I202" s="10"/>
-      <c r="J202" s="10"/>
       <c r="K202" s="6"/>
     </row>
     <row r="203" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B203" s="5"/>
-      <c r="C203" s="10"/>
-      <c r="D203" s="10"/>
-      <c r="E203" s="10"/>
-      <c r="F203" s="10"/>
-      <c r="G203" s="10"/>
-      <c r="H203" s="10"/>
-      <c r="I203" s="10"/>
-      <c r="J203" s="10"/>
       <c r="K203" s="6"/>
     </row>
     <row r="204" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B204" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C204" s="10"/>
-      <c r="D204" s="10"/>
-      <c r="E204" s="10"/>
-      <c r="F204" s="10"/>
-      <c r="G204" s="10"/>
-      <c r="H204" s="10"/>
-      <c r="I204" s="10"/>
-      <c r="J204" s="10"/>
       <c r="K204" s="6"/>
     </row>
     <row r="205" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B205" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C205" s="10"/>
-      <c r="D205" s="10"/>
-      <c r="E205" s="10"/>
-      <c r="F205" s="10"/>
-      <c r="G205" s="10"/>
-      <c r="H205" s="10"/>
-      <c r="I205" s="10"/>
-      <c r="J205" s="10"/>
       <c r="K205" s="6"/>
     </row>
     <row r="206" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B206" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C206" s="10"/>
-      <c r="D206" s="10"/>
-      <c r="E206" s="10"/>
-      <c r="F206" s="10"/>
-      <c r="G206" s="10"/>
-      <c r="H206" s="10"/>
-      <c r="I206" s="10"/>
-      <c r="J206" s="10"/>
       <c r="K206" s="6"/>
     </row>
     <row r="207" spans="2:11" x14ac:dyDescent="0.25">
@@ -1463,7 +2560,7 @@
       </c>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B227" s="11" t="s">
+      <c r="B227" s="10" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1471,6 +2568,6141 @@
       <c r="B259" s="1" t="s">
         <v>41</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2C8266-6748-44DC-B747-461F9850EDA7}">
+  <dimension ref="A2:T397"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V113" sqref="V113"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="D28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="E29" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I29" s="6"/>
+      <c r="J29" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="E30" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" s="6"/>
+      <c r="J30" t="s">
+        <v>49</v>
+      </c>
+      <c r="K30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="9"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="4"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B68" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="6"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B69" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="6"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B70" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="6"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B71" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="6"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B72" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="6"/>
+      <c r="M72" t="s">
+        <v>49</v>
+      </c>
+      <c r="N72" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B73" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="6"/>
+      <c r="M73" t="s">
+        <v>49</v>
+      </c>
+      <c r="N73" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B74" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="6"/>
+      <c r="M74" t="s">
+        <v>49</v>
+      </c>
+      <c r="N74" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B75" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="6"/>
+      <c r="M75" t="s">
+        <v>49</v>
+      </c>
+      <c r="N75" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B76" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="6"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B77" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="6"/>
+      <c r="M77" t="s">
+        <v>49</v>
+      </c>
+      <c r="N77" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B78" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="6"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B79" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="6"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B80" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="6"/>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B81" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="6"/>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B82" s="5"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="6"/>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B83" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="9"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B118" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
+      <c r="L118" s="3"/>
+      <c r="M118" s="3"/>
+      <c r="N118" s="4"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B119" s="7"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
+      <c r="K119" s="8"/>
+      <c r="L119" s="8"/>
+      <c r="M119" s="8"/>
+      <c r="N119" s="9"/>
+    </row>
+    <row r="139" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B139" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3"/>
+      <c r="I139" s="3"/>
+      <c r="J139" s="3"/>
+      <c r="K139" s="3"/>
+      <c r="L139" s="3"/>
+      <c r="M139" s="3"/>
+      <c r="N139" s="3"/>
+      <c r="O139" s="3"/>
+      <c r="P139" s="3"/>
+      <c r="Q139" s="3"/>
+      <c r="R139" s="3"/>
+      <c r="S139" s="3"/>
+      <c r="T139" s="4"/>
+    </row>
+    <row r="140" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B140" s="5"/>
+      <c r="C140" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="4"/>
+      <c r="I140" s="12"/>
+      <c r="J140" s="12"/>
+      <c r="K140" s="12"/>
+      <c r="L140" s="12"/>
+      <c r="M140" s="12"/>
+      <c r="N140" s="12"/>
+      <c r="O140" s="12"/>
+      <c r="P140" s="12"/>
+      <c r="Q140" s="12"/>
+      <c r="R140" s="12"/>
+      <c r="S140" s="12"/>
+      <c r="T140" s="6"/>
+    </row>
+    <row r="141" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B141" s="5"/>
+      <c r="C141" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
+      <c r="F141" s="12"/>
+      <c r="G141" s="12"/>
+      <c r="H141" s="6"/>
+      <c r="I141" s="12"/>
+      <c r="J141" s="12"/>
+      <c r="K141" s="12"/>
+      <c r="L141" s="12"/>
+      <c r="M141" s="12"/>
+      <c r="N141" s="12"/>
+      <c r="O141" s="12"/>
+      <c r="P141" s="12"/>
+      <c r="Q141" s="12"/>
+      <c r="R141" s="12"/>
+      <c r="S141" s="12"/>
+      <c r="T141" s="6"/>
+    </row>
+    <row r="142" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B142" s="5"/>
+      <c r="C142" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="12"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="12"/>
+      <c r="J142" s="12"/>
+      <c r="K142" s="12"/>
+      <c r="L142" s="12"/>
+      <c r="M142" s="12"/>
+      <c r="N142" s="12"/>
+      <c r="O142" s="12"/>
+      <c r="P142" s="12"/>
+      <c r="Q142" s="12"/>
+      <c r="R142" s="12"/>
+      <c r="S142" s="12"/>
+      <c r="T142" s="6"/>
+    </row>
+    <row r="143" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B143" s="5"/>
+      <c r="C143" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="12"/>
+      <c r="J143" s="12"/>
+      <c r="K143" s="12"/>
+      <c r="L143" s="12"/>
+      <c r="M143" s="12"/>
+      <c r="N143" s="12"/>
+      <c r="O143" s="12"/>
+      <c r="P143" s="12"/>
+      <c r="Q143" s="12"/>
+      <c r="R143" s="12"/>
+      <c r="S143" s="12"/>
+      <c r="T143" s="6"/>
+    </row>
+    <row r="144" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B144" s="5"/>
+      <c r="C144" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D144" s="12"/>
+      <c r="E144" s="12"/>
+      <c r="F144" s="12"/>
+      <c r="G144" s="12"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="12"/>
+      <c r="J144" s="12"/>
+      <c r="K144" s="12"/>
+      <c r="L144" s="12"/>
+      <c r="M144" s="12"/>
+      <c r="N144" s="12"/>
+      <c r="O144" s="12"/>
+      <c r="P144" s="12"/>
+      <c r="Q144" s="12"/>
+      <c r="R144" s="12"/>
+      <c r="S144" s="12"/>
+      <c r="T144" s="6"/>
+    </row>
+    <row r="145" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B145" s="5"/>
+      <c r="C145" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
+      <c r="F145" s="12"/>
+      <c r="G145" s="12"/>
+      <c r="H145" s="6"/>
+      <c r="I145" s="12"/>
+      <c r="J145" s="12"/>
+      <c r="K145" s="12"/>
+      <c r="L145" s="12"/>
+      <c r="M145" s="12"/>
+      <c r="N145" s="12"/>
+      <c r="O145" s="12"/>
+      <c r="P145" s="12"/>
+      <c r="Q145" s="12"/>
+      <c r="R145" s="12"/>
+      <c r="S145" s="12"/>
+      <c r="T145" s="6"/>
+    </row>
+    <row r="146" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B146" s="5"/>
+      <c r="C146" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="12"/>
+      <c r="G146" s="12"/>
+      <c r="H146" s="6"/>
+      <c r="I146" s="12"/>
+      <c r="J146" s="12"/>
+      <c r="K146" s="12"/>
+      <c r="L146" s="12"/>
+      <c r="M146" s="12"/>
+      <c r="N146" s="12"/>
+      <c r="O146" s="12"/>
+      <c r="P146" s="12"/>
+      <c r="Q146" s="12"/>
+      <c r="R146" s="12"/>
+      <c r="S146" s="12"/>
+      <c r="T146" s="6"/>
+    </row>
+    <row r="147" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B147" s="5"/>
+      <c r="C147" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
+      <c r="F147" s="12"/>
+      <c r="G147" s="12"/>
+      <c r="H147" s="6"/>
+      <c r="I147" s="12"/>
+      <c r="J147" s="12"/>
+      <c r="K147" s="12"/>
+      <c r="L147" s="12"/>
+      <c r="M147" s="12"/>
+      <c r="N147" s="12"/>
+      <c r="O147" s="12"/>
+      <c r="P147" s="12"/>
+      <c r="Q147" s="12"/>
+      <c r="R147" s="12"/>
+      <c r="S147" s="12"/>
+      <c r="T147" s="6"/>
+    </row>
+    <row r="148" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B148" s="5"/>
+      <c r="C148" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="12"/>
+      <c r="G148" s="12"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="12"/>
+      <c r="J148" s="12"/>
+      <c r="K148" s="12"/>
+      <c r="L148" s="12"/>
+      <c r="M148" s="12"/>
+      <c r="N148" s="12"/>
+      <c r="O148" s="12"/>
+      <c r="P148" s="12"/>
+      <c r="Q148" s="12"/>
+      <c r="R148" s="12"/>
+      <c r="S148" s="12"/>
+      <c r="T148" s="6"/>
+    </row>
+    <row r="149" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B149" s="5"/>
+      <c r="C149" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D149" s="12"/>
+      <c r="E149" s="12"/>
+      <c r="F149" s="12"/>
+      <c r="G149" s="12"/>
+      <c r="H149" s="6"/>
+      <c r="I149" s="12"/>
+      <c r="J149" s="12"/>
+      <c r="K149" s="12"/>
+      <c r="L149" s="12"/>
+      <c r="M149" s="12"/>
+      <c r="N149" s="12"/>
+      <c r="O149" s="12"/>
+      <c r="P149" s="12"/>
+      <c r="Q149" s="12"/>
+      <c r="R149" s="12"/>
+      <c r="S149" s="12"/>
+      <c r="T149" s="6"/>
+    </row>
+    <row r="150" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B150" s="5"/>
+      <c r="C150" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="12"/>
+      <c r="H150" s="6"/>
+      <c r="I150" s="12"/>
+      <c r="J150" s="12"/>
+      <c r="K150" s="12"/>
+      <c r="L150" s="12"/>
+      <c r="M150" s="12"/>
+      <c r="N150" s="12"/>
+      <c r="O150" s="12"/>
+      <c r="P150" s="12"/>
+      <c r="Q150" s="12"/>
+      <c r="R150" s="12"/>
+      <c r="S150" s="12"/>
+      <c r="T150" s="6"/>
+    </row>
+    <row r="151" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B151" s="5"/>
+      <c r="C151" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="12"/>
+      <c r="H151" s="6"/>
+      <c r="I151" s="12"/>
+      <c r="J151" s="12"/>
+      <c r="K151" s="12"/>
+      <c r="L151" s="12"/>
+      <c r="M151" s="12"/>
+      <c r="N151" s="12"/>
+      <c r="O151" s="12"/>
+      <c r="P151" s="12"/>
+      <c r="Q151" s="12"/>
+      <c r="R151" s="12"/>
+      <c r="S151" s="12"/>
+      <c r="T151" s="6"/>
+    </row>
+    <row r="152" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B152" s="5"/>
+      <c r="C152" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="12"/>
+      <c r="G152" s="12"/>
+      <c r="H152" s="6"/>
+      <c r="I152" s="12"/>
+      <c r="J152" s="12"/>
+      <c r="K152" s="12"/>
+      <c r="L152" s="12"/>
+      <c r="M152" s="12"/>
+      <c r="N152" s="12"/>
+      <c r="O152" s="12"/>
+      <c r="P152" s="12"/>
+      <c r="Q152" s="12"/>
+      <c r="R152" s="12"/>
+      <c r="S152" s="12"/>
+      <c r="T152" s="6"/>
+    </row>
+    <row r="153" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B153" s="5"/>
+      <c r="C153" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="12"/>
+      <c r="G153" s="12"/>
+      <c r="H153" s="6"/>
+      <c r="I153" s="12"/>
+      <c r="J153" s="12"/>
+      <c r="K153" s="12"/>
+      <c r="L153" s="12"/>
+      <c r="M153" s="12"/>
+      <c r="N153" s="12"/>
+      <c r="O153" s="12"/>
+      <c r="P153" s="12"/>
+      <c r="Q153" s="12"/>
+      <c r="R153" s="12"/>
+      <c r="S153" s="12"/>
+      <c r="T153" s="6"/>
+    </row>
+    <row r="154" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B154" s="5"/>
+      <c r="C154" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="6"/>
+      <c r="I154" s="12"/>
+      <c r="J154" s="12"/>
+      <c r="K154" s="12"/>
+      <c r="L154" s="12"/>
+      <c r="M154" s="12"/>
+      <c r="N154" s="12"/>
+      <c r="O154" s="12"/>
+      <c r="P154" s="12"/>
+      <c r="Q154" s="12"/>
+      <c r="R154" s="12"/>
+      <c r="S154" s="12"/>
+      <c r="T154" s="6"/>
+    </row>
+    <row r="155" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B155" s="5"/>
+      <c r="C155" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="12"/>
+      <c r="H155" s="6"/>
+      <c r="I155" s="12"/>
+      <c r="J155" s="12"/>
+      <c r="K155" s="12"/>
+      <c r="L155" s="12"/>
+      <c r="M155" s="12"/>
+      <c r="N155" s="12"/>
+      <c r="O155" s="12"/>
+      <c r="P155" s="12"/>
+      <c r="Q155" s="12"/>
+      <c r="R155" s="12"/>
+      <c r="S155" s="12"/>
+      <c r="T155" s="6"/>
+    </row>
+    <row r="156" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B156" s="5"/>
+      <c r="C156" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D156" s="12"/>
+      <c r="E156" s="12"/>
+      <c r="F156" s="12"/>
+      <c r="G156" s="12"/>
+      <c r="H156" s="6"/>
+      <c r="I156" s="12"/>
+      <c r="J156" s="12"/>
+      <c r="K156" s="12"/>
+      <c r="L156" s="12"/>
+      <c r="M156" s="12"/>
+      <c r="N156" s="12"/>
+      <c r="O156" s="12"/>
+      <c r="P156" s="12"/>
+      <c r="Q156" s="12"/>
+      <c r="R156" s="12"/>
+      <c r="S156" s="12"/>
+      <c r="T156" s="6"/>
+    </row>
+    <row r="157" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B157" s="5"/>
+      <c r="C157" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D157" s="12"/>
+      <c r="E157" s="12"/>
+      <c r="F157" s="12"/>
+      <c r="G157" s="12"/>
+      <c r="H157" s="6"/>
+      <c r="I157" s="12"/>
+      <c r="J157" s="12"/>
+      <c r="K157" s="12"/>
+      <c r="L157" s="12"/>
+      <c r="M157" s="12"/>
+      <c r="N157" s="12"/>
+      <c r="O157" s="12"/>
+      <c r="P157" s="12"/>
+      <c r="Q157" s="12"/>
+      <c r="R157" s="12"/>
+      <c r="S157" s="12"/>
+      <c r="T157" s="6"/>
+    </row>
+    <row r="158" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B158" s="5"/>
+      <c r="C158" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="12"/>
+      <c r="G158" s="12"/>
+      <c r="H158" s="6"/>
+      <c r="I158" s="12"/>
+      <c r="J158" s="12"/>
+      <c r="K158" s="12"/>
+      <c r="L158" s="12"/>
+      <c r="M158" s="12"/>
+      <c r="N158" s="12"/>
+      <c r="O158" s="12"/>
+      <c r="P158" s="12"/>
+      <c r="Q158" s="12"/>
+      <c r="R158" s="12"/>
+      <c r="S158" s="12"/>
+      <c r="T158" s="6"/>
+    </row>
+    <row r="159" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B159" s="5"/>
+      <c r="C159" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="12"/>
+      <c r="G159" s="12"/>
+      <c r="H159" s="6"/>
+      <c r="I159" s="12"/>
+      <c r="J159" s="12"/>
+      <c r="K159" s="12"/>
+      <c r="L159" s="12"/>
+      <c r="M159" s="12"/>
+      <c r="N159" s="12"/>
+      <c r="O159" s="12"/>
+      <c r="P159" s="12"/>
+      <c r="Q159" s="12"/>
+      <c r="R159" s="12"/>
+      <c r="S159" s="12"/>
+      <c r="T159" s="6"/>
+    </row>
+    <row r="160" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B160" s="5"/>
+      <c r="C160" s="7"/>
+      <c r="D160" s="8"/>
+      <c r="E160" s="8"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="8"/>
+      <c r="H160" s="9"/>
+      <c r="I160" s="12"/>
+      <c r="J160" s="12"/>
+      <c r="K160" s="12"/>
+      <c r="L160" s="12"/>
+      <c r="M160" s="12"/>
+      <c r="N160" s="12"/>
+      <c r="O160" s="12"/>
+      <c r="P160" s="12"/>
+      <c r="Q160" s="12"/>
+      <c r="R160" s="12"/>
+      <c r="S160" s="12"/>
+      <c r="T160" s="6"/>
+    </row>
+    <row r="161" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B161" s="5"/>
+      <c r="C161" s="12"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="12"/>
+      <c r="G161" s="12"/>
+      <c r="H161" s="12"/>
+      <c r="I161" s="12"/>
+      <c r="J161" s="12"/>
+      <c r="K161" s="12"/>
+      <c r="L161" s="12"/>
+      <c r="M161" s="12"/>
+      <c r="N161" s="12"/>
+      <c r="O161" s="12"/>
+      <c r="P161" s="12"/>
+      <c r="Q161" s="12"/>
+      <c r="R161" s="12"/>
+      <c r="S161" s="12"/>
+      <c r="T161" s="6"/>
+    </row>
+    <row r="162" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B162" s="5"/>
+      <c r="C162" s="12"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="12"/>
+      <c r="F162" s="12"/>
+      <c r="G162" s="12"/>
+      <c r="H162" s="12"/>
+      <c r="I162" s="12"/>
+      <c r="J162" s="12"/>
+      <c r="K162" s="12"/>
+      <c r="L162" s="12"/>
+      <c r="M162" s="12"/>
+      <c r="N162" s="12"/>
+      <c r="O162" s="12"/>
+      <c r="P162" s="12"/>
+      <c r="Q162" s="12"/>
+      <c r="R162" s="12"/>
+      <c r="S162" s="12"/>
+      <c r="T162" s="6"/>
+    </row>
+    <row r="163" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B163" s="5"/>
+      <c r="C163" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3"/>
+      <c r="G163" s="3"/>
+      <c r="H163" s="3"/>
+      <c r="I163" s="3"/>
+      <c r="J163" s="3"/>
+      <c r="K163" s="3"/>
+      <c r="L163" s="3"/>
+      <c r="M163" s="3"/>
+      <c r="N163" s="3"/>
+      <c r="O163" s="3"/>
+      <c r="P163" s="3"/>
+      <c r="Q163" s="3"/>
+      <c r="R163" s="3"/>
+      <c r="S163" s="4"/>
+      <c r="T163" s="6"/>
+    </row>
+    <row r="164" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="12"/>
+      <c r="E164" s="12"/>
+      <c r="F164" s="12"/>
+      <c r="G164" s="12"/>
+      <c r="H164" s="12"/>
+      <c r="I164" s="12"/>
+      <c r="J164" s="12"/>
+      <c r="K164" s="12"/>
+      <c r="L164" s="12"/>
+      <c r="M164" s="12"/>
+      <c r="N164" s="12"/>
+      <c r="O164" s="12"/>
+      <c r="P164" s="12"/>
+      <c r="Q164" s="12"/>
+      <c r="R164" s="12"/>
+      <c r="S164" s="6"/>
+      <c r="T164" s="6"/>
+    </row>
+    <row r="165" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="12"/>
+      <c r="F165" s="12"/>
+      <c r="G165" s="12"/>
+      <c r="H165" s="12"/>
+      <c r="I165" s="12"/>
+      <c r="J165" s="12"/>
+      <c r="K165" s="12"/>
+      <c r="L165" s="12"/>
+      <c r="M165" s="12"/>
+      <c r="N165" s="12"/>
+      <c r="O165" s="12"/>
+      <c r="P165" s="12"/>
+      <c r="Q165" s="12"/>
+      <c r="R165" s="12"/>
+      <c r="S165" s="6"/>
+      <c r="T165" s="6"/>
+    </row>
+    <row r="166" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="12"/>
+      <c r="E166" s="12"/>
+      <c r="F166" s="12"/>
+      <c r="G166" s="12"/>
+      <c r="H166" s="12"/>
+      <c r="I166" s="12"/>
+      <c r="J166" s="12"/>
+      <c r="K166" s="12"/>
+      <c r="L166" s="12"/>
+      <c r="M166" s="12"/>
+      <c r="N166" s="12"/>
+      <c r="O166" s="12"/>
+      <c r="P166" s="12"/>
+      <c r="Q166" s="12"/>
+      <c r="R166" s="12"/>
+      <c r="S166" s="6"/>
+      <c r="T166" s="6"/>
+    </row>
+    <row r="167" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="12"/>
+      <c r="F167" s="12"/>
+      <c r="G167" s="12"/>
+      <c r="H167" s="12"/>
+      <c r="I167" s="12"/>
+      <c r="J167" s="12"/>
+      <c r="K167" s="12"/>
+      <c r="L167" s="12"/>
+      <c r="M167" s="12"/>
+      <c r="N167" s="12"/>
+      <c r="O167" s="12"/>
+      <c r="P167" s="12"/>
+      <c r="Q167" s="12"/>
+      <c r="R167" s="12"/>
+      <c r="S167" s="6"/>
+      <c r="T167" s="6"/>
+    </row>
+    <row r="168" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B168" s="5"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="12"/>
+      <c r="I168" s="12"/>
+      <c r="J168" s="12"/>
+      <c r="K168" s="12"/>
+      <c r="L168" s="12"/>
+      <c r="M168" s="12"/>
+      <c r="N168" s="12"/>
+      <c r="O168" s="12"/>
+      <c r="P168" s="12"/>
+      <c r="Q168" s="12"/>
+      <c r="R168" s="12"/>
+      <c r="S168" s="6"/>
+      <c r="T168" s="6"/>
+    </row>
+    <row r="169" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B169" s="5"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="12"/>
+      <c r="F169" s="12"/>
+      <c r="G169" s="12"/>
+      <c r="H169" s="12"/>
+      <c r="I169" s="12"/>
+      <c r="J169" s="12"/>
+      <c r="K169" s="12"/>
+      <c r="L169" s="12"/>
+      <c r="M169" s="12"/>
+      <c r="N169" s="12"/>
+      <c r="O169" s="12"/>
+      <c r="P169" s="12"/>
+      <c r="Q169" s="12"/>
+      <c r="R169" s="12"/>
+      <c r="S169" s="6"/>
+      <c r="T169" s="6"/>
+    </row>
+    <row r="170" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B170" s="5"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="12"/>
+      <c r="E170" s="12"/>
+      <c r="F170" s="12"/>
+      <c r="G170" s="12"/>
+      <c r="H170" s="12"/>
+      <c r="I170" s="12"/>
+      <c r="J170" s="12"/>
+      <c r="K170" s="12"/>
+      <c r="L170" s="12"/>
+      <c r="M170" s="12"/>
+      <c r="N170" s="12"/>
+      <c r="O170" s="12"/>
+      <c r="P170" s="12"/>
+      <c r="Q170" s="12"/>
+      <c r="R170" s="12"/>
+      <c r="S170" s="6"/>
+      <c r="T170" s="6"/>
+    </row>
+    <row r="171" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B171" s="5"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="12"/>
+      <c r="E171" s="12"/>
+      <c r="F171" s="12"/>
+      <c r="G171" s="12"/>
+      <c r="H171" s="12"/>
+      <c r="I171" s="12"/>
+      <c r="J171" s="12"/>
+      <c r="K171" s="12"/>
+      <c r="L171" s="12"/>
+      <c r="M171" s="12"/>
+      <c r="N171" s="12"/>
+      <c r="O171" s="12"/>
+      <c r="P171" s="12"/>
+      <c r="Q171" s="12"/>
+      <c r="R171" s="12"/>
+      <c r="S171" s="6"/>
+      <c r="T171" s="6"/>
+    </row>
+    <row r="172" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B172" s="5"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="12"/>
+      <c r="F172" s="12"/>
+      <c r="G172" s="12"/>
+      <c r="H172" s="12"/>
+      <c r="I172" s="12"/>
+      <c r="J172" s="12"/>
+      <c r="K172" s="12"/>
+      <c r="L172" s="12"/>
+      <c r="M172" s="12"/>
+      <c r="N172" s="12"/>
+      <c r="O172" s="12"/>
+      <c r="P172" s="12"/>
+      <c r="Q172" s="12"/>
+      <c r="R172" s="12"/>
+      <c r="S172" s="6"/>
+      <c r="T172" s="6"/>
+    </row>
+    <row r="173" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B173" s="5"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="12"/>
+      <c r="E173" s="12"/>
+      <c r="F173" s="12"/>
+      <c r="G173" s="12"/>
+      <c r="H173" s="12"/>
+      <c r="I173" s="12"/>
+      <c r="J173" s="12"/>
+      <c r="K173" s="12"/>
+      <c r="L173" s="12"/>
+      <c r="M173" s="12"/>
+      <c r="N173" s="12"/>
+      <c r="O173" s="12"/>
+      <c r="P173" s="12"/>
+      <c r="Q173" s="12"/>
+      <c r="R173" s="12"/>
+      <c r="S173" s="6"/>
+      <c r="T173" s="6"/>
+    </row>
+    <row r="174" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B174" s="5"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="12"/>
+      <c r="E174" s="12"/>
+      <c r="F174" s="12"/>
+      <c r="G174" s="12"/>
+      <c r="H174" s="12"/>
+      <c r="I174" s="12"/>
+      <c r="J174" s="12"/>
+      <c r="K174" s="12"/>
+      <c r="L174" s="12"/>
+      <c r="M174" s="12"/>
+      <c r="N174" s="12"/>
+      <c r="O174" s="12"/>
+      <c r="P174" s="12"/>
+      <c r="Q174" s="12"/>
+      <c r="R174" s="12"/>
+      <c r="S174" s="6"/>
+      <c r="T174" s="6"/>
+    </row>
+    <row r="175" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B175" s="5"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="12"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="12"/>
+      <c r="G175" s="12"/>
+      <c r="H175" s="12"/>
+      <c r="I175" s="12"/>
+      <c r="J175" s="12"/>
+      <c r="K175" s="12"/>
+      <c r="L175" s="12"/>
+      <c r="M175" s="12"/>
+      <c r="N175" s="12"/>
+      <c r="O175" s="12"/>
+      <c r="P175" s="12"/>
+      <c r="Q175" s="12"/>
+      <c r="R175" s="12"/>
+      <c r="S175" s="6"/>
+      <c r="T175" s="6"/>
+    </row>
+    <row r="176" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B176" s="5"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="12"/>
+      <c r="F176" s="12"/>
+      <c r="G176" s="12"/>
+      <c r="H176" s="12"/>
+      <c r="I176" s="12"/>
+      <c r="J176" s="12"/>
+      <c r="K176" s="12"/>
+      <c r="L176" s="12"/>
+      <c r="M176" s="12"/>
+      <c r="N176" s="12"/>
+      <c r="O176" s="12"/>
+      <c r="P176" s="12"/>
+      <c r="Q176" s="12"/>
+      <c r="R176" s="12"/>
+      <c r="S176" s="6"/>
+      <c r="T176" s="6"/>
+    </row>
+    <row r="177" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B177" s="5"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="12"/>
+      <c r="F177" s="12"/>
+      <c r="G177" s="12"/>
+      <c r="H177" s="12"/>
+      <c r="I177" s="12"/>
+      <c r="J177" s="12"/>
+      <c r="K177" s="12"/>
+      <c r="L177" s="12"/>
+      <c r="M177" s="12"/>
+      <c r="N177" s="12"/>
+      <c r="O177" s="12"/>
+      <c r="P177" s="12"/>
+      <c r="Q177" s="12"/>
+      <c r="R177" s="12"/>
+      <c r="S177" s="6"/>
+      <c r="T177" s="6"/>
+    </row>
+    <row r="178" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B178" s="5"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="12"/>
+      <c r="E178" s="12"/>
+      <c r="F178" s="12"/>
+      <c r="G178" s="12"/>
+      <c r="H178" s="12"/>
+      <c r="I178" s="12"/>
+      <c r="J178" s="12"/>
+      <c r="K178" s="12"/>
+      <c r="L178" s="12"/>
+      <c r="M178" s="12"/>
+      <c r="N178" s="12"/>
+      <c r="O178" s="12"/>
+      <c r="P178" s="12"/>
+      <c r="Q178" s="12"/>
+      <c r="R178" s="12"/>
+      <c r="S178" s="6"/>
+      <c r="T178" s="6"/>
+    </row>
+    <row r="179" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B179" s="5"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="12"/>
+      <c r="F179" s="12"/>
+      <c r="G179" s="12"/>
+      <c r="H179" s="12"/>
+      <c r="I179" s="12"/>
+      <c r="J179" s="12"/>
+      <c r="K179" s="12"/>
+      <c r="L179" s="12"/>
+      <c r="M179" s="12"/>
+      <c r="N179" s="12"/>
+      <c r="O179" s="12"/>
+      <c r="P179" s="12"/>
+      <c r="Q179" s="12"/>
+      <c r="R179" s="12"/>
+      <c r="S179" s="6"/>
+      <c r="T179" s="6"/>
+    </row>
+    <row r="180" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B180" s="5"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="12"/>
+      <c r="E180" s="12"/>
+      <c r="F180" s="12"/>
+      <c r="G180" s="12"/>
+      <c r="H180" s="12"/>
+      <c r="I180" s="12"/>
+      <c r="J180" s="12"/>
+      <c r="K180" s="12"/>
+      <c r="L180" s="12"/>
+      <c r="M180" s="12"/>
+      <c r="N180" s="12"/>
+      <c r="O180" s="12"/>
+      <c r="P180" s="12"/>
+      <c r="Q180" s="12"/>
+      <c r="R180" s="12"/>
+      <c r="S180" s="6"/>
+      <c r="T180" s="6"/>
+    </row>
+    <row r="181" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B181" s="5"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="12"/>
+      <c r="E181" s="12"/>
+      <c r="F181" s="12"/>
+      <c r="G181" s="12"/>
+      <c r="H181" s="12"/>
+      <c r="I181" s="12"/>
+      <c r="J181" s="12"/>
+      <c r="K181" s="12"/>
+      <c r="L181" s="12"/>
+      <c r="M181" s="12"/>
+      <c r="N181" s="12"/>
+      <c r="O181" s="12"/>
+      <c r="P181" s="12"/>
+      <c r="Q181" s="12"/>
+      <c r="R181" s="12"/>
+      <c r="S181" s="6"/>
+      <c r="T181" s="6"/>
+    </row>
+    <row r="182" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B182" s="5"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="12"/>
+      <c r="E182" s="12"/>
+      <c r="F182" s="12"/>
+      <c r="G182" s="12"/>
+      <c r="H182" s="12"/>
+      <c r="I182" s="12"/>
+      <c r="J182" s="12"/>
+      <c r="K182" s="12"/>
+      <c r="L182" s="12"/>
+      <c r="M182" s="12"/>
+      <c r="N182" s="12"/>
+      <c r="O182" s="12"/>
+      <c r="P182" s="12"/>
+      <c r="Q182" s="12"/>
+      <c r="R182" s="12"/>
+      <c r="S182" s="6"/>
+      <c r="T182" s="6"/>
+    </row>
+    <row r="183" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B183" s="5"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="12"/>
+      <c r="E183" s="12"/>
+      <c r="F183" s="12"/>
+      <c r="G183" s="12"/>
+      <c r="H183" s="12"/>
+      <c r="I183" s="12"/>
+      <c r="J183" s="12"/>
+      <c r="K183" s="12"/>
+      <c r="L183" s="12"/>
+      <c r="M183" s="12"/>
+      <c r="N183" s="12"/>
+      <c r="O183" s="12"/>
+      <c r="P183" s="12"/>
+      <c r="Q183" s="12"/>
+      <c r="R183" s="12"/>
+      <c r="S183" s="6"/>
+      <c r="T183" s="6"/>
+    </row>
+    <row r="184" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B184" s="5"/>
+      <c r="C184" s="5"/>
+      <c r="D184" s="12"/>
+      <c r="E184" s="12"/>
+      <c r="F184" s="12"/>
+      <c r="G184" s="12"/>
+      <c r="H184" s="12"/>
+      <c r="I184" s="12"/>
+      <c r="J184" s="12"/>
+      <c r="K184" s="12"/>
+      <c r="L184" s="12"/>
+      <c r="M184" s="12"/>
+      <c r="N184" s="12"/>
+      <c r="O184" s="12"/>
+      <c r="P184" s="12"/>
+      <c r="Q184" s="12"/>
+      <c r="R184" s="12"/>
+      <c r="S184" s="6"/>
+      <c r="T184" s="6"/>
+    </row>
+    <row r="185" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B185" s="5"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="12"/>
+      <c r="E185" s="12"/>
+      <c r="F185" s="12"/>
+      <c r="G185" s="12"/>
+      <c r="H185" s="12"/>
+      <c r="I185" s="12"/>
+      <c r="J185" s="12"/>
+      <c r="K185" s="12"/>
+      <c r="L185" s="12"/>
+      <c r="M185" s="12"/>
+      <c r="N185" s="12"/>
+      <c r="O185" s="12"/>
+      <c r="P185" s="12"/>
+      <c r="Q185" s="12"/>
+      <c r="R185" s="12"/>
+      <c r="S185" s="6"/>
+      <c r="T185" s="6"/>
+    </row>
+    <row r="186" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B186" s="5"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="12"/>
+      <c r="E186" s="12"/>
+      <c r="F186" s="12"/>
+      <c r="G186" s="12"/>
+      <c r="H186" s="12"/>
+      <c r="I186" s="12"/>
+      <c r="J186" s="12"/>
+      <c r="K186" s="12"/>
+      <c r="L186" s="12"/>
+      <c r="M186" s="12"/>
+      <c r="N186" s="12"/>
+      <c r="O186" s="12"/>
+      <c r="P186" s="12"/>
+      <c r="Q186" s="12"/>
+      <c r="R186" s="12"/>
+      <c r="S186" s="6"/>
+      <c r="T186" s="6"/>
+    </row>
+    <row r="187" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B187" s="5"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="12"/>
+      <c r="E187" s="12"/>
+      <c r="F187" s="12"/>
+      <c r="G187" s="12"/>
+      <c r="H187" s="12"/>
+      <c r="I187" s="12"/>
+      <c r="J187" s="12"/>
+      <c r="K187" s="12"/>
+      <c r="L187" s="12"/>
+      <c r="M187" s="12"/>
+      <c r="N187" s="12"/>
+      <c r="O187" s="12"/>
+      <c r="P187" s="12"/>
+      <c r="Q187" s="12"/>
+      <c r="R187" s="12"/>
+      <c r="S187" s="6"/>
+      <c r="T187" s="6"/>
+    </row>
+    <row r="188" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B188" s="5"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="12"/>
+      <c r="E188" s="12"/>
+      <c r="F188" s="12"/>
+      <c r="G188" s="12"/>
+      <c r="H188" s="12"/>
+      <c r="I188" s="12"/>
+      <c r="J188" s="12"/>
+      <c r="K188" s="12"/>
+      <c r="L188" s="12"/>
+      <c r="M188" s="12"/>
+      <c r="N188" s="12"/>
+      <c r="O188" s="12"/>
+      <c r="P188" s="12"/>
+      <c r="Q188" s="12"/>
+      <c r="R188" s="12"/>
+      <c r="S188" s="6"/>
+      <c r="T188" s="6"/>
+    </row>
+    <row r="189" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B189" s="5"/>
+      <c r="C189" s="5"/>
+      <c r="D189" s="12"/>
+      <c r="E189" s="12"/>
+      <c r="F189" s="12"/>
+      <c r="G189" s="12"/>
+      <c r="H189" s="12"/>
+      <c r="I189" s="12"/>
+      <c r="J189" s="12"/>
+      <c r="K189" s="12"/>
+      <c r="L189" s="12"/>
+      <c r="M189" s="12"/>
+      <c r="N189" s="12"/>
+      <c r="O189" s="12"/>
+      <c r="P189" s="12"/>
+      <c r="Q189" s="12"/>
+      <c r="R189" s="12"/>
+      <c r="S189" s="6"/>
+      <c r="T189" s="6"/>
+    </row>
+    <row r="190" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B190" s="5"/>
+      <c r="C190" s="5"/>
+      <c r="D190" s="12"/>
+      <c r="E190" s="12"/>
+      <c r="F190" s="12"/>
+      <c r="G190" s="12"/>
+      <c r="H190" s="12"/>
+      <c r="I190" s="12"/>
+      <c r="J190" s="12"/>
+      <c r="K190" s="12"/>
+      <c r="L190" s="12"/>
+      <c r="M190" s="12"/>
+      <c r="N190" s="12"/>
+      <c r="O190" s="12"/>
+      <c r="P190" s="12"/>
+      <c r="Q190" s="12"/>
+      <c r="R190" s="12"/>
+      <c r="S190" s="6"/>
+      <c r="T190" s="6"/>
+    </row>
+    <row r="191" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B191" s="5"/>
+      <c r="C191" s="5"/>
+      <c r="D191" s="12"/>
+      <c r="E191" s="12"/>
+      <c r="F191" s="12"/>
+      <c r="G191" s="12"/>
+      <c r="H191" s="12"/>
+      <c r="I191" s="12"/>
+      <c r="J191" s="12"/>
+      <c r="K191" s="12"/>
+      <c r="L191" s="12"/>
+      <c r="M191" s="12"/>
+      <c r="N191" s="12"/>
+      <c r="O191" s="12"/>
+      <c r="P191" s="12"/>
+      <c r="Q191" s="12"/>
+      <c r="R191" s="12"/>
+      <c r="S191" s="6"/>
+      <c r="T191" s="6"/>
+    </row>
+    <row r="192" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B192" s="5"/>
+      <c r="C192" s="5"/>
+      <c r="D192" s="12"/>
+      <c r="E192" s="12"/>
+      <c r="F192" s="12"/>
+      <c r="G192" s="12"/>
+      <c r="H192" s="12"/>
+      <c r="I192" s="12"/>
+      <c r="J192" s="12"/>
+      <c r="K192" s="12"/>
+      <c r="L192" s="12"/>
+      <c r="M192" s="12"/>
+      <c r="N192" s="12"/>
+      <c r="O192" s="12"/>
+      <c r="P192" s="12"/>
+      <c r="Q192" s="12"/>
+      <c r="R192" s="12"/>
+      <c r="S192" s="6"/>
+      <c r="T192" s="6"/>
+    </row>
+    <row r="193" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B193" s="5"/>
+      <c r="C193" s="5"/>
+      <c r="D193" s="12"/>
+      <c r="E193" s="12"/>
+      <c r="F193" s="12"/>
+      <c r="G193" s="12"/>
+      <c r="H193" s="12"/>
+      <c r="I193" s="12"/>
+      <c r="J193" s="12"/>
+      <c r="K193" s="12"/>
+      <c r="L193" s="12"/>
+      <c r="M193" s="12"/>
+      <c r="N193" s="12"/>
+      <c r="O193" s="12"/>
+      <c r="P193" s="12"/>
+      <c r="Q193" s="12"/>
+      <c r="R193" s="12"/>
+      <c r="S193" s="6"/>
+      <c r="T193" s="6"/>
+    </row>
+    <row r="194" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B194" s="5"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="12"/>
+      <c r="E194" s="12"/>
+      <c r="F194" s="12"/>
+      <c r="G194" s="12"/>
+      <c r="H194" s="12"/>
+      <c r="I194" s="12"/>
+      <c r="J194" s="12"/>
+      <c r="K194" s="12"/>
+      <c r="L194" s="12"/>
+      <c r="M194" s="12"/>
+      <c r="N194" s="12"/>
+      <c r="O194" s="12"/>
+      <c r="P194" s="12"/>
+      <c r="Q194" s="12"/>
+      <c r="R194" s="12"/>
+      <c r="S194" s="6"/>
+      <c r="T194" s="6"/>
+    </row>
+    <row r="195" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B195" s="5"/>
+      <c r="C195" s="5"/>
+      <c r="D195" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E195" s="3"/>
+      <c r="F195" s="3"/>
+      <c r="G195" s="3"/>
+      <c r="H195" s="3"/>
+      <c r="I195" s="3"/>
+      <c r="J195" s="4"/>
+      <c r="K195" s="12"/>
+      <c r="L195" s="12"/>
+      <c r="M195" s="12"/>
+      <c r="N195" s="12"/>
+      <c r="O195" s="12"/>
+      <c r="P195" s="12"/>
+      <c r="Q195" s="12"/>
+      <c r="R195" s="12"/>
+      <c r="S195" s="6"/>
+      <c r="T195" s="6"/>
+    </row>
+    <row r="196" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B196" s="5"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E196" s="12"/>
+      <c r="F196" s="12"/>
+      <c r="G196" s="12"/>
+      <c r="H196" s="12"/>
+      <c r="I196" s="12"/>
+      <c r="J196" s="6"/>
+      <c r="K196" s="12"/>
+      <c r="L196" s="12"/>
+      <c r="M196" s="12"/>
+      <c r="N196" s="12"/>
+      <c r="O196" s="12"/>
+      <c r="P196" s="12"/>
+      <c r="Q196" s="12"/>
+      <c r="R196" s="12"/>
+      <c r="S196" s="6"/>
+      <c r="T196" s="6"/>
+    </row>
+    <row r="197" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B197" s="5"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E197" s="12"/>
+      <c r="F197" s="12"/>
+      <c r="G197" s="12"/>
+      <c r="H197" s="12"/>
+      <c r="I197" s="12"/>
+      <c r="J197" s="6"/>
+      <c r="K197" s="12"/>
+      <c r="L197" s="12"/>
+      <c r="M197" s="12"/>
+      <c r="N197" s="12"/>
+      <c r="O197" s="12"/>
+      <c r="P197" s="12"/>
+      <c r="Q197" s="12"/>
+      <c r="R197" s="12"/>
+      <c r="S197" s="6"/>
+      <c r="T197" s="6"/>
+    </row>
+    <row r="198" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B198" s="5"/>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E198" s="12"/>
+      <c r="F198" s="12"/>
+      <c r="G198" s="12"/>
+      <c r="H198" s="12"/>
+      <c r="I198" s="12"/>
+      <c r="J198" s="6"/>
+      <c r="K198" s="12"/>
+      <c r="L198" s="12"/>
+      <c r="M198" s="12"/>
+      <c r="N198" s="12"/>
+      <c r="O198" s="12"/>
+      <c r="P198" s="12"/>
+      <c r="Q198" s="12"/>
+      <c r="R198" s="12"/>
+      <c r="S198" s="6"/>
+      <c r="T198" s="6"/>
+    </row>
+    <row r="199" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B199" s="5"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E199" s="12"/>
+      <c r="F199" s="12"/>
+      <c r="G199" s="12"/>
+      <c r="H199" s="12"/>
+      <c r="I199" s="12"/>
+      <c r="J199" s="6"/>
+      <c r="K199" s="12"/>
+      <c r="L199" s="12"/>
+      <c r="M199" s="12"/>
+      <c r="N199" s="12"/>
+      <c r="O199" s="12"/>
+      <c r="P199" s="12"/>
+      <c r="Q199" s="12"/>
+      <c r="R199" s="12"/>
+      <c r="S199" s="6"/>
+      <c r="T199" s="6"/>
+    </row>
+    <row r="200" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B200" s="5"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E200" s="12"/>
+      <c r="F200" s="12"/>
+      <c r="G200" s="12"/>
+      <c r="H200" s="12"/>
+      <c r="I200" s="12"/>
+      <c r="J200" s="6"/>
+      <c r="K200" s="12"/>
+      <c r="L200" s="12"/>
+      <c r="M200" s="12"/>
+      <c r="N200" s="12"/>
+      <c r="O200" s="12"/>
+      <c r="P200" s="12"/>
+      <c r="Q200" s="12"/>
+      <c r="R200" s="12"/>
+      <c r="S200" s="6"/>
+      <c r="T200" s="6"/>
+    </row>
+    <row r="201" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B201" s="5"/>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E201" s="12"/>
+      <c r="F201" s="12"/>
+      <c r="G201" s="12"/>
+      <c r="H201" s="12"/>
+      <c r="I201" s="12"/>
+      <c r="J201" s="6"/>
+      <c r="K201" s="12"/>
+      <c r="L201" s="12"/>
+      <c r="M201" s="12"/>
+      <c r="N201" s="12"/>
+      <c r="O201" s="12"/>
+      <c r="P201" s="12"/>
+      <c r="Q201" s="12"/>
+      <c r="R201" s="12"/>
+      <c r="S201" s="6"/>
+      <c r="T201" s="6"/>
+    </row>
+    <row r="202" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B202" s="5"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E202" s="12"/>
+      <c r="F202" s="12"/>
+      <c r="G202" s="12"/>
+      <c r="H202" s="12"/>
+      <c r="I202" s="12"/>
+      <c r="J202" s="6"/>
+      <c r="K202" s="12"/>
+      <c r="L202" s="12"/>
+      <c r="M202" s="12"/>
+      <c r="N202" s="12"/>
+      <c r="O202" s="12"/>
+      <c r="P202" s="12"/>
+      <c r="Q202" s="12"/>
+      <c r="R202" s="12"/>
+      <c r="S202" s="6"/>
+      <c r="T202" s="6"/>
+    </row>
+    <row r="203" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B203" s="5"/>
+      <c r="C203" s="5"/>
+      <c r="D203" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E203" s="12"/>
+      <c r="F203" s="12"/>
+      <c r="G203" s="12"/>
+      <c r="H203" s="12"/>
+      <c r="I203" s="12"/>
+      <c r="J203" s="6"/>
+      <c r="K203" s="12"/>
+      <c r="L203" s="12"/>
+      <c r="M203" s="12"/>
+      <c r="N203" s="12"/>
+      <c r="O203" s="12"/>
+      <c r="P203" s="12"/>
+      <c r="Q203" s="12"/>
+      <c r="R203" s="12"/>
+      <c r="S203" s="6"/>
+      <c r="T203" s="6"/>
+    </row>
+    <row r="204" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B204" s="5"/>
+      <c r="C204" s="5"/>
+      <c r="D204" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E204" s="12"/>
+      <c r="F204" s="12"/>
+      <c r="G204" s="12"/>
+      <c r="H204" s="12"/>
+      <c r="I204" s="12"/>
+      <c r="J204" s="6"/>
+      <c r="K204" s="12"/>
+      <c r="L204" s="12"/>
+      <c r="M204" s="12"/>
+      <c r="N204" s="12"/>
+      <c r="O204" s="12"/>
+      <c r="P204" s="12"/>
+      <c r="Q204" s="12"/>
+      <c r="R204" s="12"/>
+      <c r="S204" s="6"/>
+      <c r="T204" s="6"/>
+    </row>
+    <row r="205" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B205" s="5"/>
+      <c r="C205" s="5"/>
+      <c r="D205" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E205" s="12"/>
+      <c r="F205" s="12"/>
+      <c r="G205" s="12"/>
+      <c r="H205" s="12"/>
+      <c r="I205" s="12"/>
+      <c r="J205" s="6"/>
+      <c r="K205" s="12"/>
+      <c r="L205" s="12"/>
+      <c r="M205" s="12"/>
+      <c r="N205" s="12"/>
+      <c r="O205" s="12"/>
+      <c r="P205" s="12"/>
+      <c r="Q205" s="12"/>
+      <c r="R205" s="12"/>
+      <c r="S205" s="6"/>
+      <c r="T205" s="6"/>
+    </row>
+    <row r="206" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B206" s="5"/>
+      <c r="C206" s="5"/>
+      <c r="D206" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E206" s="12"/>
+      <c r="F206" s="12"/>
+      <c r="G206" s="12"/>
+      <c r="H206" s="12"/>
+      <c r="I206" s="12"/>
+      <c r="J206" s="6"/>
+      <c r="K206" s="12"/>
+      <c r="L206" s="12"/>
+      <c r="M206" s="12"/>
+      <c r="N206" s="12"/>
+      <c r="O206" s="12"/>
+      <c r="P206" s="12"/>
+      <c r="Q206" s="12"/>
+      <c r="R206" s="12"/>
+      <c r="S206" s="6"/>
+      <c r="T206" s="6"/>
+    </row>
+    <row r="207" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B207" s="5"/>
+      <c r="C207" s="5"/>
+      <c r="D207" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E207" s="12"/>
+      <c r="F207" s="12"/>
+      <c r="G207" s="12"/>
+      <c r="H207" s="12"/>
+      <c r="I207" s="12"/>
+      <c r="J207" s="6"/>
+      <c r="K207" s="12"/>
+      <c r="L207" s="12"/>
+      <c r="M207" s="12"/>
+      <c r="N207" s="12"/>
+      <c r="O207" s="12"/>
+      <c r="P207" s="12"/>
+      <c r="Q207" s="12"/>
+      <c r="R207" s="12"/>
+      <c r="S207" s="6"/>
+      <c r="T207" s="6"/>
+    </row>
+    <row r="208" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B208" s="5"/>
+      <c r="C208" s="5"/>
+      <c r="D208" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E208" s="12"/>
+      <c r="F208" s="12"/>
+      <c r="G208" s="12"/>
+      <c r="H208" s="12"/>
+      <c r="I208" s="12"/>
+      <c r="J208" s="6"/>
+      <c r="K208" s="12"/>
+      <c r="L208" s="12"/>
+      <c r="M208" s="12"/>
+      <c r="N208" s="12"/>
+      <c r="O208" s="12"/>
+      <c r="P208" s="12"/>
+      <c r="Q208" s="12"/>
+      <c r="R208" s="12"/>
+      <c r="S208" s="6"/>
+      <c r="T208" s="6"/>
+    </row>
+    <row r="209" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B209" s="5"/>
+      <c r="C209" s="5"/>
+      <c r="D209" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E209" s="12"/>
+      <c r="F209" s="12"/>
+      <c r="G209" s="12"/>
+      <c r="H209" s="12"/>
+      <c r="I209" s="12"/>
+      <c r="J209" s="6"/>
+      <c r="K209" s="12"/>
+      <c r="L209" s="12"/>
+      <c r="M209" s="12"/>
+      <c r="N209" s="12"/>
+      <c r="O209" s="12"/>
+      <c r="P209" s="12"/>
+      <c r="Q209" s="12"/>
+      <c r="R209" s="12"/>
+      <c r="S209" s="6"/>
+      <c r="T209" s="6"/>
+    </row>
+    <row r="210" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B210" s="5"/>
+      <c r="C210" s="5"/>
+      <c r="D210" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E210" s="12"/>
+      <c r="F210" s="12"/>
+      <c r="G210" s="12"/>
+      <c r="H210" s="12"/>
+      <c r="I210" s="12"/>
+      <c r="J210" s="6"/>
+      <c r="K210" s="12"/>
+      <c r="L210" s="12"/>
+      <c r="M210" s="12"/>
+      <c r="N210" s="12"/>
+      <c r="O210" s="12"/>
+      <c r="P210" s="12"/>
+      <c r="Q210" s="12"/>
+      <c r="R210" s="12"/>
+      <c r="S210" s="6"/>
+      <c r="T210" s="6"/>
+    </row>
+    <row r="211" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B211" s="5"/>
+      <c r="C211" s="5"/>
+      <c r="D211" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E211" s="12"/>
+      <c r="F211" s="12"/>
+      <c r="G211" s="12"/>
+      <c r="H211" s="12"/>
+      <c r="I211" s="12"/>
+      <c r="J211" s="6"/>
+      <c r="K211" s="12"/>
+      <c r="L211" s="12"/>
+      <c r="M211" s="12"/>
+      <c r="N211" s="12"/>
+      <c r="O211" s="12"/>
+      <c r="P211" s="12"/>
+      <c r="Q211" s="12"/>
+      <c r="R211" s="12"/>
+      <c r="S211" s="6"/>
+      <c r="T211" s="6"/>
+    </row>
+    <row r="212" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B212" s="5"/>
+      <c r="C212" s="5"/>
+      <c r="D212" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E212" s="12"/>
+      <c r="F212" s="12"/>
+      <c r="G212" s="12"/>
+      <c r="H212" s="12"/>
+      <c r="I212" s="12"/>
+      <c r="J212" s="6"/>
+      <c r="K212" s="12"/>
+      <c r="L212" s="12"/>
+      <c r="M212" s="12"/>
+      <c r="N212" s="12"/>
+      <c r="O212" s="12"/>
+      <c r="P212" s="12"/>
+      <c r="Q212" s="12"/>
+      <c r="R212" s="12"/>
+      <c r="S212" s="6"/>
+      <c r="T212" s="6"/>
+    </row>
+    <row r="213" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B213" s="5"/>
+      <c r="C213" s="5"/>
+      <c r="D213" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E213" s="12"/>
+      <c r="F213" s="12"/>
+      <c r="G213" s="12"/>
+      <c r="H213" s="12"/>
+      <c r="I213" s="12"/>
+      <c r="J213" s="6"/>
+      <c r="K213" s="12"/>
+      <c r="L213" s="12"/>
+      <c r="M213" s="12"/>
+      <c r="N213" s="12"/>
+      <c r="O213" s="12"/>
+      <c r="P213" s="12"/>
+      <c r="Q213" s="12"/>
+      <c r="R213" s="12"/>
+      <c r="S213" s="6"/>
+      <c r="T213" s="6"/>
+    </row>
+    <row r="214" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B214" s="5"/>
+      <c r="C214" s="5"/>
+      <c r="D214" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E214" s="12"/>
+      <c r="F214" s="12"/>
+      <c r="G214" s="12"/>
+      <c r="H214" s="12"/>
+      <c r="I214" s="12"/>
+      <c r="J214" s="6"/>
+      <c r="K214" s="12"/>
+      <c r="L214" s="12"/>
+      <c r="M214" s="12"/>
+      <c r="N214" s="12"/>
+      <c r="O214" s="12"/>
+      <c r="P214" s="12"/>
+      <c r="Q214" s="12"/>
+      <c r="R214" s="12"/>
+      <c r="S214" s="6"/>
+      <c r="T214" s="6"/>
+    </row>
+    <row r="215" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B215" s="5"/>
+      <c r="C215" s="5"/>
+      <c r="D215" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E215" s="12"/>
+      <c r="F215" s="12"/>
+      <c r="G215" s="12"/>
+      <c r="H215" s="12"/>
+      <c r="I215" s="12"/>
+      <c r="J215" s="6"/>
+      <c r="K215" s="12"/>
+      <c r="L215" s="12"/>
+      <c r="M215" s="12"/>
+      <c r="N215" s="12"/>
+      <c r="O215" s="12"/>
+      <c r="P215" s="12"/>
+      <c r="Q215" s="12"/>
+      <c r="R215" s="12"/>
+      <c r="S215" s="6"/>
+      <c r="T215" s="6"/>
+    </row>
+    <row r="216" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B216" s="5"/>
+      <c r="C216" s="5"/>
+      <c r="D216" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E216" s="12"/>
+      <c r="F216" s="12"/>
+      <c r="G216" s="12"/>
+      <c r="H216" s="12"/>
+      <c r="I216" s="12"/>
+      <c r="J216" s="6"/>
+      <c r="K216" s="12"/>
+      <c r="L216" s="12"/>
+      <c r="M216" s="12"/>
+      <c r="N216" s="12"/>
+      <c r="O216" s="12"/>
+      <c r="P216" s="12"/>
+      <c r="Q216" s="12"/>
+      <c r="R216" s="12"/>
+      <c r="S216" s="6"/>
+      <c r="T216" s="6"/>
+    </row>
+    <row r="217" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B217" s="5"/>
+      <c r="C217" s="5"/>
+      <c r="D217" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E217" s="12"/>
+      <c r="F217" s="12"/>
+      <c r="G217" s="12"/>
+      <c r="H217" s="12"/>
+      <c r="I217" s="12"/>
+      <c r="J217" s="6"/>
+      <c r="K217" s="12"/>
+      <c r="L217" s="12"/>
+      <c r="M217" s="12"/>
+      <c r="N217" s="12"/>
+      <c r="O217" s="12"/>
+      <c r="P217" s="12"/>
+      <c r="Q217" s="12"/>
+      <c r="R217" s="12"/>
+      <c r="S217" s="6"/>
+      <c r="T217" s="6"/>
+    </row>
+    <row r="218" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B218" s="5"/>
+      <c r="C218" s="5"/>
+      <c r="D218" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E218" s="12"/>
+      <c r="F218" s="12"/>
+      <c r="G218" s="12"/>
+      <c r="H218" s="12"/>
+      <c r="I218" s="12"/>
+      <c r="J218" s="6"/>
+      <c r="K218" s="12"/>
+      <c r="L218" s="12"/>
+      <c r="M218" s="12"/>
+      <c r="N218" s="12"/>
+      <c r="O218" s="12"/>
+      <c r="P218" s="12"/>
+      <c r="Q218" s="12"/>
+      <c r="R218" s="12"/>
+      <c r="S218" s="6"/>
+      <c r="T218" s="6"/>
+    </row>
+    <row r="219" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B219" s="5"/>
+      <c r="C219" s="5"/>
+      <c r="D219" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E219" s="12"/>
+      <c r="F219" s="12"/>
+      <c r="G219" s="12"/>
+      <c r="H219" s="12"/>
+      <c r="I219" s="12"/>
+      <c r="J219" s="6"/>
+      <c r="K219" s="12"/>
+      <c r="L219" s="12"/>
+      <c r="M219" s="12"/>
+      <c r="N219" s="12"/>
+      <c r="O219" s="12"/>
+      <c r="P219" s="12"/>
+      <c r="Q219" s="12"/>
+      <c r="R219" s="12"/>
+      <c r="S219" s="6"/>
+      <c r="T219" s="6"/>
+    </row>
+    <row r="220" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B220" s="5"/>
+      <c r="C220" s="5"/>
+      <c r="D220" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E220" s="12"/>
+      <c r="F220" s="12"/>
+      <c r="G220" s="12"/>
+      <c r="H220" s="12"/>
+      <c r="I220" s="12"/>
+      <c r="J220" s="6"/>
+      <c r="K220" s="12"/>
+      <c r="L220" s="12"/>
+      <c r="M220" s="12"/>
+      <c r="N220" s="12"/>
+      <c r="O220" s="12"/>
+      <c r="P220" s="12"/>
+      <c r="Q220" s="12"/>
+      <c r="R220" s="12"/>
+      <c r="S220" s="6"/>
+      <c r="T220" s="6"/>
+    </row>
+    <row r="221" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B221" s="5"/>
+      <c r="C221" s="5"/>
+      <c r="D221" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E221" s="12"/>
+      <c r="F221" s="12"/>
+      <c r="G221" s="12"/>
+      <c r="H221" s="12"/>
+      <c r="I221" s="12"/>
+      <c r="J221" s="6"/>
+      <c r="K221" s="12"/>
+      <c r="L221" s="12"/>
+      <c r="M221" s="12"/>
+      <c r="N221" s="12"/>
+      <c r="O221" s="12"/>
+      <c r="P221" s="12"/>
+      <c r="Q221" s="12"/>
+      <c r="R221" s="12"/>
+      <c r="S221" s="6"/>
+      <c r="T221" s="6"/>
+    </row>
+    <row r="222" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B222" s="5"/>
+      <c r="C222" s="5"/>
+      <c r="D222" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E222" s="12"/>
+      <c r="F222" s="12"/>
+      <c r="G222" s="12"/>
+      <c r="H222" s="12"/>
+      <c r="I222" s="12"/>
+      <c r="J222" s="6"/>
+      <c r="K222" s="12"/>
+      <c r="L222" s="12"/>
+      <c r="M222" s="12"/>
+      <c r="N222" s="12"/>
+      <c r="O222" s="12"/>
+      <c r="P222" s="12"/>
+      <c r="Q222" s="12"/>
+      <c r="R222" s="12"/>
+      <c r="S222" s="6"/>
+      <c r="T222" s="6"/>
+    </row>
+    <row r="223" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B223" s="5"/>
+      <c r="C223" s="5"/>
+      <c r="D223" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E223" s="12"/>
+      <c r="F223" s="12"/>
+      <c r="G223" s="12"/>
+      <c r="H223" s="12"/>
+      <c r="I223" s="12"/>
+      <c r="J223" s="6"/>
+      <c r="K223" s="12"/>
+      <c r="L223" s="12"/>
+      <c r="M223" s="12"/>
+      <c r="N223" s="12"/>
+      <c r="O223" s="12"/>
+      <c r="P223" s="12"/>
+      <c r="Q223" s="12"/>
+      <c r="R223" s="12"/>
+      <c r="S223" s="6"/>
+      <c r="T223" s="6"/>
+    </row>
+    <row r="224" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B224" s="5"/>
+      <c r="C224" s="5"/>
+      <c r="D224" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E224" s="12"/>
+      <c r="F224" s="12"/>
+      <c r="G224" s="12"/>
+      <c r="H224" s="12"/>
+      <c r="I224" s="12"/>
+      <c r="J224" s="6"/>
+      <c r="K224" s="12"/>
+      <c r="L224" s="12"/>
+      <c r="M224" s="12"/>
+      <c r="N224" s="12"/>
+      <c r="O224" s="12"/>
+      <c r="P224" s="12"/>
+      <c r="Q224" s="12"/>
+      <c r="R224" s="12"/>
+      <c r="S224" s="6"/>
+      <c r="T224" s="6"/>
+    </row>
+    <row r="225" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B225" s="5"/>
+      <c r="C225" s="5"/>
+      <c r="D225" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E225" s="12"/>
+      <c r="F225" s="12"/>
+      <c r="G225" s="12"/>
+      <c r="H225" s="12"/>
+      <c r="I225" s="12"/>
+      <c r="J225" s="6"/>
+      <c r="K225" s="12"/>
+      <c r="L225" s="12"/>
+      <c r="M225" s="12"/>
+      <c r="N225" s="12"/>
+      <c r="O225" s="12"/>
+      <c r="P225" s="12"/>
+      <c r="Q225" s="12"/>
+      <c r="R225" s="12"/>
+      <c r="S225" s="6"/>
+      <c r="T225" s="6"/>
+    </row>
+    <row r="226" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B226" s="5"/>
+      <c r="C226" s="5"/>
+      <c r="D226" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E226" s="12"/>
+      <c r="F226" s="12"/>
+      <c r="G226" s="12"/>
+      <c r="H226" s="12"/>
+      <c r="I226" s="12"/>
+      <c r="J226" s="6"/>
+      <c r="K226" s="12"/>
+      <c r="L226" s="12"/>
+      <c r="M226" s="12"/>
+      <c r="N226" s="12"/>
+      <c r="O226" s="12"/>
+      <c r="P226" s="12"/>
+      <c r="Q226" s="12"/>
+      <c r="R226" s="12"/>
+      <c r="S226" s="6"/>
+      <c r="T226" s="6"/>
+    </row>
+    <row r="227" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B227" s="5"/>
+      <c r="C227" s="5"/>
+      <c r="D227" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E227" s="12"/>
+      <c r="F227" s="12"/>
+      <c r="G227" s="12"/>
+      <c r="H227" s="12"/>
+      <c r="I227" s="12"/>
+      <c r="J227" s="6"/>
+      <c r="K227" s="12"/>
+      <c r="L227" s="12"/>
+      <c r="M227" s="12"/>
+      <c r="N227" s="12"/>
+      <c r="O227" s="12"/>
+      <c r="P227" s="12"/>
+      <c r="Q227" s="12"/>
+      <c r="R227" s="12"/>
+      <c r="S227" s="6"/>
+      <c r="T227" s="6"/>
+    </row>
+    <row r="228" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B228" s="5"/>
+      <c r="C228" s="5"/>
+      <c r="D228" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E228" s="12"/>
+      <c r="F228" s="12"/>
+      <c r="G228" s="12"/>
+      <c r="H228" s="12"/>
+      <c r="I228" s="12"/>
+      <c r="J228" s="6"/>
+      <c r="K228" s="12"/>
+      <c r="L228" s="12"/>
+      <c r="M228" s="12"/>
+      <c r="N228" s="12"/>
+      <c r="O228" s="12"/>
+      <c r="P228" s="12"/>
+      <c r="Q228" s="12"/>
+      <c r="R228" s="12"/>
+      <c r="S228" s="6"/>
+      <c r="T228" s="6"/>
+    </row>
+    <row r="229" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B229" s="5"/>
+      <c r="C229" s="5"/>
+      <c r="D229" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E229" s="12"/>
+      <c r="F229" s="12"/>
+      <c r="G229" s="12"/>
+      <c r="H229" s="12"/>
+      <c r="I229" s="12"/>
+      <c r="J229" s="6"/>
+      <c r="K229" s="12"/>
+      <c r="L229" s="12"/>
+      <c r="M229" s="12"/>
+      <c r="N229" s="12"/>
+      <c r="O229" s="12"/>
+      <c r="P229" s="12"/>
+      <c r="Q229" s="12"/>
+      <c r="R229" s="12"/>
+      <c r="S229" s="6"/>
+      <c r="T229" s="6"/>
+    </row>
+    <row r="230" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B230" s="5"/>
+      <c r="C230" s="5"/>
+      <c r="D230" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E230" s="12"/>
+      <c r="F230" s="12"/>
+      <c r="G230" s="12"/>
+      <c r="H230" s="12"/>
+      <c r="I230" s="12"/>
+      <c r="J230" s="6"/>
+      <c r="K230" s="12"/>
+      <c r="L230" s="12"/>
+      <c r="M230" s="12"/>
+      <c r="N230" s="12"/>
+      <c r="O230" s="12"/>
+      <c r="P230" s="12"/>
+      <c r="Q230" s="12"/>
+      <c r="R230" s="12"/>
+      <c r="S230" s="6"/>
+      <c r="T230" s="6"/>
+    </row>
+    <row r="231" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B231" s="5"/>
+      <c r="C231" s="5"/>
+      <c r="D231" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E231" s="12"/>
+      <c r="F231" s="12"/>
+      <c r="G231" s="12"/>
+      <c r="H231" s="12"/>
+      <c r="I231" s="12"/>
+      <c r="J231" s="6"/>
+      <c r="K231" s="12"/>
+      <c r="L231" s="12"/>
+      <c r="M231" s="12"/>
+      <c r="N231" s="12"/>
+      <c r="O231" s="12"/>
+      <c r="P231" s="12"/>
+      <c r="Q231" s="12"/>
+      <c r="R231" s="12"/>
+      <c r="S231" s="6"/>
+      <c r="T231" s="6"/>
+    </row>
+    <row r="232" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B232" s="5"/>
+      <c r="C232" s="5"/>
+      <c r="D232" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E232" s="12"/>
+      <c r="F232" s="12"/>
+      <c r="G232" s="12"/>
+      <c r="H232" s="12"/>
+      <c r="I232" s="12"/>
+      <c r="J232" s="6"/>
+      <c r="K232" s="12"/>
+      <c r="L232" s="12"/>
+      <c r="M232" s="12"/>
+      <c r="N232" s="12"/>
+      <c r="O232" s="12"/>
+      <c r="P232" s="12"/>
+      <c r="Q232" s="12"/>
+      <c r="R232" s="12"/>
+      <c r="S232" s="6"/>
+      <c r="T232" s="6"/>
+    </row>
+    <row r="233" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B233" s="5"/>
+      <c r="C233" s="5"/>
+      <c r="D233" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E233" s="12"/>
+      <c r="F233" s="12"/>
+      <c r="G233" s="12"/>
+      <c r="H233" s="12"/>
+      <c r="I233" s="12"/>
+      <c r="J233" s="6"/>
+      <c r="K233" s="12"/>
+      <c r="L233" s="12"/>
+      <c r="M233" s="12"/>
+      <c r="N233" s="12"/>
+      <c r="O233" s="12"/>
+      <c r="P233" s="12"/>
+      <c r="Q233" s="12"/>
+      <c r="R233" s="12"/>
+      <c r="S233" s="6"/>
+      <c r="T233" s="6"/>
+    </row>
+    <row r="234" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B234" s="5"/>
+      <c r="C234" s="5"/>
+      <c r="D234" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E234" s="12"/>
+      <c r="F234" s="12"/>
+      <c r="G234" s="12"/>
+      <c r="H234" s="12"/>
+      <c r="I234" s="12"/>
+      <c r="J234" s="6"/>
+      <c r="K234" s="12"/>
+      <c r="L234" s="12"/>
+      <c r="M234" s="12"/>
+      <c r="N234" s="12"/>
+      <c r="O234" s="12"/>
+      <c r="P234" s="12"/>
+      <c r="Q234" s="12"/>
+      <c r="R234" s="12"/>
+      <c r="S234" s="6"/>
+      <c r="T234" s="6"/>
+    </row>
+    <row r="235" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B235" s="5"/>
+      <c r="C235" s="5"/>
+      <c r="D235" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E235" s="12"/>
+      <c r="F235" s="12"/>
+      <c r="G235" s="12"/>
+      <c r="H235" s="12"/>
+      <c r="I235" s="12"/>
+      <c r="J235" s="6"/>
+      <c r="K235" s="12"/>
+      <c r="L235" s="12"/>
+      <c r="M235" s="12"/>
+      <c r="N235" s="12"/>
+      <c r="O235" s="12"/>
+      <c r="P235" s="12"/>
+      <c r="Q235" s="12"/>
+      <c r="R235" s="12"/>
+      <c r="S235" s="6"/>
+      <c r="T235" s="6"/>
+    </row>
+    <row r="236" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B236" s="5"/>
+      <c r="C236" s="5"/>
+      <c r="D236" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E236" s="12"/>
+      <c r="F236" s="12"/>
+      <c r="G236" s="12"/>
+      <c r="H236" s="12"/>
+      <c r="I236" s="12"/>
+      <c r="J236" s="6"/>
+      <c r="K236" s="12"/>
+      <c r="L236" s="12"/>
+      <c r="M236" s="12"/>
+      <c r="N236" s="12"/>
+      <c r="O236" s="12"/>
+      <c r="P236" s="12"/>
+      <c r="Q236" s="12"/>
+      <c r="R236" s="12"/>
+      <c r="S236" s="6"/>
+      <c r="T236" s="6"/>
+    </row>
+    <row r="237" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B237" s="5"/>
+      <c r="C237" s="5"/>
+      <c r="D237" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E237" s="12"/>
+      <c r="F237" s="12"/>
+      <c r="G237" s="12"/>
+      <c r="H237" s="12"/>
+      <c r="I237" s="12"/>
+      <c r="J237" s="6"/>
+      <c r="K237" s="12"/>
+      <c r="L237" s="12"/>
+      <c r="M237" s="12"/>
+      <c r="N237" s="12"/>
+      <c r="O237" s="12"/>
+      <c r="P237" s="12"/>
+      <c r="Q237" s="12"/>
+      <c r="R237" s="12"/>
+      <c r="S237" s="6"/>
+      <c r="T237" s="6"/>
+    </row>
+    <row r="238" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B238" s="5"/>
+      <c r="C238" s="5"/>
+      <c r="D238" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E238" s="12"/>
+      <c r="F238" s="12"/>
+      <c r="G238" s="12"/>
+      <c r="H238" s="12"/>
+      <c r="I238" s="12"/>
+      <c r="J238" s="6"/>
+      <c r="K238" s="12"/>
+      <c r="L238" s="12"/>
+      <c r="M238" s="12"/>
+      <c r="N238" s="12"/>
+      <c r="O238" s="12"/>
+      <c r="P238" s="12"/>
+      <c r="Q238" s="12"/>
+      <c r="R238" s="12"/>
+      <c r="S238" s="6"/>
+      <c r="T238" s="6"/>
+    </row>
+    <row r="239" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B239" s="5"/>
+      <c r="C239" s="5"/>
+      <c r="D239" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E239" s="12"/>
+      <c r="F239" s="12"/>
+      <c r="G239" s="12"/>
+      <c r="H239" s="12"/>
+      <c r="I239" s="12"/>
+      <c r="J239" s="6"/>
+      <c r="K239" s="12"/>
+      <c r="L239" s="12"/>
+      <c r="M239" s="12"/>
+      <c r="N239" s="12"/>
+      <c r="O239" s="12"/>
+      <c r="P239" s="12"/>
+      <c r="Q239" s="12"/>
+      <c r="R239" s="12"/>
+      <c r="S239" s="6"/>
+      <c r="T239" s="6"/>
+    </row>
+    <row r="240" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B240" s="5"/>
+      <c r="C240" s="5"/>
+      <c r="D240" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E240" s="12"/>
+      <c r="F240" s="12"/>
+      <c r="G240" s="12"/>
+      <c r="H240" s="12"/>
+      <c r="I240" s="12"/>
+      <c r="J240" s="6"/>
+      <c r="K240" s="12"/>
+      <c r="L240" s="12"/>
+      <c r="M240" s="12"/>
+      <c r="N240" s="12"/>
+      <c r="O240" s="12"/>
+      <c r="P240" s="12"/>
+      <c r="Q240" s="12"/>
+      <c r="R240" s="12"/>
+      <c r="S240" s="6"/>
+      <c r="T240" s="6"/>
+    </row>
+    <row r="241" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B241" s="5"/>
+      <c r="C241" s="5"/>
+      <c r="D241" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E241" s="12"/>
+      <c r="F241" s="12"/>
+      <c r="G241" s="12"/>
+      <c r="H241" s="12"/>
+      <c r="I241" s="12"/>
+      <c r="J241" s="6"/>
+      <c r="K241" s="12"/>
+      <c r="L241" s="12"/>
+      <c r="M241" s="12"/>
+      <c r="N241" s="12"/>
+      <c r="O241" s="12"/>
+      <c r="P241" s="12"/>
+      <c r="Q241" s="12"/>
+      <c r="R241" s="12"/>
+      <c r="S241" s="6"/>
+      <c r="T241" s="6"/>
+    </row>
+    <row r="242" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B242" s="5"/>
+      <c r="C242" s="5"/>
+      <c r="D242" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E242" s="12"/>
+      <c r="F242" s="12"/>
+      <c r="G242" s="12"/>
+      <c r="H242" s="12"/>
+      <c r="I242" s="12"/>
+      <c r="J242" s="6"/>
+      <c r="K242" s="12"/>
+      <c r="L242" s="12"/>
+      <c r="M242" s="12"/>
+      <c r="N242" s="12"/>
+      <c r="O242" s="12"/>
+      <c r="P242" s="12"/>
+      <c r="Q242" s="12"/>
+      <c r="R242" s="12"/>
+      <c r="S242" s="6"/>
+      <c r="T242" s="6"/>
+    </row>
+    <row r="243" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B243" s="5"/>
+      <c r="C243" s="5"/>
+      <c r="D243" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E243" s="12"/>
+      <c r="F243" s="12"/>
+      <c r="G243" s="12"/>
+      <c r="H243" s="12"/>
+      <c r="I243" s="12"/>
+      <c r="J243" s="6"/>
+      <c r="K243" s="12"/>
+      <c r="L243" s="12"/>
+      <c r="M243" s="12"/>
+      <c r="N243" s="12"/>
+      <c r="O243" s="12"/>
+      <c r="P243" s="12"/>
+      <c r="Q243" s="12"/>
+      <c r="R243" s="12"/>
+      <c r="S243" s="6"/>
+      <c r="T243" s="6"/>
+    </row>
+    <row r="244" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B244" s="5"/>
+      <c r="C244" s="5"/>
+      <c r="D244" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E244" s="12"/>
+      <c r="F244" s="12"/>
+      <c r="G244" s="12"/>
+      <c r="H244" s="12"/>
+      <c r="I244" s="12"/>
+      <c r="J244" s="6"/>
+      <c r="K244" s="12"/>
+      <c r="L244" s="12"/>
+      <c r="M244" s="12"/>
+      <c r="N244" s="12"/>
+      <c r="O244" s="12"/>
+      <c r="P244" s="12"/>
+      <c r="Q244" s="12"/>
+      <c r="R244" s="12"/>
+      <c r="S244" s="6"/>
+      <c r="T244" s="6"/>
+    </row>
+    <row r="245" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B245" s="5"/>
+      <c r="C245" s="5"/>
+      <c r="D245" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E245" s="12"/>
+      <c r="F245" s="12"/>
+      <c r="G245" s="12"/>
+      <c r="H245" s="12"/>
+      <c r="I245" s="12"/>
+      <c r="J245" s="6"/>
+      <c r="K245" s="12"/>
+      <c r="L245" s="12"/>
+      <c r="M245" s="12"/>
+      <c r="N245" s="12"/>
+      <c r="O245" s="12"/>
+      <c r="P245" s="12"/>
+      <c r="Q245" s="12"/>
+      <c r="R245" s="12"/>
+      <c r="S245" s="6"/>
+      <c r="T245" s="6"/>
+    </row>
+    <row r="246" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B246" s="5"/>
+      <c r="C246" s="5"/>
+      <c r="D246" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E246" s="12"/>
+      <c r="F246" s="12"/>
+      <c r="G246" s="12"/>
+      <c r="H246" s="12"/>
+      <c r="I246" s="12"/>
+      <c r="J246" s="6"/>
+      <c r="K246" s="12"/>
+      <c r="L246" s="12"/>
+      <c r="M246" s="12"/>
+      <c r="N246" s="12"/>
+      <c r="O246" s="12"/>
+      <c r="P246" s="12"/>
+      <c r="Q246" s="12"/>
+      <c r="R246" s="12"/>
+      <c r="S246" s="6"/>
+      <c r="T246" s="6"/>
+    </row>
+    <row r="247" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B247" s="5"/>
+      <c r="C247" s="5"/>
+      <c r="D247" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E247" s="12"/>
+      <c r="F247" s="12"/>
+      <c r="G247" s="12"/>
+      <c r="H247" s="12"/>
+      <c r="I247" s="12"/>
+      <c r="J247" s="6"/>
+      <c r="K247" s="12"/>
+      <c r="L247" s="12"/>
+      <c r="M247" s="12"/>
+      <c r="N247" s="12"/>
+      <c r="O247" s="12"/>
+      <c r="P247" s="12"/>
+      <c r="Q247" s="12"/>
+      <c r="R247" s="12"/>
+      <c r="S247" s="6"/>
+      <c r="T247" s="6"/>
+    </row>
+    <row r="248" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B248" s="5"/>
+      <c r="C248" s="5"/>
+      <c r="D248" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E248" s="12"/>
+      <c r="F248" s="12"/>
+      <c r="G248" s="12"/>
+      <c r="H248" s="12"/>
+      <c r="I248" s="12"/>
+      <c r="J248" s="6"/>
+      <c r="K248" s="12"/>
+      <c r="L248" s="12"/>
+      <c r="M248" s="12"/>
+      <c r="N248" s="12"/>
+      <c r="O248" s="12"/>
+      <c r="P248" s="12"/>
+      <c r="Q248" s="12"/>
+      <c r="R248" s="12"/>
+      <c r="S248" s="6"/>
+      <c r="T248" s="6"/>
+    </row>
+    <row r="249" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B249" s="5"/>
+      <c r="C249" s="5"/>
+      <c r="D249" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E249" s="12"/>
+      <c r="F249" s="12"/>
+      <c r="G249" s="12"/>
+      <c r="H249" s="12"/>
+      <c r="I249" s="12"/>
+      <c r="J249" s="6"/>
+      <c r="K249" s="12"/>
+      <c r="L249" s="12"/>
+      <c r="M249" s="12"/>
+      <c r="N249" s="12"/>
+      <c r="O249" s="12"/>
+      <c r="P249" s="12"/>
+      <c r="Q249" s="12"/>
+      <c r="R249" s="12"/>
+      <c r="S249" s="6"/>
+      <c r="T249" s="6"/>
+    </row>
+    <row r="250" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B250" s="5"/>
+      <c r="C250" s="5"/>
+      <c r="D250" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E250" s="12"/>
+      <c r="F250" s="12"/>
+      <c r="G250" s="12"/>
+      <c r="H250" s="12"/>
+      <c r="I250" s="12"/>
+      <c r="J250" s="6"/>
+      <c r="K250" s="12"/>
+      <c r="L250" s="12"/>
+      <c r="M250" s="12"/>
+      <c r="N250" s="12"/>
+      <c r="O250" s="12"/>
+      <c r="P250" s="12"/>
+      <c r="Q250" s="12"/>
+      <c r="R250" s="12"/>
+      <c r="S250" s="6"/>
+      <c r="T250" s="6"/>
+    </row>
+    <row r="251" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B251" s="5"/>
+      <c r="C251" s="5"/>
+      <c r="D251" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E251" s="12"/>
+      <c r="F251" s="12"/>
+      <c r="G251" s="12"/>
+      <c r="H251" s="12"/>
+      <c r="I251" s="12"/>
+      <c r="J251" s="6"/>
+      <c r="K251" s="12"/>
+      <c r="L251" s="12"/>
+      <c r="M251" s="12"/>
+      <c r="N251" s="12"/>
+      <c r="O251" s="12"/>
+      <c r="P251" s="12"/>
+      <c r="Q251" s="12"/>
+      <c r="R251" s="12"/>
+      <c r="S251" s="6"/>
+      <c r="T251" s="6"/>
+    </row>
+    <row r="252" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B252" s="5"/>
+      <c r="C252" s="5"/>
+      <c r="D252" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E252" s="12"/>
+      <c r="F252" s="12"/>
+      <c r="G252" s="12"/>
+      <c r="H252" s="12"/>
+      <c r="I252" s="12"/>
+      <c r="J252" s="6"/>
+      <c r="K252" s="12"/>
+      <c r="L252" s="12"/>
+      <c r="M252" s="12"/>
+      <c r="N252" s="12"/>
+      <c r="O252" s="12"/>
+      <c r="P252" s="12"/>
+      <c r="Q252" s="12"/>
+      <c r="R252" s="12"/>
+      <c r="S252" s="6"/>
+      <c r="T252" s="6"/>
+    </row>
+    <row r="253" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B253" s="5"/>
+      <c r="C253" s="5"/>
+      <c r="D253" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E253" s="12"/>
+      <c r="F253" s="12"/>
+      <c r="G253" s="12"/>
+      <c r="H253" s="12"/>
+      <c r="I253" s="12"/>
+      <c r="J253" s="6"/>
+      <c r="K253" s="12"/>
+      <c r="L253" s="12"/>
+      <c r="M253" s="12"/>
+      <c r="N253" s="12"/>
+      <c r="O253" s="12"/>
+      <c r="P253" s="12"/>
+      <c r="Q253" s="12"/>
+      <c r="R253" s="12"/>
+      <c r="S253" s="6"/>
+      <c r="T253" s="6"/>
+    </row>
+    <row r="254" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B254" s="5"/>
+      <c r="C254" s="5"/>
+      <c r="D254" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E254" s="12"/>
+      <c r="F254" s="12"/>
+      <c r="G254" s="12"/>
+      <c r="H254" s="12"/>
+      <c r="I254" s="12"/>
+      <c r="J254" s="6"/>
+      <c r="K254" s="12"/>
+      <c r="L254" s="12"/>
+      <c r="M254" s="12"/>
+      <c r="N254" s="12"/>
+      <c r="O254" s="12"/>
+      <c r="P254" s="12"/>
+      <c r="Q254" s="12"/>
+      <c r="R254" s="12"/>
+      <c r="S254" s="6"/>
+      <c r="T254" s="6"/>
+    </row>
+    <row r="255" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B255" s="5"/>
+      <c r="C255" s="5"/>
+      <c r="D255" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E255" s="12"/>
+      <c r="F255" s="12"/>
+      <c r="G255" s="12"/>
+      <c r="H255" s="12"/>
+      <c r="I255" s="12"/>
+      <c r="J255" s="6"/>
+      <c r="K255" s="12"/>
+      <c r="L255" s="12"/>
+      <c r="M255" s="12"/>
+      <c r="N255" s="12"/>
+      <c r="O255" s="12"/>
+      <c r="P255" s="12"/>
+      <c r="Q255" s="12"/>
+      <c r="R255" s="12"/>
+      <c r="S255" s="6"/>
+      <c r="T255" s="6"/>
+    </row>
+    <row r="256" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B256" s="5"/>
+      <c r="C256" s="5"/>
+      <c r="D256" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E256" s="12"/>
+      <c r="F256" s="12"/>
+      <c r="G256" s="12"/>
+      <c r="H256" s="12"/>
+      <c r="I256" s="12"/>
+      <c r="J256" s="6"/>
+      <c r="K256" s="12"/>
+      <c r="L256" s="12"/>
+      <c r="M256" s="12"/>
+      <c r="N256" s="12"/>
+      <c r="O256" s="12"/>
+      <c r="P256" s="12"/>
+      <c r="Q256" s="12"/>
+      <c r="R256" s="12"/>
+      <c r="S256" s="6"/>
+      <c r="T256" s="6"/>
+    </row>
+    <row r="257" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B257" s="5"/>
+      <c r="C257" s="5"/>
+      <c r="D257" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E257" s="12"/>
+      <c r="F257" s="12"/>
+      <c r="G257" s="12"/>
+      <c r="H257" s="12"/>
+      <c r="I257" s="12"/>
+      <c r="J257" s="6"/>
+      <c r="K257" s="12"/>
+      <c r="L257" s="12"/>
+      <c r="M257" s="12"/>
+      <c r="N257" s="12"/>
+      <c r="O257" s="12"/>
+      <c r="P257" s="12"/>
+      <c r="Q257" s="12"/>
+      <c r="R257" s="12"/>
+      <c r="S257" s="6"/>
+      <c r="T257" s="6"/>
+    </row>
+    <row r="258" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B258" s="5"/>
+      <c r="C258" s="5"/>
+      <c r="D258" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E258" s="12"/>
+      <c r="F258" s="12"/>
+      <c r="G258" s="12"/>
+      <c r="H258" s="12"/>
+      <c r="I258" s="12"/>
+      <c r="J258" s="6"/>
+      <c r="K258" s="12"/>
+      <c r="L258" s="12"/>
+      <c r="M258" s="12"/>
+      <c r="N258" s="12"/>
+      <c r="O258" s="12"/>
+      <c r="P258" s="12"/>
+      <c r="Q258" s="12"/>
+      <c r="R258" s="12"/>
+      <c r="S258" s="6"/>
+      <c r="T258" s="6"/>
+    </row>
+    <row r="259" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B259" s="5"/>
+      <c r="C259" s="5"/>
+      <c r="D259" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E259" s="12"/>
+      <c r="F259" s="12"/>
+      <c r="G259" s="12"/>
+      <c r="H259" s="12"/>
+      <c r="I259" s="12"/>
+      <c r="J259" s="6"/>
+      <c r="K259" s="12"/>
+      <c r="L259" s="12"/>
+      <c r="M259" s="12"/>
+      <c r="N259" s="12"/>
+      <c r="O259" s="12"/>
+      <c r="P259" s="12"/>
+      <c r="Q259" s="12"/>
+      <c r="R259" s="12"/>
+      <c r="S259" s="6"/>
+      <c r="T259" s="6"/>
+    </row>
+    <row r="260" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B260" s="5"/>
+      <c r="C260" s="5"/>
+      <c r="D260" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E260" s="12"/>
+      <c r="F260" s="12"/>
+      <c r="G260" s="12"/>
+      <c r="H260" s="12"/>
+      <c r="I260" s="12"/>
+      <c r="J260" s="6"/>
+      <c r="K260" s="12"/>
+      <c r="L260" s="12"/>
+      <c r="M260" s="12"/>
+      <c r="N260" s="12"/>
+      <c r="O260" s="12"/>
+      <c r="P260" s="12"/>
+      <c r="Q260" s="12"/>
+      <c r="R260" s="12"/>
+      <c r="S260" s="6"/>
+      <c r="T260" s="6"/>
+    </row>
+    <row r="261" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B261" s="5"/>
+      <c r="C261" s="5"/>
+      <c r="D261" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E261" s="12"/>
+      <c r="F261" s="12"/>
+      <c r="G261" s="12"/>
+      <c r="H261" s="12"/>
+      <c r="I261" s="12"/>
+      <c r="J261" s="6"/>
+      <c r="K261" s="12"/>
+      <c r="L261" s="12"/>
+      <c r="M261" s="12"/>
+      <c r="N261" s="12"/>
+      <c r="O261" s="12"/>
+      <c r="P261" s="12"/>
+      <c r="Q261" s="12"/>
+      <c r="R261" s="12"/>
+      <c r="S261" s="6"/>
+      <c r="T261" s="6"/>
+    </row>
+    <row r="262" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B262" s="5"/>
+      <c r="C262" s="5"/>
+      <c r="D262" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E262" s="12"/>
+      <c r="F262" s="12"/>
+      <c r="G262" s="12"/>
+      <c r="H262" s="12"/>
+      <c r="I262" s="12"/>
+      <c r="J262" s="6"/>
+      <c r="K262" s="12"/>
+      <c r="L262" s="12"/>
+      <c r="M262" s="12"/>
+      <c r="N262" s="12"/>
+      <c r="O262" s="12"/>
+      <c r="P262" s="12"/>
+      <c r="Q262" s="12"/>
+      <c r="R262" s="12"/>
+      <c r="S262" s="6"/>
+      <c r="T262" s="6"/>
+    </row>
+    <row r="263" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B263" s="5"/>
+      <c r="C263" s="5"/>
+      <c r="D263" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E263" s="12"/>
+      <c r="F263" s="12"/>
+      <c r="G263" s="12"/>
+      <c r="H263" s="12"/>
+      <c r="I263" s="12"/>
+      <c r="J263" s="6"/>
+      <c r="K263" s="12"/>
+      <c r="L263" s="12"/>
+      <c r="M263" s="12"/>
+      <c r="N263" s="12"/>
+      <c r="O263" s="12"/>
+      <c r="P263" s="12"/>
+      <c r="Q263" s="12"/>
+      <c r="R263" s="12"/>
+      <c r="S263" s="6"/>
+      <c r="T263" s="6"/>
+    </row>
+    <row r="264" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B264" s="5"/>
+      <c r="C264" s="5"/>
+      <c r="D264" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E264" s="12"/>
+      <c r="F264" s="12"/>
+      <c r="G264" s="12"/>
+      <c r="H264" s="12"/>
+      <c r="I264" s="12"/>
+      <c r="J264" s="6"/>
+      <c r="K264" s="12"/>
+      <c r="L264" s="12"/>
+      <c r="M264" s="12"/>
+      <c r="N264" s="12"/>
+      <c r="O264" s="12"/>
+      <c r="P264" s="12"/>
+      <c r="Q264" s="12"/>
+      <c r="R264" s="12"/>
+      <c r="S264" s="6"/>
+      <c r="T264" s="6"/>
+    </row>
+    <row r="265" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B265" s="5"/>
+      <c r="C265" s="5"/>
+      <c r="D265" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E265" s="12"/>
+      <c r="F265" s="12"/>
+      <c r="G265" s="12"/>
+      <c r="H265" s="12"/>
+      <c r="I265" s="12"/>
+      <c r="J265" s="6"/>
+      <c r="K265" s="12"/>
+      <c r="L265" s="12"/>
+      <c r="M265" s="12"/>
+      <c r="N265" s="12"/>
+      <c r="O265" s="12"/>
+      <c r="P265" s="12"/>
+      <c r="Q265" s="12"/>
+      <c r="R265" s="12"/>
+      <c r="S265" s="6"/>
+      <c r="T265" s="6"/>
+    </row>
+    <row r="266" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B266" s="5"/>
+      <c r="C266" s="5"/>
+      <c r="D266" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E266" s="12"/>
+      <c r="F266" s="12"/>
+      <c r="G266" s="12"/>
+      <c r="H266" s="12"/>
+      <c r="I266" s="12"/>
+      <c r="J266" s="6"/>
+      <c r="K266" s="12"/>
+      <c r="L266" s="12"/>
+      <c r="M266" s="12"/>
+      <c r="N266" s="12"/>
+      <c r="O266" s="12"/>
+      <c r="P266" s="12"/>
+      <c r="Q266" s="12"/>
+      <c r="R266" s="12"/>
+      <c r="S266" s="6"/>
+      <c r="T266" s="6"/>
+    </row>
+    <row r="267" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B267" s="5"/>
+      <c r="C267" s="5"/>
+      <c r="D267" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E267" s="12"/>
+      <c r="F267" s="12"/>
+      <c r="G267" s="12"/>
+      <c r="H267" s="12"/>
+      <c r="I267" s="12"/>
+      <c r="J267" s="6"/>
+      <c r="K267" s="12"/>
+      <c r="L267" s="12"/>
+      <c r="M267" s="12"/>
+      <c r="N267" s="12"/>
+      <c r="O267" s="12"/>
+      <c r="P267" s="12"/>
+      <c r="Q267" s="12"/>
+      <c r="R267" s="12"/>
+      <c r="S267" s="6"/>
+      <c r="T267" s="6"/>
+    </row>
+    <row r="268" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B268" s="5"/>
+      <c r="C268" s="5"/>
+      <c r="D268" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E268" s="12"/>
+      <c r="F268" s="12"/>
+      <c r="G268" s="12"/>
+      <c r="H268" s="12"/>
+      <c r="I268" s="12"/>
+      <c r="J268" s="6"/>
+      <c r="K268" s="12"/>
+      <c r="L268" s="12"/>
+      <c r="M268" s="12"/>
+      <c r="N268" s="12"/>
+      <c r="O268" s="12"/>
+      <c r="P268" s="12"/>
+      <c r="Q268" s="12"/>
+      <c r="R268" s="12"/>
+      <c r="S268" s="6"/>
+      <c r="T268" s="6"/>
+    </row>
+    <row r="269" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B269" s="5"/>
+      <c r="C269" s="5"/>
+      <c r="D269" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E269" s="12"/>
+      <c r="F269" s="12"/>
+      <c r="G269" s="12"/>
+      <c r="H269" s="12"/>
+      <c r="I269" s="12"/>
+      <c r="J269" s="6"/>
+      <c r="K269" s="12"/>
+      <c r="L269" s="12"/>
+      <c r="M269" s="12"/>
+      <c r="N269" s="12"/>
+      <c r="O269" s="12"/>
+      <c r="P269" s="12"/>
+      <c r="Q269" s="12"/>
+      <c r="R269" s="12"/>
+      <c r="S269" s="6"/>
+      <c r="T269" s="6"/>
+    </row>
+    <row r="270" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B270" s="5"/>
+      <c r="C270" s="5"/>
+      <c r="D270" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E270" s="12"/>
+      <c r="F270" s="12"/>
+      <c r="G270" s="12"/>
+      <c r="H270" s="12"/>
+      <c r="I270" s="12"/>
+      <c r="J270" s="6"/>
+      <c r="K270" s="12"/>
+      <c r="L270" s="12"/>
+      <c r="M270" s="12"/>
+      <c r="N270" s="12"/>
+      <c r="O270" s="12"/>
+      <c r="P270" s="12"/>
+      <c r="Q270" s="12"/>
+      <c r="R270" s="12"/>
+      <c r="S270" s="6"/>
+      <c r="T270" s="6"/>
+    </row>
+    <row r="271" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B271" s="5"/>
+      <c r="C271" s="5"/>
+      <c r="D271" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E271" s="12"/>
+      <c r="F271" s="12"/>
+      <c r="G271" s="12"/>
+      <c r="H271" s="12"/>
+      <c r="I271" s="12"/>
+      <c r="J271" s="6"/>
+      <c r="K271" s="12"/>
+      <c r="L271" s="12"/>
+      <c r="M271" s="12"/>
+      <c r="N271" s="12"/>
+      <c r="O271" s="12"/>
+      <c r="P271" s="12"/>
+      <c r="Q271" s="12"/>
+      <c r="R271" s="12"/>
+      <c r="S271" s="6"/>
+      <c r="T271" s="6"/>
+    </row>
+    <row r="272" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B272" s="5"/>
+      <c r="C272" s="5"/>
+      <c r="D272" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E272" s="12"/>
+      <c r="F272" s="12"/>
+      <c r="G272" s="12"/>
+      <c r="H272" s="12"/>
+      <c r="I272" s="12"/>
+      <c r="J272" s="6"/>
+      <c r="K272" s="12"/>
+      <c r="L272" s="12"/>
+      <c r="M272" s="12"/>
+      <c r="N272" s="12"/>
+      <c r="O272" s="12"/>
+      <c r="P272" s="12"/>
+      <c r="Q272" s="12"/>
+      <c r="R272" s="12"/>
+      <c r="S272" s="6"/>
+      <c r="T272" s="6"/>
+    </row>
+    <row r="273" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B273" s="5"/>
+      <c r="C273" s="5"/>
+      <c r="D273" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E273" s="12"/>
+      <c r="F273" s="12"/>
+      <c r="G273" s="12"/>
+      <c r="H273" s="12"/>
+      <c r="I273" s="12"/>
+      <c r="J273" s="6"/>
+      <c r="K273" s="12"/>
+      <c r="L273" s="12"/>
+      <c r="M273" s="12"/>
+      <c r="N273" s="12"/>
+      <c r="O273" s="12"/>
+      <c r="P273" s="12"/>
+      <c r="Q273" s="12"/>
+      <c r="R273" s="12"/>
+      <c r="S273" s="6"/>
+      <c r="T273" s="6"/>
+    </row>
+    <row r="274" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B274" s="5"/>
+      <c r="C274" s="5"/>
+      <c r="D274" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E274" s="12"/>
+      <c r="F274" s="12"/>
+      <c r="G274" s="12"/>
+      <c r="H274" s="12"/>
+      <c r="I274" s="12"/>
+      <c r="J274" s="6"/>
+      <c r="K274" s="12"/>
+      <c r="L274" s="12"/>
+      <c r="M274" s="12"/>
+      <c r="N274" s="12"/>
+      <c r="O274" s="12"/>
+      <c r="P274" s="12"/>
+      <c r="Q274" s="12"/>
+      <c r="R274" s="12"/>
+      <c r="S274" s="6"/>
+      <c r="T274" s="6"/>
+    </row>
+    <row r="275" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B275" s="5"/>
+      <c r="C275" s="5"/>
+      <c r="D275" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E275" s="12"/>
+      <c r="F275" s="12"/>
+      <c r="G275" s="12"/>
+      <c r="H275" s="12"/>
+      <c r="I275" s="12"/>
+      <c r="J275" s="6"/>
+      <c r="K275" s="12"/>
+      <c r="L275" s="12"/>
+      <c r="M275" s="12"/>
+      <c r="N275" s="12"/>
+      <c r="O275" s="12"/>
+      <c r="P275" s="12"/>
+      <c r="Q275" s="12"/>
+      <c r="R275" s="12"/>
+      <c r="S275" s="6"/>
+      <c r="T275" s="6"/>
+    </row>
+    <row r="276" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B276" s="5"/>
+      <c r="C276" s="5"/>
+      <c r="D276" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E276" s="12"/>
+      <c r="F276" s="12"/>
+      <c r="G276" s="12"/>
+      <c r="H276" s="12"/>
+      <c r="I276" s="12"/>
+      <c r="J276" s="6"/>
+      <c r="K276" s="12"/>
+      <c r="L276" s="12"/>
+      <c r="M276" s="12"/>
+      <c r="N276" s="12"/>
+      <c r="O276" s="12"/>
+      <c r="P276" s="12"/>
+      <c r="Q276" s="12"/>
+      <c r="R276" s="12"/>
+      <c r="S276" s="6"/>
+      <c r="T276" s="6"/>
+    </row>
+    <row r="277" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B277" s="5"/>
+      <c r="C277" s="5"/>
+      <c r="D277" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E277" s="12"/>
+      <c r="F277" s="12"/>
+      <c r="G277" s="12"/>
+      <c r="H277" s="12"/>
+      <c r="I277" s="12"/>
+      <c r="J277" s="6"/>
+      <c r="K277" s="12"/>
+      <c r="L277" s="12"/>
+      <c r="M277" s="12"/>
+      <c r="N277" s="12"/>
+      <c r="O277" s="12"/>
+      <c r="P277" s="12"/>
+      <c r="Q277" s="12"/>
+      <c r="R277" s="12"/>
+      <c r="S277" s="6"/>
+      <c r="T277" s="6"/>
+    </row>
+    <row r="278" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B278" s="5"/>
+      <c r="C278" s="5"/>
+      <c r="D278" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E278" s="12"/>
+      <c r="F278" s="12"/>
+      <c r="G278" s="12"/>
+      <c r="H278" s="12"/>
+      <c r="I278" s="12"/>
+      <c r="J278" s="6"/>
+      <c r="K278" s="12"/>
+      <c r="L278" s="12"/>
+      <c r="M278" s="12"/>
+      <c r="N278" s="12"/>
+      <c r="O278" s="12"/>
+      <c r="P278" s="12"/>
+      <c r="Q278" s="12"/>
+      <c r="R278" s="12"/>
+      <c r="S278" s="6"/>
+      <c r="T278" s="6"/>
+    </row>
+    <row r="279" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B279" s="5"/>
+      <c r="C279" s="5"/>
+      <c r="D279" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E279" s="12"/>
+      <c r="F279" s="12"/>
+      <c r="G279" s="12"/>
+      <c r="H279" s="12"/>
+      <c r="I279" s="12"/>
+      <c r="J279" s="6"/>
+      <c r="K279" s="12"/>
+      <c r="L279" s="12"/>
+      <c r="M279" s="12"/>
+      <c r="N279" s="12"/>
+      <c r="O279" s="12"/>
+      <c r="P279" s="12"/>
+      <c r="Q279" s="12"/>
+      <c r="R279" s="12"/>
+      <c r="S279" s="6"/>
+      <c r="T279" s="6"/>
+    </row>
+    <row r="280" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B280" s="5"/>
+      <c r="C280" s="5"/>
+      <c r="D280" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E280" s="12"/>
+      <c r="F280" s="12"/>
+      <c r="G280" s="12"/>
+      <c r="H280" s="12"/>
+      <c r="I280" s="12"/>
+      <c r="J280" s="6"/>
+      <c r="K280" s="12"/>
+      <c r="L280" s="12"/>
+      <c r="M280" s="12"/>
+      <c r="N280" s="12"/>
+      <c r="O280" s="12"/>
+      <c r="P280" s="12"/>
+      <c r="Q280" s="12"/>
+      <c r="R280" s="12"/>
+      <c r="S280" s="6"/>
+      <c r="T280" s="6"/>
+    </row>
+    <row r="281" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B281" s="5"/>
+      <c r="C281" s="5"/>
+      <c r="D281" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E281" s="12"/>
+      <c r="F281" s="12"/>
+      <c r="G281" s="12"/>
+      <c r="H281" s="12"/>
+      <c r="I281" s="12"/>
+      <c r="J281" s="6"/>
+      <c r="K281" s="12"/>
+      <c r="L281" s="12"/>
+      <c r="M281" s="12"/>
+      <c r="N281" s="12"/>
+      <c r="O281" s="12"/>
+      <c r="P281" s="12"/>
+      <c r="Q281" s="12"/>
+      <c r="R281" s="12"/>
+      <c r="S281" s="6"/>
+      <c r="T281" s="6"/>
+    </row>
+    <row r="282" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B282" s="5"/>
+      <c r="C282" s="5"/>
+      <c r="D282" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E282" s="12"/>
+      <c r="F282" s="12"/>
+      <c r="G282" s="12"/>
+      <c r="H282" s="12"/>
+      <c r="I282" s="12"/>
+      <c r="J282" s="6"/>
+      <c r="K282" s="12"/>
+      <c r="L282" s="12"/>
+      <c r="M282" s="12"/>
+      <c r="N282" s="12"/>
+      <c r="O282" s="12"/>
+      <c r="P282" s="12"/>
+      <c r="Q282" s="12"/>
+      <c r="R282" s="12"/>
+      <c r="S282" s="6"/>
+      <c r="T282" s="6"/>
+    </row>
+    <row r="283" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B283" s="5"/>
+      <c r="C283" s="5"/>
+      <c r="D283" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E283" s="12"/>
+      <c r="F283" s="12"/>
+      <c r="G283" s="12"/>
+      <c r="H283" s="12"/>
+      <c r="I283" s="12"/>
+      <c r="J283" s="6"/>
+      <c r="K283" s="12"/>
+      <c r="L283" s="12"/>
+      <c r="M283" s="12"/>
+      <c r="N283" s="12"/>
+      <c r="O283" s="12"/>
+      <c r="P283" s="12"/>
+      <c r="Q283" s="12"/>
+      <c r="R283" s="12"/>
+      <c r="S283" s="6"/>
+      <c r="T283" s="6"/>
+    </row>
+    <row r="284" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B284" s="5"/>
+      <c r="C284" s="5"/>
+      <c r="D284" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E284" s="12"/>
+      <c r="F284" s="12"/>
+      <c r="G284" s="12"/>
+      <c r="H284" s="12"/>
+      <c r="I284" s="12"/>
+      <c r="J284" s="6"/>
+      <c r="K284" s="12"/>
+      <c r="L284" s="12"/>
+      <c r="M284" s="12"/>
+      <c r="N284" s="12"/>
+      <c r="O284" s="12"/>
+      <c r="P284" s="12"/>
+      <c r="Q284" s="12"/>
+      <c r="R284" s="12"/>
+      <c r="S284" s="6"/>
+      <c r="T284" s="6"/>
+    </row>
+    <row r="285" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B285" s="5"/>
+      <c r="C285" s="5"/>
+      <c r="D285" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E285" s="12"/>
+      <c r="F285" s="12"/>
+      <c r="G285" s="12"/>
+      <c r="H285" s="12"/>
+      <c r="I285" s="12"/>
+      <c r="J285" s="6"/>
+      <c r="K285" s="12"/>
+      <c r="L285" s="12"/>
+      <c r="M285" s="12"/>
+      <c r="N285" s="12"/>
+      <c r="O285" s="12"/>
+      <c r="P285" s="12"/>
+      <c r="Q285" s="12"/>
+      <c r="R285" s="12"/>
+      <c r="S285" s="6"/>
+      <c r="T285" s="6"/>
+    </row>
+    <row r="286" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B286" s="5"/>
+      <c r="C286" s="5"/>
+      <c r="D286" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E286" s="12"/>
+      <c r="F286" s="12"/>
+      <c r="G286" s="12"/>
+      <c r="H286" s="12"/>
+      <c r="I286" s="12"/>
+      <c r="J286" s="6"/>
+      <c r="K286" s="12"/>
+      <c r="L286" s="12"/>
+      <c r="M286" s="12"/>
+      <c r="N286" s="12"/>
+      <c r="O286" s="12"/>
+      <c r="P286" s="12"/>
+      <c r="Q286" s="12"/>
+      <c r="R286" s="12"/>
+      <c r="S286" s="6"/>
+      <c r="T286" s="6"/>
+    </row>
+    <row r="287" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B287" s="5"/>
+      <c r="C287" s="5"/>
+      <c r="D287" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E287" s="12"/>
+      <c r="F287" s="12"/>
+      <c r="G287" s="12"/>
+      <c r="H287" s="12"/>
+      <c r="I287" s="12"/>
+      <c r="J287" s="6"/>
+      <c r="K287" s="12"/>
+      <c r="L287" s="12"/>
+      <c r="M287" s="12"/>
+      <c r="N287" s="12"/>
+      <c r="O287" s="12"/>
+      <c r="P287" s="12"/>
+      <c r="Q287" s="12"/>
+      <c r="R287" s="12"/>
+      <c r="S287" s="6"/>
+      <c r="T287" s="6"/>
+    </row>
+    <row r="288" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B288" s="5"/>
+      <c r="C288" s="5"/>
+      <c r="D288" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E288" s="12"/>
+      <c r="F288" s="12"/>
+      <c r="G288" s="12"/>
+      <c r="H288" s="12"/>
+      <c r="I288" s="12"/>
+      <c r="J288" s="6"/>
+      <c r="K288" s="12"/>
+      <c r="L288" s="12"/>
+      <c r="M288" s="12"/>
+      <c r="N288" s="12"/>
+      <c r="O288" s="12"/>
+      <c r="P288" s="12"/>
+      <c r="Q288" s="12"/>
+      <c r="R288" s="12"/>
+      <c r="S288" s="6"/>
+      <c r="T288" s="6"/>
+    </row>
+    <row r="289" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B289" s="5"/>
+      <c r="C289" s="5"/>
+      <c r="D289" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E289" s="12"/>
+      <c r="F289" s="12"/>
+      <c r="G289" s="12"/>
+      <c r="H289" s="12"/>
+      <c r="I289" s="12"/>
+      <c r="J289" s="6"/>
+      <c r="K289" s="12"/>
+      <c r="L289" s="12"/>
+      <c r="M289" s="12"/>
+      <c r="N289" s="12"/>
+      <c r="O289" s="12"/>
+      <c r="P289" s="12"/>
+      <c r="Q289" s="12"/>
+      <c r="R289" s="12"/>
+      <c r="S289" s="6"/>
+      <c r="T289" s="6"/>
+    </row>
+    <row r="290" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B290" s="5"/>
+      <c r="C290" s="5"/>
+      <c r="D290" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E290" s="12"/>
+      <c r="F290" s="12"/>
+      <c r="G290" s="12"/>
+      <c r="H290" s="12"/>
+      <c r="I290" s="12"/>
+      <c r="J290" s="6"/>
+      <c r="K290" s="12"/>
+      <c r="L290" s="12"/>
+      <c r="M290" s="12"/>
+      <c r="N290" s="12"/>
+      <c r="O290" s="12"/>
+      <c r="P290" s="12"/>
+      <c r="Q290" s="12"/>
+      <c r="R290" s="12"/>
+      <c r="S290" s="6"/>
+      <c r="T290" s="6"/>
+    </row>
+    <row r="291" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B291" s="5"/>
+      <c r="C291" s="5"/>
+      <c r="D291" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E291" s="12"/>
+      <c r="F291" s="12"/>
+      <c r="G291" s="12"/>
+      <c r="H291" s="12"/>
+      <c r="I291" s="12"/>
+      <c r="J291" s="6"/>
+      <c r="K291" s="12"/>
+      <c r="L291" s="12"/>
+      <c r="M291" s="12"/>
+      <c r="N291" s="12"/>
+      <c r="O291" s="12"/>
+      <c r="P291" s="12"/>
+      <c r="Q291" s="12"/>
+      <c r="R291" s="12"/>
+      <c r="S291" s="6"/>
+      <c r="T291" s="6"/>
+    </row>
+    <row r="292" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B292" s="5"/>
+      <c r="C292" s="5"/>
+      <c r="D292" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E292" s="12"/>
+      <c r="F292" s="12"/>
+      <c r="G292" s="12"/>
+      <c r="H292" s="12"/>
+      <c r="I292" s="12"/>
+      <c r="J292" s="6"/>
+      <c r="K292" s="12"/>
+      <c r="L292" s="12"/>
+      <c r="M292" s="12"/>
+      <c r="N292" s="12"/>
+      <c r="O292" s="12"/>
+      <c r="P292" s="12"/>
+      <c r="Q292" s="12"/>
+      <c r="R292" s="12"/>
+      <c r="S292" s="6"/>
+      <c r="T292" s="6"/>
+    </row>
+    <row r="293" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B293" s="5"/>
+      <c r="C293" s="5"/>
+      <c r="D293" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E293" s="12"/>
+      <c r="F293" s="12"/>
+      <c r="G293" s="12"/>
+      <c r="H293" s="12"/>
+      <c r="I293" s="12"/>
+      <c r="J293" s="6"/>
+      <c r="K293" s="12"/>
+      <c r="L293" s="12"/>
+      <c r="M293" s="12"/>
+      <c r="N293" s="12"/>
+      <c r="O293" s="12"/>
+      <c r="P293" s="12"/>
+      <c r="Q293" s="12"/>
+      <c r="R293" s="12"/>
+      <c r="S293" s="6"/>
+      <c r="T293" s="6"/>
+    </row>
+    <row r="294" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B294" s="5"/>
+      <c r="C294" s="5"/>
+      <c r="D294" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E294" s="12"/>
+      <c r="F294" s="12"/>
+      <c r="G294" s="12"/>
+      <c r="H294" s="12"/>
+      <c r="I294" s="12"/>
+      <c r="J294" s="6"/>
+      <c r="K294" s="12"/>
+      <c r="L294" s="12"/>
+      <c r="M294" s="12"/>
+      <c r="N294" s="12"/>
+      <c r="O294" s="12"/>
+      <c r="P294" s="12"/>
+      <c r="Q294" s="12"/>
+      <c r="R294" s="12"/>
+      <c r="S294" s="6"/>
+      <c r="T294" s="6"/>
+    </row>
+    <row r="295" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B295" s="5"/>
+      <c r="C295" s="5"/>
+      <c r="D295" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E295" s="12"/>
+      <c r="F295" s="12"/>
+      <c r="G295" s="12"/>
+      <c r="H295" s="12"/>
+      <c r="I295" s="12"/>
+      <c r="J295" s="6"/>
+      <c r="K295" s="12"/>
+      <c r="L295" s="12"/>
+      <c r="M295" s="12"/>
+      <c r="N295" s="12"/>
+      <c r="O295" s="12"/>
+      <c r="P295" s="12"/>
+      <c r="Q295" s="12"/>
+      <c r="R295" s="12"/>
+      <c r="S295" s="6"/>
+      <c r="T295" s="6"/>
+    </row>
+    <row r="296" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B296" s="5"/>
+      <c r="C296" s="5"/>
+      <c r="D296" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E296" s="12"/>
+      <c r="F296" s="12"/>
+      <c r="G296" s="12"/>
+      <c r="H296" s="12"/>
+      <c r="I296" s="12"/>
+      <c r="J296" s="6"/>
+      <c r="K296" s="12"/>
+      <c r="L296" s="12"/>
+      <c r="M296" s="12"/>
+      <c r="N296" s="12"/>
+      <c r="O296" s="12"/>
+      <c r="P296" s="12"/>
+      <c r="Q296" s="12"/>
+      <c r="R296" s="12"/>
+      <c r="S296" s="6"/>
+      <c r="T296" s="6"/>
+    </row>
+    <row r="297" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B297" s="5"/>
+      <c r="C297" s="5"/>
+      <c r="D297" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E297" s="12"/>
+      <c r="F297" s="12"/>
+      <c r="G297" s="12"/>
+      <c r="H297" s="12"/>
+      <c r="I297" s="12"/>
+      <c r="J297" s="6"/>
+      <c r="K297" s="12"/>
+      <c r="L297" s="12"/>
+      <c r="M297" s="12"/>
+      <c r="N297" s="12"/>
+      <c r="O297" s="12"/>
+      <c r="P297" s="12"/>
+      <c r="Q297" s="12"/>
+      <c r="R297" s="12"/>
+      <c r="S297" s="6"/>
+      <c r="T297" s="6"/>
+    </row>
+    <row r="298" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B298" s="5"/>
+      <c r="C298" s="5"/>
+      <c r="D298" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E298" s="12"/>
+      <c r="F298" s="12"/>
+      <c r="G298" s="12"/>
+      <c r="H298" s="12"/>
+      <c r="I298" s="12"/>
+      <c r="J298" s="6"/>
+      <c r="K298" s="12"/>
+      <c r="L298" s="12"/>
+      <c r="M298" s="12"/>
+      <c r="N298" s="12"/>
+      <c r="O298" s="12"/>
+      <c r="P298" s="12"/>
+      <c r="Q298" s="12"/>
+      <c r="R298" s="12"/>
+      <c r="S298" s="6"/>
+      <c r="T298" s="6"/>
+    </row>
+    <row r="299" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B299" s="5"/>
+      <c r="C299" s="5"/>
+      <c r="D299" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E299" s="12"/>
+      <c r="F299" s="12"/>
+      <c r="G299" s="12"/>
+      <c r="H299" s="12"/>
+      <c r="I299" s="12"/>
+      <c r="J299" s="6"/>
+      <c r="K299" s="12"/>
+      <c r="L299" s="12"/>
+      <c r="M299" s="12"/>
+      <c r="N299" s="12"/>
+      <c r="O299" s="12"/>
+      <c r="P299" s="12"/>
+      <c r="Q299" s="12"/>
+      <c r="R299" s="12"/>
+      <c r="S299" s="6"/>
+      <c r="T299" s="6"/>
+    </row>
+    <row r="300" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B300" s="5"/>
+      <c r="C300" s="5"/>
+      <c r="D300" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E300" s="12"/>
+      <c r="F300" s="12"/>
+      <c r="G300" s="12"/>
+      <c r="H300" s="12"/>
+      <c r="I300" s="12"/>
+      <c r="J300" s="6"/>
+      <c r="K300" s="12"/>
+      <c r="L300" s="12"/>
+      <c r="M300" s="12"/>
+      <c r="N300" s="12"/>
+      <c r="O300" s="12"/>
+      <c r="P300" s="12"/>
+      <c r="Q300" s="12"/>
+      <c r="R300" s="12"/>
+      <c r="S300" s="6"/>
+      <c r="T300" s="6"/>
+    </row>
+    <row r="301" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B301" s="5"/>
+      <c r="C301" s="5"/>
+      <c r="D301" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E301" s="12"/>
+      <c r="F301" s="12"/>
+      <c r="G301" s="12"/>
+      <c r="H301" s="12"/>
+      <c r="I301" s="12"/>
+      <c r="J301" s="6"/>
+      <c r="K301" s="12"/>
+      <c r="L301" s="12"/>
+      <c r="M301" s="12"/>
+      <c r="N301" s="12"/>
+      <c r="O301" s="12"/>
+      <c r="P301" s="12"/>
+      <c r="Q301" s="12"/>
+      <c r="R301" s="12"/>
+      <c r="S301" s="6"/>
+      <c r="T301" s="6"/>
+    </row>
+    <row r="302" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B302" s="5"/>
+      <c r="C302" s="5"/>
+      <c r="D302" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E302" s="12"/>
+      <c r="F302" s="12"/>
+      <c r="G302" s="12"/>
+      <c r="H302" s="12"/>
+      <c r="I302" s="12"/>
+      <c r="J302" s="6"/>
+      <c r="K302" s="12"/>
+      <c r="L302" s="12"/>
+      <c r="M302" s="12"/>
+      <c r="N302" s="12"/>
+      <c r="O302" s="12"/>
+      <c r="P302" s="12"/>
+      <c r="Q302" s="12"/>
+      <c r="R302" s="12"/>
+      <c r="S302" s="6"/>
+      <c r="T302" s="6"/>
+    </row>
+    <row r="303" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B303" s="5"/>
+      <c r="C303" s="5"/>
+      <c r="D303" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E303" s="12"/>
+      <c r="F303" s="12"/>
+      <c r="G303" s="12"/>
+      <c r="H303" s="12"/>
+      <c r="I303" s="12"/>
+      <c r="J303" s="6"/>
+      <c r="K303" s="12"/>
+      <c r="L303" s="12"/>
+      <c r="M303" s="12"/>
+      <c r="N303" s="12"/>
+      <c r="O303" s="12"/>
+      <c r="P303" s="12"/>
+      <c r="Q303" s="12"/>
+      <c r="R303" s="12"/>
+      <c r="S303" s="6"/>
+      <c r="T303" s="6"/>
+    </row>
+    <row r="304" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B304" s="5"/>
+      <c r="C304" s="5"/>
+      <c r="D304" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E304" s="12"/>
+      <c r="F304" s="12"/>
+      <c r="G304" s="12"/>
+      <c r="H304" s="12"/>
+      <c r="I304" s="12"/>
+      <c r="J304" s="6"/>
+      <c r="K304" s="12"/>
+      <c r="L304" s="12"/>
+      <c r="M304" s="12"/>
+      <c r="N304" s="12"/>
+      <c r="O304" s="12"/>
+      <c r="P304" s="12"/>
+      <c r="Q304" s="12"/>
+      <c r="R304" s="12"/>
+      <c r="S304" s="6"/>
+      <c r="T304" s="6"/>
+    </row>
+    <row r="305" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B305" s="5"/>
+      <c r="C305" s="5"/>
+      <c r="D305" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E305" s="12"/>
+      <c r="F305" s="12"/>
+      <c r="G305" s="12"/>
+      <c r="H305" s="12"/>
+      <c r="I305" s="12"/>
+      <c r="J305" s="6"/>
+      <c r="K305" s="12"/>
+      <c r="L305" s="12"/>
+      <c r="M305" s="12"/>
+      <c r="N305" s="12"/>
+      <c r="O305" s="12"/>
+      <c r="P305" s="12"/>
+      <c r="Q305" s="12"/>
+      <c r="R305" s="12"/>
+      <c r="S305" s="6"/>
+      <c r="T305" s="6"/>
+    </row>
+    <row r="306" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B306" s="5"/>
+      <c r="C306" s="5"/>
+      <c r="D306" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E306" s="12"/>
+      <c r="F306" s="12"/>
+      <c r="G306" s="12"/>
+      <c r="H306" s="12"/>
+      <c r="I306" s="12"/>
+      <c r="J306" s="6"/>
+      <c r="K306" s="12"/>
+      <c r="L306" s="12"/>
+      <c r="M306" s="12"/>
+      <c r="N306" s="12"/>
+      <c r="O306" s="12"/>
+      <c r="P306" s="12"/>
+      <c r="Q306" s="12"/>
+      <c r="R306" s="12"/>
+      <c r="S306" s="6"/>
+      <c r="T306" s="6"/>
+    </row>
+    <row r="307" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B307" s="5"/>
+      <c r="C307" s="5"/>
+      <c r="D307" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E307" s="12"/>
+      <c r="F307" s="12"/>
+      <c r="G307" s="12"/>
+      <c r="H307" s="12"/>
+      <c r="I307" s="12"/>
+      <c r="J307" s="6"/>
+      <c r="K307" s="12"/>
+      <c r="L307" s="12"/>
+      <c r="M307" s="12"/>
+      <c r="N307" s="12"/>
+      <c r="O307" s="12"/>
+      <c r="P307" s="12"/>
+      <c r="Q307" s="12"/>
+      <c r="R307" s="12"/>
+      <c r="S307" s="6"/>
+      <c r="T307" s="6"/>
+    </row>
+    <row r="308" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B308" s="5"/>
+      <c r="C308" s="5"/>
+      <c r="D308" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E308" s="12"/>
+      <c r="F308" s="12"/>
+      <c r="G308" s="12"/>
+      <c r="H308" s="12"/>
+      <c r="I308" s="12"/>
+      <c r="J308" s="6"/>
+      <c r="K308" s="12"/>
+      <c r="L308" s="12"/>
+      <c r="M308" s="12"/>
+      <c r="N308" s="12"/>
+      <c r="O308" s="12"/>
+      <c r="P308" s="12"/>
+      <c r="Q308" s="12"/>
+      <c r="R308" s="12"/>
+      <c r="S308" s="6"/>
+      <c r="T308" s="6"/>
+    </row>
+    <row r="309" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B309" s="5"/>
+      <c r="C309" s="5"/>
+      <c r="D309" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E309" s="12"/>
+      <c r="F309" s="12"/>
+      <c r="G309" s="12"/>
+      <c r="H309" s="12"/>
+      <c r="I309" s="12"/>
+      <c r="J309" s="6"/>
+      <c r="K309" s="12"/>
+      <c r="L309" s="12"/>
+      <c r="M309" s="12"/>
+      <c r="N309" s="12"/>
+      <c r="O309" s="12"/>
+      <c r="P309" s="12"/>
+      <c r="Q309" s="12"/>
+      <c r="R309" s="12"/>
+      <c r="S309" s="6"/>
+      <c r="T309" s="6"/>
+    </row>
+    <row r="310" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B310" s="5"/>
+      <c r="C310" s="5"/>
+      <c r="D310" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E310" s="12"/>
+      <c r="F310" s="12"/>
+      <c r="G310" s="12"/>
+      <c r="H310" s="12"/>
+      <c r="I310" s="12"/>
+      <c r="J310" s="6"/>
+      <c r="K310" s="12"/>
+      <c r="L310" s="12"/>
+      <c r="M310" s="12"/>
+      <c r="N310" s="12"/>
+      <c r="O310" s="12"/>
+      <c r="P310" s="12"/>
+      <c r="Q310" s="12"/>
+      <c r="R310" s="12"/>
+      <c r="S310" s="6"/>
+      <c r="T310" s="6"/>
+    </row>
+    <row r="311" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B311" s="5"/>
+      <c r="C311" s="5"/>
+      <c r="D311" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E311" s="12"/>
+      <c r="F311" s="12"/>
+      <c r="G311" s="12"/>
+      <c r="H311" s="12"/>
+      <c r="I311" s="12"/>
+      <c r="J311" s="6"/>
+      <c r="K311" s="12"/>
+      <c r="L311" s="12"/>
+      <c r="M311" s="12"/>
+      <c r="N311" s="12"/>
+      <c r="O311" s="12"/>
+      <c r="P311" s="12"/>
+      <c r="Q311" s="12"/>
+      <c r="R311" s="12"/>
+      <c r="S311" s="6"/>
+      <c r="T311" s="6"/>
+    </row>
+    <row r="312" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B312" s="5"/>
+      <c r="C312" s="5"/>
+      <c r="D312" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E312" s="12"/>
+      <c r="F312" s="12"/>
+      <c r="G312" s="12"/>
+      <c r="H312" s="12"/>
+      <c r="I312" s="12"/>
+      <c r="J312" s="6"/>
+      <c r="K312" s="12"/>
+      <c r="L312" s="12"/>
+      <c r="M312" s="12"/>
+      <c r="N312" s="12"/>
+      <c r="O312" s="12"/>
+      <c r="P312" s="12"/>
+      <c r="Q312" s="12"/>
+      <c r="R312" s="12"/>
+      <c r="S312" s="6"/>
+      <c r="T312" s="6"/>
+    </row>
+    <row r="313" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B313" s="5"/>
+      <c r="C313" s="5"/>
+      <c r="D313" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E313" s="12"/>
+      <c r="F313" s="12"/>
+      <c r="G313" s="12"/>
+      <c r="H313" s="12"/>
+      <c r="I313" s="12"/>
+      <c r="J313" s="6"/>
+      <c r="K313" s="12"/>
+      <c r="L313" s="12"/>
+      <c r="M313" s="12"/>
+      <c r="N313" s="12"/>
+      <c r="O313" s="12"/>
+      <c r="P313" s="12"/>
+      <c r="Q313" s="12"/>
+      <c r="R313" s="12"/>
+      <c r="S313" s="6"/>
+      <c r="T313" s="6"/>
+    </row>
+    <row r="314" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B314" s="5"/>
+      <c r="C314" s="5"/>
+      <c r="D314" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E314" s="12"/>
+      <c r="F314" s="12"/>
+      <c r="G314" s="12"/>
+      <c r="H314" s="12"/>
+      <c r="I314" s="12"/>
+      <c r="J314" s="6"/>
+      <c r="K314" s="12"/>
+      <c r="L314" s="12"/>
+      <c r="M314" s="12"/>
+      <c r="N314" s="12"/>
+      <c r="O314" s="12"/>
+      <c r="P314" s="12"/>
+      <c r="Q314" s="12"/>
+      <c r="R314" s="12"/>
+      <c r="S314" s="6"/>
+      <c r="T314" s="6"/>
+    </row>
+    <row r="315" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B315" s="5"/>
+      <c r="C315" s="5"/>
+      <c r="D315" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E315" s="12"/>
+      <c r="F315" s="12"/>
+      <c r="G315" s="12"/>
+      <c r="H315" s="12"/>
+      <c r="I315" s="12"/>
+      <c r="J315" s="6"/>
+      <c r="K315" s="12"/>
+      <c r="L315" s="12"/>
+      <c r="M315" s="12"/>
+      <c r="N315" s="12"/>
+      <c r="O315" s="12"/>
+      <c r="P315" s="12"/>
+      <c r="Q315" s="12"/>
+      <c r="R315" s="12"/>
+      <c r="S315" s="6"/>
+      <c r="T315" s="6"/>
+    </row>
+    <row r="316" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B316" s="5"/>
+      <c r="C316" s="5"/>
+      <c r="D316" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E316" s="12"/>
+      <c r="F316" s="12"/>
+      <c r="G316" s="12"/>
+      <c r="H316" s="12"/>
+      <c r="I316" s="12"/>
+      <c r="J316" s="6"/>
+      <c r="K316" s="12"/>
+      <c r="L316" s="12"/>
+      <c r="M316" s="12"/>
+      <c r="N316" s="12"/>
+      <c r="O316" s="12"/>
+      <c r="P316" s="12"/>
+      <c r="Q316" s="12"/>
+      <c r="R316" s="12"/>
+      <c r="S316" s="6"/>
+      <c r="T316" s="6"/>
+    </row>
+    <row r="317" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B317" s="5"/>
+      <c r="C317" s="5"/>
+      <c r="D317" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E317" s="12"/>
+      <c r="F317" s="12"/>
+      <c r="G317" s="12"/>
+      <c r="H317" s="12"/>
+      <c r="I317" s="12"/>
+      <c r="J317" s="6"/>
+      <c r="K317" s="12"/>
+      <c r="L317" s="12"/>
+      <c r="M317" s="12"/>
+      <c r="N317" s="12"/>
+      <c r="O317" s="12"/>
+      <c r="P317" s="12"/>
+      <c r="Q317" s="12"/>
+      <c r="R317" s="12"/>
+      <c r="S317" s="6"/>
+      <c r="T317" s="6"/>
+    </row>
+    <row r="318" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B318" s="5"/>
+      <c r="C318" s="5"/>
+      <c r="D318" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E318" s="12"/>
+      <c r="F318" s="12"/>
+      <c r="G318" s="12"/>
+      <c r="H318" s="12"/>
+      <c r="I318" s="12"/>
+      <c r="J318" s="6"/>
+      <c r="K318" s="12"/>
+      <c r="L318" s="12"/>
+      <c r="M318" s="12"/>
+      <c r="N318" s="12"/>
+      <c r="O318" s="12"/>
+      <c r="P318" s="12"/>
+      <c r="Q318" s="12"/>
+      <c r="R318" s="12"/>
+      <c r="S318" s="6"/>
+      <c r="T318" s="6"/>
+    </row>
+    <row r="319" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B319" s="5"/>
+      <c r="C319" s="5"/>
+      <c r="D319" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E319" s="12"/>
+      <c r="F319" s="12"/>
+      <c r="G319" s="12"/>
+      <c r="H319" s="12"/>
+      <c r="I319" s="12"/>
+      <c r="J319" s="6"/>
+      <c r="K319" s="12"/>
+      <c r="L319" s="12"/>
+      <c r="M319" s="12"/>
+      <c r="N319" s="12"/>
+      <c r="O319" s="12"/>
+      <c r="P319" s="12"/>
+      <c r="Q319" s="12"/>
+      <c r="R319" s="12"/>
+      <c r="S319" s="6"/>
+      <c r="T319" s="6"/>
+    </row>
+    <row r="320" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B320" s="5"/>
+      <c r="C320" s="5"/>
+      <c r="D320" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E320" s="12"/>
+      <c r="F320" s="12"/>
+      <c r="G320" s="12"/>
+      <c r="H320" s="12"/>
+      <c r="I320" s="12"/>
+      <c r="J320" s="6"/>
+      <c r="K320" s="12"/>
+      <c r="L320" s="12"/>
+      <c r="M320" s="12"/>
+      <c r="N320" s="12"/>
+      <c r="O320" s="12"/>
+      <c r="P320" s="12"/>
+      <c r="Q320" s="12"/>
+      <c r="R320" s="12"/>
+      <c r="S320" s="6"/>
+      <c r="T320" s="6"/>
+    </row>
+    <row r="321" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B321" s="5"/>
+      <c r="C321" s="5"/>
+      <c r="D321" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E321" s="12"/>
+      <c r="F321" s="12"/>
+      <c r="G321" s="12"/>
+      <c r="H321" s="12"/>
+      <c r="I321" s="12"/>
+      <c r="J321" s="6"/>
+      <c r="K321" s="12"/>
+      <c r="L321" s="12"/>
+      <c r="M321" s="12"/>
+      <c r="N321" s="12"/>
+      <c r="O321" s="12"/>
+      <c r="P321" s="12"/>
+      <c r="Q321" s="12"/>
+      <c r="R321" s="12"/>
+      <c r="S321" s="6"/>
+      <c r="T321" s="6"/>
+    </row>
+    <row r="322" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B322" s="5"/>
+      <c r="C322" s="5"/>
+      <c r="D322" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E322" s="12"/>
+      <c r="F322" s="12"/>
+      <c r="G322" s="12"/>
+      <c r="H322" s="12"/>
+      <c r="I322" s="12"/>
+      <c r="J322" s="6"/>
+      <c r="K322" s="12"/>
+      <c r="L322" s="12"/>
+      <c r="M322" s="12"/>
+      <c r="N322" s="12"/>
+      <c r="O322" s="12"/>
+      <c r="P322" s="12"/>
+      <c r="Q322" s="12"/>
+      <c r="R322" s="12"/>
+      <c r="S322" s="6"/>
+      <c r="T322" s="6"/>
+    </row>
+    <row r="323" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B323" s="5"/>
+      <c r="C323" s="5"/>
+      <c r="D323" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E323" s="12"/>
+      <c r="F323" s="12"/>
+      <c r="G323" s="12"/>
+      <c r="H323" s="12"/>
+      <c r="I323" s="12"/>
+      <c r="J323" s="6"/>
+      <c r="K323" s="12"/>
+      <c r="L323" s="12"/>
+      <c r="M323" s="12"/>
+      <c r="N323" s="12"/>
+      <c r="O323" s="12"/>
+      <c r="P323" s="12"/>
+      <c r="Q323" s="12"/>
+      <c r="R323" s="12"/>
+      <c r="S323" s="6"/>
+      <c r="T323" s="6"/>
+    </row>
+    <row r="324" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B324" s="5"/>
+      <c r="C324" s="5"/>
+      <c r="D324" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E324" s="12"/>
+      <c r="F324" s="12"/>
+      <c r="G324" s="12"/>
+      <c r="H324" s="12"/>
+      <c r="I324" s="12"/>
+      <c r="J324" s="6"/>
+      <c r="K324" s="12"/>
+      <c r="L324" s="12"/>
+      <c r="M324" s="12"/>
+      <c r="N324" s="12"/>
+      <c r="O324" s="12"/>
+      <c r="P324" s="12"/>
+      <c r="Q324" s="12"/>
+      <c r="R324" s="12"/>
+      <c r="S324" s="6"/>
+      <c r="T324" s="6"/>
+    </row>
+    <row r="325" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B325" s="5"/>
+      <c r="C325" s="5"/>
+      <c r="D325" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E325" s="12"/>
+      <c r="F325" s="12"/>
+      <c r="G325" s="12"/>
+      <c r="H325" s="12"/>
+      <c r="I325" s="12"/>
+      <c r="J325" s="6"/>
+      <c r="K325" s="12"/>
+      <c r="L325" s="12"/>
+      <c r="M325" s="12"/>
+      <c r="N325" s="12"/>
+      <c r="O325" s="12"/>
+      <c r="P325" s="12"/>
+      <c r="Q325" s="12"/>
+      <c r="R325" s="12"/>
+      <c r="S325" s="6"/>
+      <c r="T325" s="6"/>
+    </row>
+    <row r="326" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B326" s="5"/>
+      <c r="C326" s="5"/>
+      <c r="D326" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E326" s="12"/>
+      <c r="F326" s="12"/>
+      <c r="G326" s="12"/>
+      <c r="H326" s="12"/>
+      <c r="I326" s="12"/>
+      <c r="J326" s="6"/>
+      <c r="K326" s="12"/>
+      <c r="L326" s="12"/>
+      <c r="M326" s="12"/>
+      <c r="N326" s="12"/>
+      <c r="O326" s="12"/>
+      <c r="P326" s="12"/>
+      <c r="Q326" s="12"/>
+      <c r="R326" s="12"/>
+      <c r="S326" s="6"/>
+      <c r="T326" s="6"/>
+    </row>
+    <row r="327" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B327" s="5"/>
+      <c r="C327" s="5"/>
+      <c r="D327" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E327" s="12"/>
+      <c r="F327" s="12"/>
+      <c r="G327" s="12"/>
+      <c r="H327" s="12"/>
+      <c r="I327" s="12"/>
+      <c r="J327" s="6"/>
+      <c r="K327" s="12"/>
+      <c r="L327" s="12"/>
+      <c r="M327" s="12"/>
+      <c r="N327" s="12"/>
+      <c r="O327" s="12"/>
+      <c r="P327" s="12"/>
+      <c r="Q327" s="12"/>
+      <c r="R327" s="12"/>
+      <c r="S327" s="6"/>
+      <c r="T327" s="6"/>
+    </row>
+    <row r="328" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B328" s="5"/>
+      <c r="C328" s="5"/>
+      <c r="D328" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E328" s="12"/>
+      <c r="F328" s="12"/>
+      <c r="G328" s="12"/>
+      <c r="H328" s="12"/>
+      <c r="I328" s="12"/>
+      <c r="J328" s="6"/>
+      <c r="K328" s="12"/>
+      <c r="L328" s="12"/>
+      <c r="M328" s="12"/>
+      <c r="N328" s="12"/>
+      <c r="O328" s="12"/>
+      <c r="P328" s="12"/>
+      <c r="Q328" s="12"/>
+      <c r="R328" s="12"/>
+      <c r="S328" s="6"/>
+      <c r="T328" s="6"/>
+    </row>
+    <row r="329" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B329" s="5"/>
+      <c r="C329" s="5"/>
+      <c r="D329" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E329" s="12"/>
+      <c r="F329" s="12"/>
+      <c r="G329" s="12"/>
+      <c r="H329" s="12"/>
+      <c r="I329" s="12"/>
+      <c r="J329" s="6"/>
+      <c r="K329" s="12"/>
+      <c r="L329" s="12"/>
+      <c r="M329" s="12"/>
+      <c r="N329" s="12"/>
+      <c r="O329" s="12"/>
+      <c r="P329" s="12"/>
+      <c r="Q329" s="12"/>
+      <c r="R329" s="12"/>
+      <c r="S329" s="6"/>
+      <c r="T329" s="6"/>
+    </row>
+    <row r="330" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B330" s="5"/>
+      <c r="C330" s="5"/>
+      <c r="D330" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E330" s="12"/>
+      <c r="F330" s="12"/>
+      <c r="G330" s="12"/>
+      <c r="H330" s="12"/>
+      <c r="I330" s="12"/>
+      <c r="J330" s="6"/>
+      <c r="K330" s="12"/>
+      <c r="L330" s="12"/>
+      <c r="M330" s="12"/>
+      <c r="N330" s="12"/>
+      <c r="O330" s="12"/>
+      <c r="P330" s="12"/>
+      <c r="Q330" s="12"/>
+      <c r="R330" s="12"/>
+      <c r="S330" s="6"/>
+      <c r="T330" s="6"/>
+    </row>
+    <row r="331" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B331" s="5"/>
+      <c r="C331" s="5"/>
+      <c r="D331" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E331" s="12"/>
+      <c r="F331" s="12"/>
+      <c r="G331" s="12"/>
+      <c r="H331" s="12"/>
+      <c r="I331" s="12"/>
+      <c r="J331" s="6"/>
+      <c r="K331" s="12"/>
+      <c r="L331" s="12"/>
+      <c r="M331" s="12"/>
+      <c r="N331" s="12"/>
+      <c r="O331" s="12"/>
+      <c r="P331" s="12"/>
+      <c r="Q331" s="12"/>
+      <c r="R331" s="12"/>
+      <c r="S331" s="6"/>
+      <c r="T331" s="6"/>
+    </row>
+    <row r="332" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B332" s="5"/>
+      <c r="C332" s="5"/>
+      <c r="D332" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E332" s="12"/>
+      <c r="F332" s="12"/>
+      <c r="G332" s="12"/>
+      <c r="H332" s="12"/>
+      <c r="I332" s="12"/>
+      <c r="J332" s="6"/>
+      <c r="K332" s="12"/>
+      <c r="L332" s="12"/>
+      <c r="M332" s="12"/>
+      <c r="N332" s="12"/>
+      <c r="O332" s="12"/>
+      <c r="P332" s="12"/>
+      <c r="Q332" s="12"/>
+      <c r="R332" s="12"/>
+      <c r="S332" s="6"/>
+      <c r="T332" s="6"/>
+    </row>
+    <row r="333" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B333" s="5"/>
+      <c r="C333" s="5"/>
+      <c r="D333" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E333" s="12"/>
+      <c r="F333" s="12"/>
+      <c r="G333" s="12"/>
+      <c r="H333" s="12"/>
+      <c r="I333" s="12"/>
+      <c r="J333" s="6"/>
+      <c r="K333" s="12"/>
+      <c r="L333" s="12"/>
+      <c r="M333" s="12"/>
+      <c r="N333" s="12"/>
+      <c r="O333" s="12"/>
+      <c r="P333" s="12"/>
+      <c r="Q333" s="12"/>
+      <c r="R333" s="12"/>
+      <c r="S333" s="6"/>
+      <c r="T333" s="6"/>
+    </row>
+    <row r="334" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B334" s="5"/>
+      <c r="C334" s="5"/>
+      <c r="D334" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E334" s="12"/>
+      <c r="F334" s="12"/>
+      <c r="G334" s="12"/>
+      <c r="H334" s="12"/>
+      <c r="I334" s="12"/>
+      <c r="J334" s="6"/>
+      <c r="K334" s="12"/>
+      <c r="L334" s="12"/>
+      <c r="M334" s="12"/>
+      <c r="N334" s="12"/>
+      <c r="O334" s="12"/>
+      <c r="P334" s="12"/>
+      <c r="Q334" s="12"/>
+      <c r="R334" s="12"/>
+      <c r="S334" s="6"/>
+      <c r="T334" s="6"/>
+    </row>
+    <row r="335" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B335" s="5"/>
+      <c r="C335" s="5"/>
+      <c r="D335" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E335" s="12"/>
+      <c r="F335" s="12"/>
+      <c r="G335" s="12"/>
+      <c r="H335" s="12"/>
+      <c r="I335" s="12"/>
+      <c r="J335" s="6"/>
+      <c r="K335" s="12"/>
+      <c r="L335" s="12"/>
+      <c r="M335" s="12"/>
+      <c r="N335" s="12"/>
+      <c r="O335" s="12"/>
+      <c r="P335" s="12"/>
+      <c r="Q335" s="12"/>
+      <c r="R335" s="12"/>
+      <c r="S335" s="6"/>
+      <c r="T335" s="6"/>
+    </row>
+    <row r="336" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B336" s="5"/>
+      <c r="C336" s="5"/>
+      <c r="D336" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E336" s="12"/>
+      <c r="F336" s="12"/>
+      <c r="G336" s="12"/>
+      <c r="H336" s="12"/>
+      <c r="I336" s="12"/>
+      <c r="J336" s="6"/>
+      <c r="K336" s="12"/>
+      <c r="L336" s="12"/>
+      <c r="M336" s="12"/>
+      <c r="N336" s="12"/>
+      <c r="O336" s="12"/>
+      <c r="P336" s="12"/>
+      <c r="Q336" s="12"/>
+      <c r="R336" s="12"/>
+      <c r="S336" s="6"/>
+      <c r="T336" s="6"/>
+    </row>
+    <row r="337" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B337" s="5"/>
+      <c r="C337" s="5"/>
+      <c r="D337" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E337" s="12"/>
+      <c r="F337" s="12"/>
+      <c r="G337" s="12"/>
+      <c r="H337" s="12"/>
+      <c r="I337" s="12"/>
+      <c r="J337" s="6"/>
+      <c r="K337" s="12"/>
+      <c r="L337" s="12"/>
+      <c r="M337" s="12"/>
+      <c r="N337" s="12"/>
+      <c r="O337" s="12"/>
+      <c r="P337" s="12"/>
+      <c r="Q337" s="12"/>
+      <c r="R337" s="12"/>
+      <c r="S337" s="6"/>
+      <c r="T337" s="6"/>
+    </row>
+    <row r="338" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B338" s="5"/>
+      <c r="C338" s="5"/>
+      <c r="D338" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E338" s="12"/>
+      <c r="F338" s="12"/>
+      <c r="G338" s="12"/>
+      <c r="H338" s="12"/>
+      <c r="I338" s="12"/>
+      <c r="J338" s="6"/>
+      <c r="K338" s="12"/>
+      <c r="L338" s="12"/>
+      <c r="M338" s="12"/>
+      <c r="N338" s="12"/>
+      <c r="O338" s="12"/>
+      <c r="P338" s="12"/>
+      <c r="Q338" s="12"/>
+      <c r="R338" s="12"/>
+      <c r="S338" s="6"/>
+      <c r="T338" s="6"/>
+    </row>
+    <row r="339" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B339" s="5"/>
+      <c r="C339" s="5"/>
+      <c r="D339" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E339" s="12"/>
+      <c r="F339" s="12"/>
+      <c r="G339" s="12"/>
+      <c r="H339" s="12"/>
+      <c r="I339" s="12"/>
+      <c r="J339" s="6"/>
+      <c r="K339" s="12"/>
+      <c r="L339" s="12"/>
+      <c r="M339" s="12"/>
+      <c r="N339" s="12"/>
+      <c r="O339" s="12"/>
+      <c r="P339" s="12"/>
+      <c r="Q339" s="12"/>
+      <c r="R339" s="12"/>
+      <c r="S339" s="6"/>
+      <c r="T339" s="6"/>
+    </row>
+    <row r="340" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B340" s="5"/>
+      <c r="C340" s="5"/>
+      <c r="D340" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E340" s="12"/>
+      <c r="F340" s="12"/>
+      <c r="G340" s="12"/>
+      <c r="H340" s="12"/>
+      <c r="I340" s="12"/>
+      <c r="J340" s="6"/>
+      <c r="K340" s="12"/>
+      <c r="L340" s="12"/>
+      <c r="M340" s="12"/>
+      <c r="N340" s="12"/>
+      <c r="O340" s="12"/>
+      <c r="P340" s="12"/>
+      <c r="Q340" s="12"/>
+      <c r="R340" s="12"/>
+      <c r="S340" s="6"/>
+      <c r="T340" s="6"/>
+    </row>
+    <row r="341" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B341" s="5"/>
+      <c r="C341" s="5"/>
+      <c r="D341" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E341" s="12"/>
+      <c r="F341" s="12"/>
+      <c r="G341" s="12"/>
+      <c r="H341" s="12"/>
+      <c r="I341" s="12"/>
+      <c r="J341" s="6"/>
+      <c r="K341" s="12"/>
+      <c r="L341" s="12"/>
+      <c r="M341" s="12"/>
+      <c r="N341" s="12"/>
+      <c r="O341" s="12"/>
+      <c r="P341" s="12"/>
+      <c r="Q341" s="12"/>
+      <c r="R341" s="12"/>
+      <c r="S341" s="6"/>
+      <c r="T341" s="6"/>
+    </row>
+    <row r="342" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B342" s="5"/>
+      <c r="C342" s="5"/>
+      <c r="D342" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E342" s="12"/>
+      <c r="F342" s="12"/>
+      <c r="G342" s="12"/>
+      <c r="H342" s="12"/>
+      <c r="I342" s="12"/>
+      <c r="J342" s="6"/>
+      <c r="K342" s="12"/>
+      <c r="L342" s="12"/>
+      <c r="M342" s="12"/>
+      <c r="N342" s="12"/>
+      <c r="O342" s="12"/>
+      <c r="P342" s="12"/>
+      <c r="Q342" s="12"/>
+      <c r="R342" s="12"/>
+      <c r="S342" s="6"/>
+      <c r="T342" s="6"/>
+    </row>
+    <row r="343" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B343" s="5"/>
+      <c r="C343" s="5"/>
+      <c r="D343" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E343" s="12"/>
+      <c r="F343" s="12"/>
+      <c r="G343" s="12"/>
+      <c r="H343" s="12"/>
+      <c r="I343" s="12"/>
+      <c r="J343" s="6"/>
+      <c r="K343" s="12"/>
+      <c r="L343" s="12"/>
+      <c r="M343" s="12"/>
+      <c r="N343" s="12"/>
+      <c r="O343" s="12"/>
+      <c r="P343" s="12"/>
+      <c r="Q343" s="12"/>
+      <c r="R343" s="12"/>
+      <c r="S343" s="6"/>
+      <c r="T343" s="6"/>
+    </row>
+    <row r="344" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B344" s="5"/>
+      <c r="C344" s="5"/>
+      <c r="D344" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E344" s="12"/>
+      <c r="F344" s="12"/>
+      <c r="G344" s="12"/>
+      <c r="H344" s="12"/>
+      <c r="I344" s="12"/>
+      <c r="J344" s="6"/>
+      <c r="K344" s="12"/>
+      <c r="L344" s="12"/>
+      <c r="M344" s="12"/>
+      <c r="N344" s="12"/>
+      <c r="O344" s="12"/>
+      <c r="P344" s="12"/>
+      <c r="Q344" s="12"/>
+      <c r="R344" s="12"/>
+      <c r="S344" s="6"/>
+      <c r="T344" s="6"/>
+    </row>
+    <row r="345" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B345" s="5"/>
+      <c r="C345" s="5"/>
+      <c r="D345" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E345" s="12"/>
+      <c r="F345" s="12"/>
+      <c r="G345" s="12"/>
+      <c r="H345" s="12"/>
+      <c r="I345" s="12"/>
+      <c r="J345" s="6"/>
+      <c r="K345" s="12"/>
+      <c r="L345" s="12"/>
+      <c r="M345" s="12"/>
+      <c r="N345" s="12"/>
+      <c r="O345" s="12"/>
+      <c r="P345" s="12"/>
+      <c r="Q345" s="12"/>
+      <c r="R345" s="12"/>
+      <c r="S345" s="6"/>
+      <c r="T345" s="6"/>
+    </row>
+    <row r="346" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B346" s="5"/>
+      <c r="C346" s="5"/>
+      <c r="D346" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E346" s="12"/>
+      <c r="F346" s="12"/>
+      <c r="G346" s="12"/>
+      <c r="H346" s="12"/>
+      <c r="I346" s="12"/>
+      <c r="J346" s="6"/>
+      <c r="K346" s="12"/>
+      <c r="L346" s="12"/>
+      <c r="M346" s="12"/>
+      <c r="N346" s="12"/>
+      <c r="O346" s="12"/>
+      <c r="P346" s="12"/>
+      <c r="Q346" s="12"/>
+      <c r="R346" s="12"/>
+      <c r="S346" s="6"/>
+      <c r="T346" s="6"/>
+    </row>
+    <row r="347" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B347" s="5"/>
+      <c r="C347" s="5"/>
+      <c r="D347" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E347" s="12"/>
+      <c r="F347" s="12"/>
+      <c r="G347" s="12"/>
+      <c r="H347" s="12"/>
+      <c r="I347" s="12"/>
+      <c r="J347" s="6"/>
+      <c r="K347" s="12"/>
+      <c r="L347" s="12"/>
+      <c r="M347" s="12"/>
+      <c r="N347" s="12"/>
+      <c r="O347" s="12"/>
+      <c r="P347" s="12"/>
+      <c r="Q347" s="12"/>
+      <c r="R347" s="12"/>
+      <c r="S347" s="6"/>
+      <c r="T347" s="6"/>
+    </row>
+    <row r="348" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B348" s="5"/>
+      <c r="C348" s="5"/>
+      <c r="D348" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E348" s="12"/>
+      <c r="F348" s="12"/>
+      <c r="G348" s="12"/>
+      <c r="H348" s="12"/>
+      <c r="I348" s="12"/>
+      <c r="J348" s="6"/>
+      <c r="K348" s="12"/>
+      <c r="L348" s="12"/>
+      <c r="M348" s="12"/>
+      <c r="N348" s="12"/>
+      <c r="O348" s="12"/>
+      <c r="P348" s="12"/>
+      <c r="Q348" s="12"/>
+      <c r="R348" s="12"/>
+      <c r="S348" s="6"/>
+      <c r="T348" s="6"/>
+    </row>
+    <row r="349" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B349" s="5"/>
+      <c r="C349" s="5"/>
+      <c r="D349" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E349" s="12"/>
+      <c r="F349" s="12"/>
+      <c r="G349" s="12"/>
+      <c r="H349" s="12"/>
+      <c r="I349" s="12"/>
+      <c r="J349" s="6"/>
+      <c r="K349" s="12"/>
+      <c r="L349" s="12"/>
+      <c r="M349" s="12"/>
+      <c r="N349" s="12"/>
+      <c r="O349" s="12"/>
+      <c r="P349" s="12"/>
+      <c r="Q349" s="12"/>
+      <c r="R349" s="12"/>
+      <c r="S349" s="6"/>
+      <c r="T349" s="6"/>
+    </row>
+    <row r="350" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B350" s="5"/>
+      <c r="C350" s="5"/>
+      <c r="D350" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E350" s="12"/>
+      <c r="F350" s="12"/>
+      <c r="G350" s="12"/>
+      <c r="H350" s="12"/>
+      <c r="I350" s="12"/>
+      <c r="J350" s="6"/>
+      <c r="K350" s="12"/>
+      <c r="L350" s="12"/>
+      <c r="M350" s="12"/>
+      <c r="N350" s="12"/>
+      <c r="O350" s="12"/>
+      <c r="P350" s="12"/>
+      <c r="Q350" s="12"/>
+      <c r="R350" s="12"/>
+      <c r="S350" s="6"/>
+      <c r="T350" s="6"/>
+    </row>
+    <row r="351" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B351" s="5"/>
+      <c r="C351" s="5"/>
+      <c r="D351" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E351" s="12"/>
+      <c r="F351" s="12"/>
+      <c r="G351" s="12"/>
+      <c r="H351" s="12"/>
+      <c r="I351" s="12"/>
+      <c r="J351" s="6"/>
+      <c r="K351" s="12"/>
+      <c r="L351" s="12"/>
+      <c r="M351" s="12"/>
+      <c r="N351" s="12"/>
+      <c r="O351" s="12"/>
+      <c r="P351" s="12"/>
+      <c r="Q351" s="12"/>
+      <c r="R351" s="12"/>
+      <c r="S351" s="6"/>
+      <c r="T351" s="6"/>
+    </row>
+    <row r="352" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B352" s="5"/>
+      <c r="C352" s="5"/>
+      <c r="D352" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E352" s="12"/>
+      <c r="F352" s="12"/>
+      <c r="G352" s="12"/>
+      <c r="H352" s="12"/>
+      <c r="I352" s="12"/>
+      <c r="J352" s="6"/>
+      <c r="K352" s="12"/>
+      <c r="L352" s="12"/>
+      <c r="M352" s="12"/>
+      <c r="N352" s="12"/>
+      <c r="O352" s="12"/>
+      <c r="P352" s="12"/>
+      <c r="Q352" s="12"/>
+      <c r="R352" s="12"/>
+      <c r="S352" s="6"/>
+      <c r="T352" s="6"/>
+    </row>
+    <row r="353" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B353" s="5"/>
+      <c r="C353" s="5"/>
+      <c r="D353" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E353" s="12"/>
+      <c r="F353" s="12"/>
+      <c r="G353" s="12"/>
+      <c r="H353" s="12"/>
+      <c r="I353" s="12"/>
+      <c r="J353" s="6"/>
+      <c r="K353" s="12"/>
+      <c r="L353" s="12"/>
+      <c r="M353" s="12"/>
+      <c r="N353" s="12"/>
+      <c r="O353" s="12"/>
+      <c r="P353" s="12"/>
+      <c r="Q353" s="12"/>
+      <c r="R353" s="12"/>
+      <c r="S353" s="6"/>
+      <c r="T353" s="6"/>
+    </row>
+    <row r="354" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B354" s="5"/>
+      <c r="C354" s="5"/>
+      <c r="D354" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E354" s="12"/>
+      <c r="F354" s="12"/>
+      <c r="G354" s="12"/>
+      <c r="H354" s="12"/>
+      <c r="I354" s="12"/>
+      <c r="J354" s="6"/>
+      <c r="K354" s="12"/>
+      <c r="L354" s="12"/>
+      <c r="M354" s="12"/>
+      <c r="N354" s="12"/>
+      <c r="O354" s="12"/>
+      <c r="P354" s="12"/>
+      <c r="Q354" s="12"/>
+      <c r="R354" s="12"/>
+      <c r="S354" s="6"/>
+      <c r="T354" s="6"/>
+    </row>
+    <row r="355" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B355" s="5"/>
+      <c r="C355" s="5"/>
+      <c r="D355" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E355" s="12"/>
+      <c r="F355" s="12"/>
+      <c r="G355" s="12"/>
+      <c r="H355" s="12"/>
+      <c r="I355" s="12"/>
+      <c r="J355" s="6"/>
+      <c r="K355" s="12"/>
+      <c r="L355" s="12"/>
+      <c r="M355" s="12"/>
+      <c r="N355" s="12"/>
+      <c r="O355" s="12"/>
+      <c r="P355" s="12"/>
+      <c r="Q355" s="12"/>
+      <c r="R355" s="12"/>
+      <c r="S355" s="6"/>
+      <c r="T355" s="6"/>
+    </row>
+    <row r="356" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B356" s="5"/>
+      <c r="C356" s="5"/>
+      <c r="D356" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E356" s="12"/>
+      <c r="F356" s="12"/>
+      <c r="G356" s="12"/>
+      <c r="H356" s="12"/>
+      <c r="I356" s="12"/>
+      <c r="J356" s="6"/>
+      <c r="K356" s="12"/>
+      <c r="L356" s="12"/>
+      <c r="M356" s="12"/>
+      <c r="N356" s="12"/>
+      <c r="O356" s="12"/>
+      <c r="P356" s="12"/>
+      <c r="Q356" s="12"/>
+      <c r="R356" s="12"/>
+      <c r="S356" s="6"/>
+      <c r="T356" s="6"/>
+    </row>
+    <row r="357" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B357" s="5"/>
+      <c r="C357" s="5"/>
+      <c r="D357" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E357" s="12"/>
+      <c r="F357" s="12"/>
+      <c r="G357" s="12"/>
+      <c r="H357" s="12"/>
+      <c r="I357" s="12"/>
+      <c r="J357" s="6"/>
+      <c r="K357" s="12"/>
+      <c r="L357" s="12"/>
+      <c r="M357" s="12"/>
+      <c r="N357" s="12"/>
+      <c r="O357" s="12"/>
+      <c r="P357" s="12"/>
+      <c r="Q357" s="12"/>
+      <c r="R357" s="12"/>
+      <c r="S357" s="6"/>
+      <c r="T357" s="6"/>
+    </row>
+    <row r="358" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B358" s="5"/>
+      <c r="C358" s="5"/>
+      <c r="D358" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E358" s="12"/>
+      <c r="F358" s="12"/>
+      <c r="G358" s="12"/>
+      <c r="H358" s="12"/>
+      <c r="I358" s="12"/>
+      <c r="J358" s="6"/>
+      <c r="K358" s="12"/>
+      <c r="L358" s="12"/>
+      <c r="M358" s="12"/>
+      <c r="N358" s="12"/>
+      <c r="O358" s="12"/>
+      <c r="P358" s="12"/>
+      <c r="Q358" s="12"/>
+      <c r="R358" s="12"/>
+      <c r="S358" s="6"/>
+      <c r="T358" s="6"/>
+    </row>
+    <row r="359" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B359" s="5"/>
+      <c r="C359" s="5"/>
+      <c r="D359" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E359" s="12"/>
+      <c r="F359" s="12"/>
+      <c r="G359" s="12"/>
+      <c r="H359" s="12"/>
+      <c r="I359" s="12"/>
+      <c r="J359" s="6"/>
+      <c r="K359" s="12"/>
+      <c r="L359" s="12"/>
+      <c r="M359" s="12"/>
+      <c r="N359" s="12"/>
+      <c r="O359" s="12"/>
+      <c r="P359" s="12"/>
+      <c r="Q359" s="12"/>
+      <c r="R359" s="12"/>
+      <c r="S359" s="6"/>
+      <c r="T359" s="6"/>
+    </row>
+    <row r="360" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B360" s="5"/>
+      <c r="C360" s="5"/>
+      <c r="D360" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E360" s="12"/>
+      <c r="F360" s="12"/>
+      <c r="G360" s="12"/>
+      <c r="H360" s="12"/>
+      <c r="I360" s="12"/>
+      <c r="J360" s="6"/>
+      <c r="K360" s="12"/>
+      <c r="L360" s="12"/>
+      <c r="M360" s="12"/>
+      <c r="N360" s="12"/>
+      <c r="O360" s="12"/>
+      <c r="P360" s="12"/>
+      <c r="Q360" s="12"/>
+      <c r="R360" s="12"/>
+      <c r="S360" s="6"/>
+      <c r="T360" s="6"/>
+    </row>
+    <row r="361" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B361" s="5"/>
+      <c r="C361" s="5"/>
+      <c r="D361" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E361" s="12"/>
+      <c r="F361" s="12"/>
+      <c r="G361" s="12"/>
+      <c r="H361" s="12"/>
+      <c r="I361" s="12"/>
+      <c r="J361" s="6"/>
+      <c r="K361" s="12"/>
+      <c r="L361" s="12"/>
+      <c r="M361" s="12"/>
+      <c r="N361" s="12"/>
+      <c r="O361" s="12"/>
+      <c r="P361" s="12"/>
+      <c r="Q361" s="12"/>
+      <c r="R361" s="12"/>
+      <c r="S361" s="6"/>
+      <c r="T361" s="6"/>
+    </row>
+    <row r="362" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B362" s="5"/>
+      <c r="C362" s="5"/>
+      <c r="D362" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E362" s="12"/>
+      <c r="F362" s="12"/>
+      <c r="G362" s="12"/>
+      <c r="H362" s="12"/>
+      <c r="I362" s="12"/>
+      <c r="J362" s="6"/>
+      <c r="K362" s="12"/>
+      <c r="L362" s="12"/>
+      <c r="M362" s="12"/>
+      <c r="N362" s="12"/>
+      <c r="O362" s="12"/>
+      <c r="P362" s="12"/>
+      <c r="Q362" s="12"/>
+      <c r="R362" s="12"/>
+      <c r="S362" s="6"/>
+      <c r="T362" s="6"/>
+    </row>
+    <row r="363" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B363" s="5"/>
+      <c r="C363" s="5"/>
+      <c r="D363" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E363" s="12"/>
+      <c r="F363" s="12"/>
+      <c r="G363" s="12"/>
+      <c r="H363" s="12"/>
+      <c r="I363" s="12"/>
+      <c r="J363" s="6"/>
+      <c r="K363" s="12"/>
+      <c r="L363" s="12"/>
+      <c r="M363" s="12"/>
+      <c r="N363" s="12"/>
+      <c r="O363" s="12"/>
+      <c r="P363" s="12"/>
+      <c r="Q363" s="12"/>
+      <c r="R363" s="12"/>
+      <c r="S363" s="6"/>
+      <c r="T363" s="6"/>
+    </row>
+    <row r="364" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B364" s="5"/>
+      <c r="C364" s="5"/>
+      <c r="D364" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E364" s="12"/>
+      <c r="F364" s="12"/>
+      <c r="G364" s="12"/>
+      <c r="H364" s="12"/>
+      <c r="I364" s="12"/>
+      <c r="J364" s="6"/>
+      <c r="K364" s="12"/>
+      <c r="L364" s="12"/>
+      <c r="M364" s="12"/>
+      <c r="N364" s="12"/>
+      <c r="O364" s="12"/>
+      <c r="P364" s="12"/>
+      <c r="Q364" s="12"/>
+      <c r="R364" s="12"/>
+      <c r="S364" s="6"/>
+      <c r="T364" s="6"/>
+    </row>
+    <row r="365" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B365" s="5"/>
+      <c r="C365" s="5"/>
+      <c r="D365" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E365" s="12"/>
+      <c r="F365" s="12"/>
+      <c r="G365" s="12"/>
+      <c r="H365" s="12"/>
+      <c r="I365" s="12"/>
+      <c r="J365" s="6"/>
+      <c r="K365" s="12"/>
+      <c r="L365" s="12"/>
+      <c r="M365" s="12"/>
+      <c r="N365" s="12"/>
+      <c r="O365" s="12"/>
+      <c r="P365" s="12"/>
+      <c r="Q365" s="12"/>
+      <c r="R365" s="12"/>
+      <c r="S365" s="6"/>
+      <c r="T365" s="6"/>
+    </row>
+    <row r="366" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B366" s="5"/>
+      <c r="C366" s="5"/>
+      <c r="D366" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E366" s="12"/>
+      <c r="F366" s="12"/>
+      <c r="G366" s="12"/>
+      <c r="H366" s="12"/>
+      <c r="I366" s="12"/>
+      <c r="J366" s="6"/>
+      <c r="K366" s="12"/>
+      <c r="L366" s="12"/>
+      <c r="M366" s="12"/>
+      <c r="N366" s="12"/>
+      <c r="O366" s="12"/>
+      <c r="P366" s="12"/>
+      <c r="Q366" s="12"/>
+      <c r="R366" s="12"/>
+      <c r="S366" s="6"/>
+      <c r="T366" s="6"/>
+    </row>
+    <row r="367" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B367" s="5"/>
+      <c r="C367" s="5"/>
+      <c r="D367" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E367" s="12"/>
+      <c r="F367" s="12"/>
+      <c r="G367" s="12"/>
+      <c r="H367" s="12"/>
+      <c r="I367" s="12"/>
+      <c r="J367" s="6"/>
+      <c r="K367" s="12"/>
+      <c r="L367" s="12"/>
+      <c r="M367" s="12"/>
+      <c r="N367" s="12"/>
+      <c r="O367" s="12"/>
+      <c r="P367" s="12"/>
+      <c r="Q367" s="12"/>
+      <c r="R367" s="12"/>
+      <c r="S367" s="6"/>
+      <c r="T367" s="6"/>
+    </row>
+    <row r="368" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B368" s="5"/>
+      <c r="C368" s="5"/>
+      <c r="D368" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E368" s="12"/>
+      <c r="F368" s="12"/>
+      <c r="G368" s="12"/>
+      <c r="H368" s="12"/>
+      <c r="I368" s="12"/>
+      <c r="J368" s="6"/>
+      <c r="K368" s="12"/>
+      <c r="L368" s="12"/>
+      <c r="M368" s="12"/>
+      <c r="N368" s="12"/>
+      <c r="O368" s="12"/>
+      <c r="P368" s="12"/>
+      <c r="Q368" s="12"/>
+      <c r="R368" s="12"/>
+      <c r="S368" s="6"/>
+      <c r="T368" s="6"/>
+    </row>
+    <row r="369" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B369" s="5"/>
+      <c r="C369" s="5"/>
+      <c r="D369" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E369" s="12"/>
+      <c r="F369" s="12"/>
+      <c r="G369" s="12"/>
+      <c r="H369" s="12"/>
+      <c r="I369" s="12"/>
+      <c r="J369" s="6"/>
+      <c r="K369" s="12"/>
+      <c r="L369" s="12"/>
+      <c r="M369" s="12"/>
+      <c r="N369" s="12"/>
+      <c r="O369" s="12"/>
+      <c r="P369" s="12"/>
+      <c r="Q369" s="12"/>
+      <c r="R369" s="12"/>
+      <c r="S369" s="6"/>
+      <c r="T369" s="6"/>
+    </row>
+    <row r="370" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B370" s="5"/>
+      <c r="C370" s="5"/>
+      <c r="D370" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E370" s="12"/>
+      <c r="F370" s="12"/>
+      <c r="G370" s="12"/>
+      <c r="H370" s="12"/>
+      <c r="I370" s="12"/>
+      <c r="J370" s="6"/>
+      <c r="K370" s="12"/>
+      <c r="L370" s="12"/>
+      <c r="M370" s="12"/>
+      <c r="N370" s="12"/>
+      <c r="O370" s="12"/>
+      <c r="P370" s="12"/>
+      <c r="Q370" s="12"/>
+      <c r="R370" s="12"/>
+      <c r="S370" s="6"/>
+      <c r="T370" s="6"/>
+    </row>
+    <row r="371" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B371" s="5"/>
+      <c r="C371" s="5"/>
+      <c r="D371" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E371" s="12"/>
+      <c r="F371" s="12"/>
+      <c r="G371" s="12"/>
+      <c r="H371" s="12"/>
+      <c r="I371" s="12"/>
+      <c r="J371" s="6"/>
+      <c r="K371" s="12"/>
+      <c r="L371" s="12"/>
+      <c r="M371" s="12"/>
+      <c r="N371" s="12"/>
+      <c r="O371" s="12"/>
+      <c r="P371" s="12"/>
+      <c r="Q371" s="12"/>
+      <c r="R371" s="12"/>
+      <c r="S371" s="6"/>
+      <c r="T371" s="6"/>
+    </row>
+    <row r="372" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B372" s="5"/>
+      <c r="C372" s="5"/>
+      <c r="D372" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E372" s="8"/>
+      <c r="F372" s="8"/>
+      <c r="G372" s="8"/>
+      <c r="H372" s="8"/>
+      <c r="I372" s="8"/>
+      <c r="J372" s="9"/>
+      <c r="K372" s="12"/>
+      <c r="L372" s="12"/>
+      <c r="M372" s="12"/>
+      <c r="N372" s="12"/>
+      <c r="O372" s="12"/>
+      <c r="P372" s="12"/>
+      <c r="Q372" s="12"/>
+      <c r="R372" s="12"/>
+      <c r="S372" s="6"/>
+      <c r="T372" s="6"/>
+    </row>
+    <row r="373" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B373" s="5"/>
+      <c r="C373" s="7"/>
+      <c r="D373" s="8"/>
+      <c r="E373" s="8"/>
+      <c r="F373" s="8"/>
+      <c r="G373" s="8"/>
+      <c r="H373" s="8"/>
+      <c r="I373" s="8"/>
+      <c r="J373" s="8"/>
+      <c r="K373" s="8"/>
+      <c r="L373" s="8"/>
+      <c r="M373" s="8"/>
+      <c r="N373" s="8"/>
+      <c r="O373" s="8"/>
+      <c r="P373" s="8"/>
+      <c r="Q373" s="8"/>
+      <c r="R373" s="8"/>
+      <c r="S373" s="9"/>
+      <c r="T373" s="6"/>
+    </row>
+    <row r="374" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B374" s="7"/>
+      <c r="C374" s="8"/>
+      <c r="D374" s="8"/>
+      <c r="E374" s="8"/>
+      <c r="F374" s="8"/>
+      <c r="G374" s="8"/>
+      <c r="H374" s="8"/>
+      <c r="I374" s="8"/>
+      <c r="J374" s="8"/>
+      <c r="K374" s="8"/>
+      <c r="L374" s="8"/>
+      <c r="M374" s="8"/>
+      <c r="N374" s="8"/>
+      <c r="O374" s="8"/>
+      <c r="P374" s="8"/>
+      <c r="Q374" s="8"/>
+      <c r="R374" s="8"/>
+      <c r="S374" s="8"/>
+      <c r="T374" s="9"/>
+    </row>
+    <row r="377" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B377" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="C377" s="3"/>
+      <c r="D377" s="3"/>
+      <c r="E377" s="3"/>
+      <c r="F377" s="3"/>
+      <c r="G377" s="4"/>
+    </row>
+    <row r="378" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B378" s="5"/>
+      <c r="C378" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D378" s="3"/>
+      <c r="E378" s="3"/>
+      <c r="F378" s="4"/>
+      <c r="G378" s="6"/>
+    </row>
+    <row r="379" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B379" s="5"/>
+      <c r="C379" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D379" s="12"/>
+      <c r="E379" s="12"/>
+      <c r="F379" s="6"/>
+      <c r="G379" s="6"/>
+    </row>
+    <row r="380" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B380" s="5"/>
+      <c r="C380" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D380" s="12"/>
+      <c r="E380" s="12"/>
+      <c r="F380" s="6"/>
+      <c r="G380" s="6"/>
+    </row>
+    <row r="381" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B381" s="5"/>
+      <c r="C381" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D381" s="12"/>
+      <c r="E381" s="12"/>
+      <c r="F381" s="6"/>
+      <c r="G381" s="6"/>
+    </row>
+    <row r="382" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B382" s="5"/>
+      <c r="C382" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D382" s="12"/>
+      <c r="E382" s="12"/>
+      <c r="F382" s="6"/>
+      <c r="G382" s="6"/>
+    </row>
+    <row r="383" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B383" s="5"/>
+      <c r="C383" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D383" s="12"/>
+      <c r="E383" s="12"/>
+      <c r="F383" s="6"/>
+      <c r="G383" s="6"/>
+    </row>
+    <row r="384" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B384" s="5"/>
+      <c r="C384" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D384" s="12"/>
+      <c r="E384" s="12"/>
+      <c r="F384" s="6"/>
+      <c r="G384" s="6"/>
+    </row>
+    <row r="385" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B385" s="5"/>
+      <c r="C385" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D385" s="12"/>
+      <c r="E385" s="12"/>
+      <c r="F385" s="6"/>
+      <c r="G385" s="6"/>
+    </row>
+    <row r="386" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B386" s="5"/>
+      <c r="C386" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D386" s="12"/>
+      <c r="E386" s="12"/>
+      <c r="F386" s="6"/>
+      <c r="G386" s="6"/>
+    </row>
+    <row r="387" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B387" s="5"/>
+      <c r="C387" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D387" s="12"/>
+      <c r="E387" s="12"/>
+      <c r="F387" s="6"/>
+      <c r="G387" s="6"/>
+    </row>
+    <row r="388" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B388" s="5"/>
+      <c r="C388" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D388" s="12"/>
+      <c r="E388" s="12"/>
+      <c r="F388" s="6"/>
+      <c r="G388" s="6"/>
+    </row>
+    <row r="389" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B389" s="5"/>
+      <c r="C389" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D389" s="12"/>
+      <c r="E389" s="12"/>
+      <c r="F389" s="6"/>
+      <c r="G389" s="6"/>
+    </row>
+    <row r="390" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B390" s="5"/>
+      <c r="C390" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D390" s="12"/>
+      <c r="E390" s="12"/>
+      <c r="F390" s="6"/>
+      <c r="G390" s="6"/>
+    </row>
+    <row r="391" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B391" s="5"/>
+      <c r="C391" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D391" s="12"/>
+      <c r="E391" s="12"/>
+      <c r="F391" s="6"/>
+      <c r="G391" s="6"/>
+    </row>
+    <row r="392" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B392" s="5"/>
+      <c r="C392" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D392" s="12"/>
+      <c r="E392" s="12"/>
+      <c r="F392" s="6"/>
+      <c r="G392" s="6"/>
+    </row>
+    <row r="393" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B393" s="5"/>
+      <c r="C393" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D393" s="12"/>
+      <c r="E393" s="12"/>
+      <c r="F393" s="6"/>
+      <c r="G393" s="6"/>
+    </row>
+    <row r="394" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B394" s="5"/>
+      <c r="C394" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D394" s="12"/>
+      <c r="E394" s="12"/>
+      <c r="F394" s="6"/>
+      <c r="G394" s="6"/>
+    </row>
+    <row r="395" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B395" s="5"/>
+      <c r="C395" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D395" s="12"/>
+      <c r="E395" s="12"/>
+      <c r="F395" s="6"/>
+      <c r="G395" s="6"/>
+    </row>
+    <row r="396" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B396" s="5"/>
+      <c r="C396" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D396" s="8"/>
+      <c r="E396" s="8"/>
+      <c r="F396" s="9"/>
+      <c r="G396" s="6"/>
+    </row>
+    <row r="397" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B397" s="7"/>
+      <c r="C397" s="8"/>
+      <c r="D397" s="8"/>
+      <c r="E397" s="8"/>
+      <c r="F397" s="8"/>
+      <c r="G397" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/me/6.Callouts-using-Apex.xlsx
+++ b/me/6.Callouts-using-Apex.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\salesforce-integration-with-external-systems\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E246D3-D502-414E-8DF0-6CC93F58C31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89410DAA-4C32-4FF3-A928-F7B28F52C8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Remote site settings" sheetId="1" r:id="rId1"/>
     <sheet name="Create an Apex class" sheetId="2" r:id="rId2"/>
+    <sheet name="MakeHttpCalloutFromLightningCmp" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="324">
   <si>
     <t>構成</t>
   </si>
@@ -896,6 +897,108 @@
   </si>
   <si>
     <t>Map</t>
+  </si>
+  <si>
+    <t>Make HTTP Callout from Lightning component</t>
+  </si>
+  <si>
+    <t>Create Aura Component</t>
+  </si>
+  <si>
+    <t>salesforce-integration-with-external-systems\6.Callouts-using-Apex\2.Make-HTTP-Callout-from-Lightning-component\SampleComponent.txt</t>
+  </si>
+  <si>
+    <t>&lt;aura:component controller="HttpCalloutCtrl" &gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;aura:attribute name="ListOfCurrency" type="String[]"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;aura:attribute name="response" type="Map" /&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;div class="slds-m-around-medium"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>&lt;div class="slds-media__body"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t>&lt;p class="slds-page-header__title slds-truncate " title="Foreign Exchange Rates"&gt; Foreign Exchange Rates by Deepika&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;lightning:button variant="brand" label="Foreign Ex Rates" onclick="{!c.calloutCtrl}" /&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;/div&gt;    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;h3 class="slds-section-title--divider"&gt;Date: {!v.response.date}&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;ul class="slds-list--dotted"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;aura:iteration items="{!v.ListOfCurrency}" var="rateLst"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;{!rateLst}&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;/aura:iteration&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/aura:component&gt;</t>
+  </si>
+  <si>
+    <t>Create Lightning Application</t>
+  </si>
+  <si>
+    <t>salesforce-integration-with-external-systems\6.Callouts-using-Apex\2.Make-HTTP-Callout-from-Lightning-component\SampleComponent1.txt</t>
+  </si>
+  <si>
+    <t>&lt;aura:application extends="force:slds"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;c:SampleComponent /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/aura:application&gt;</t>
+  </si>
+  <si>
+    <t>slds: Salesforce Lightning Design System</t>
+  </si>
+  <si>
+    <t>Preview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;br/&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>2.Make-HTTP-Callout-from-Lightning-component</t>
+  </si>
+  <si>
+    <t>SampleComponent.txt</t>
+  </si>
+  <si>
+    <t>SampleComponent1.txt</t>
+  </si>
+  <si>
+    <t>SampleComponentController.txt</t>
+  </si>
+  <si>
+    <t>SampleComponentHelper.txt</t>
   </si>
 </sst>
 </file>
@@ -1024,7 +1127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1037,8 +1140,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1982,6 +2095,363 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>111071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{839645BB-A8A3-8565-5376-A33A5EBD5379}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="698046" y="6915151"/>
+          <a:ext cx="11126561" cy="4625920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>185972</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133995</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{404F6828-0BE8-34E6-275C-D185677815FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="784412" y="11754971"/>
+          <a:ext cx="4847619" cy="3809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>89649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>437030</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>56155</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB358096-0415-119A-561F-784D4B2BB9A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="694765" y="24664149"/>
+          <a:ext cx="11239500" cy="5681506"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>120988</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>49393</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACBBEBFB-3841-FA38-BB4B-44D16F38ADDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="795618" y="30558441"/>
+          <a:ext cx="4771429" cy="3780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>212911</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>448236</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>25028</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{418D22A4-EA0F-F261-715A-C2103AC731D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="818029" y="35701941"/>
+          <a:ext cx="11127442" cy="3185087"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>179295</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>44825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>201706</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>115505</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D9DA0F7-E286-FBF3-13A0-BFE9C2F963E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="784413" y="39478325"/>
+          <a:ext cx="10914528" cy="3499680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>156884</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>2282</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{462A134E-57AB-E7FC-67FF-1379DB79D13A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="773206" y="19397384"/>
+          <a:ext cx="11004176" cy="4607898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>481853</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>18408</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F17A23F8-89DE-80E7-5592-A20B50667D3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="750794" y="43176265"/>
+          <a:ext cx="11228294" cy="1800143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2580,8 +3050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2C8266-6748-44DC-B747-461F9850EDA7}">
   <dimension ref="A2:T397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V113" sqref="V113"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2834,75 +3304,30 @@
       <c r="B68" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
       <c r="L68" s="6"/>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
       <c r="L69" s="6"/>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
       <c r="L70" s="6"/>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
       <c r="L71" s="6"/>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
       <c r="L72" s="6"/>
       <c r="M72" t="s">
         <v>49</v>
@@ -2915,15 +3340,6 @@
       <c r="B73" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
       <c r="L73" s="6"/>
       <c r="M73" t="s">
         <v>49</v>
@@ -2936,15 +3352,6 @@
       <c r="B74" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
       <c r="L74" s="6"/>
       <c r="M74" t="s">
         <v>49</v>
@@ -2957,15 +3364,6 @@
       <c r="B75" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
       <c r="L75" s="6"/>
       <c r="M75" t="s">
         <v>49</v>
@@ -2978,30 +3376,12 @@
       <c r="B76" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
       <c r="L76" s="6"/>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
       <c r="L77" s="6"/>
       <c r="M77" t="s">
         <v>49</v>
@@ -3014,73 +3394,28 @@
       <c r="B78" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
       <c r="L78" s="6"/>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="12"/>
       <c r="L79" s="6"/>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="12"/>
       <c r="L80" s="6"/>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="12"/>
       <c r="L81" s="6"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82" s="5"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="12"/>
       <c r="L82" s="6"/>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
@@ -3141,7 +3476,7 @@
       <c r="N119" s="9"/>
     </row>
     <row r="139" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B139" s="13" t="s">
+      <c r="B139" s="12" t="s">
         <v>272</v>
       </c>
       <c r="C139" s="3"/>
@@ -3173,17 +3508,6 @@
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
       <c r="H140" s="4"/>
-      <c r="I140" s="12"/>
-      <c r="J140" s="12"/>
-      <c r="K140" s="12"/>
-      <c r="L140" s="12"/>
-      <c r="M140" s="12"/>
-      <c r="N140" s="12"/>
-      <c r="O140" s="12"/>
-      <c r="P140" s="12"/>
-      <c r="Q140" s="12"/>
-      <c r="R140" s="12"/>
-      <c r="S140" s="12"/>
       <c r="T140" s="6"/>
     </row>
     <row r="141" spans="2:20" x14ac:dyDescent="0.25">
@@ -3191,22 +3515,7 @@
       <c r="C141" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D141" s="12"/>
-      <c r="E141" s="12"/>
-      <c r="F141" s="12"/>
-      <c r="G141" s="12"/>
       <c r="H141" s="6"/>
-      <c r="I141" s="12"/>
-      <c r="J141" s="12"/>
-      <c r="K141" s="12"/>
-      <c r="L141" s="12"/>
-      <c r="M141" s="12"/>
-      <c r="N141" s="12"/>
-      <c r="O141" s="12"/>
-      <c r="P141" s="12"/>
-      <c r="Q141" s="12"/>
-      <c r="R141" s="12"/>
-      <c r="S141" s="12"/>
       <c r="T141" s="6"/>
     </row>
     <row r="142" spans="2:20" x14ac:dyDescent="0.25">
@@ -3214,22 +3523,7 @@
       <c r="C142" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D142" s="12"/>
-      <c r="E142" s="12"/>
-      <c r="F142" s="12"/>
-      <c r="G142" s="12"/>
       <c r="H142" s="6"/>
-      <c r="I142" s="12"/>
-      <c r="J142" s="12"/>
-      <c r="K142" s="12"/>
-      <c r="L142" s="12"/>
-      <c r="M142" s="12"/>
-      <c r="N142" s="12"/>
-      <c r="O142" s="12"/>
-      <c r="P142" s="12"/>
-      <c r="Q142" s="12"/>
-      <c r="R142" s="12"/>
-      <c r="S142" s="12"/>
       <c r="T142" s="6"/>
     </row>
     <row r="143" spans="2:20" x14ac:dyDescent="0.25">
@@ -3237,22 +3531,7 @@
       <c r="C143" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D143" s="12"/>
-      <c r="E143" s="12"/>
-      <c r="F143" s="12"/>
-      <c r="G143" s="12"/>
       <c r="H143" s="6"/>
-      <c r="I143" s="12"/>
-      <c r="J143" s="12"/>
-      <c r="K143" s="12"/>
-      <c r="L143" s="12"/>
-      <c r="M143" s="12"/>
-      <c r="N143" s="12"/>
-      <c r="O143" s="12"/>
-      <c r="P143" s="12"/>
-      <c r="Q143" s="12"/>
-      <c r="R143" s="12"/>
-      <c r="S143" s="12"/>
       <c r="T143" s="6"/>
     </row>
     <row r="144" spans="2:20" x14ac:dyDescent="0.25">
@@ -3260,22 +3539,7 @@
       <c r="C144" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D144" s="12"/>
-      <c r="E144" s="12"/>
-      <c r="F144" s="12"/>
-      <c r="G144" s="12"/>
       <c r="H144" s="6"/>
-      <c r="I144" s="12"/>
-      <c r="J144" s="12"/>
-      <c r="K144" s="12"/>
-      <c r="L144" s="12"/>
-      <c r="M144" s="12"/>
-      <c r="N144" s="12"/>
-      <c r="O144" s="12"/>
-      <c r="P144" s="12"/>
-      <c r="Q144" s="12"/>
-      <c r="R144" s="12"/>
-      <c r="S144" s="12"/>
       <c r="T144" s="6"/>
     </row>
     <row r="145" spans="2:20" x14ac:dyDescent="0.25">
@@ -3283,22 +3547,7 @@
       <c r="C145" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D145" s="12"/>
-      <c r="E145" s="12"/>
-      <c r="F145" s="12"/>
-      <c r="G145" s="12"/>
       <c r="H145" s="6"/>
-      <c r="I145" s="12"/>
-      <c r="J145" s="12"/>
-      <c r="K145" s="12"/>
-      <c r="L145" s="12"/>
-      <c r="M145" s="12"/>
-      <c r="N145" s="12"/>
-      <c r="O145" s="12"/>
-      <c r="P145" s="12"/>
-      <c r="Q145" s="12"/>
-      <c r="R145" s="12"/>
-      <c r="S145" s="12"/>
       <c r="T145" s="6"/>
     </row>
     <row r="146" spans="2:20" x14ac:dyDescent="0.25">
@@ -3306,22 +3555,7 @@
       <c r="C146" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D146" s="12"/>
-      <c r="E146" s="12"/>
-      <c r="F146" s="12"/>
-      <c r="G146" s="12"/>
       <c r="H146" s="6"/>
-      <c r="I146" s="12"/>
-      <c r="J146" s="12"/>
-      <c r="K146" s="12"/>
-      <c r="L146" s="12"/>
-      <c r="M146" s="12"/>
-      <c r="N146" s="12"/>
-      <c r="O146" s="12"/>
-      <c r="P146" s="12"/>
-      <c r="Q146" s="12"/>
-      <c r="R146" s="12"/>
-      <c r="S146" s="12"/>
       <c r="T146" s="6"/>
     </row>
     <row r="147" spans="2:20" x14ac:dyDescent="0.25">
@@ -3329,22 +3563,7 @@
       <c r="C147" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D147" s="12"/>
-      <c r="E147" s="12"/>
-      <c r="F147" s="12"/>
-      <c r="G147" s="12"/>
       <c r="H147" s="6"/>
-      <c r="I147" s="12"/>
-      <c r="J147" s="12"/>
-      <c r="K147" s="12"/>
-      <c r="L147" s="12"/>
-      <c r="M147" s="12"/>
-      <c r="N147" s="12"/>
-      <c r="O147" s="12"/>
-      <c r="P147" s="12"/>
-      <c r="Q147" s="12"/>
-      <c r="R147" s="12"/>
-      <c r="S147" s="12"/>
       <c r="T147" s="6"/>
     </row>
     <row r="148" spans="2:20" x14ac:dyDescent="0.25">
@@ -3352,22 +3571,7 @@
       <c r="C148" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="12"/>
-      <c r="E148" s="12"/>
-      <c r="F148" s="12"/>
-      <c r="G148" s="12"/>
       <c r="H148" s="6"/>
-      <c r="I148" s="12"/>
-      <c r="J148" s="12"/>
-      <c r="K148" s="12"/>
-      <c r="L148" s="12"/>
-      <c r="M148" s="12"/>
-      <c r="N148" s="12"/>
-      <c r="O148" s="12"/>
-      <c r="P148" s="12"/>
-      <c r="Q148" s="12"/>
-      <c r="R148" s="12"/>
-      <c r="S148" s="12"/>
       <c r="T148" s="6"/>
     </row>
     <row r="149" spans="2:20" x14ac:dyDescent="0.25">
@@ -3375,22 +3579,7 @@
       <c r="C149" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D149" s="12"/>
-      <c r="E149" s="12"/>
-      <c r="F149" s="12"/>
-      <c r="G149" s="12"/>
       <c r="H149" s="6"/>
-      <c r="I149" s="12"/>
-      <c r="J149" s="12"/>
-      <c r="K149" s="12"/>
-      <c r="L149" s="12"/>
-      <c r="M149" s="12"/>
-      <c r="N149" s="12"/>
-      <c r="O149" s="12"/>
-      <c r="P149" s="12"/>
-      <c r="Q149" s="12"/>
-      <c r="R149" s="12"/>
-      <c r="S149" s="12"/>
       <c r="T149" s="6"/>
     </row>
     <row r="150" spans="2:20" x14ac:dyDescent="0.25">
@@ -3398,22 +3587,7 @@
       <c r="C150" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D150" s="12"/>
-      <c r="E150" s="12"/>
-      <c r="F150" s="12"/>
-      <c r="G150" s="12"/>
       <c r="H150" s="6"/>
-      <c r="I150" s="12"/>
-      <c r="J150" s="12"/>
-      <c r="K150" s="12"/>
-      <c r="L150" s="12"/>
-      <c r="M150" s="12"/>
-      <c r="N150" s="12"/>
-      <c r="O150" s="12"/>
-      <c r="P150" s="12"/>
-      <c r="Q150" s="12"/>
-      <c r="R150" s="12"/>
-      <c r="S150" s="12"/>
       <c r="T150" s="6"/>
     </row>
     <row r="151" spans="2:20" x14ac:dyDescent="0.25">
@@ -3421,22 +3595,7 @@
       <c r="C151" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D151" s="12"/>
-      <c r="E151" s="12"/>
-      <c r="F151" s="12"/>
-      <c r="G151" s="12"/>
       <c r="H151" s="6"/>
-      <c r="I151" s="12"/>
-      <c r="J151" s="12"/>
-      <c r="K151" s="12"/>
-      <c r="L151" s="12"/>
-      <c r="M151" s="12"/>
-      <c r="N151" s="12"/>
-      <c r="O151" s="12"/>
-      <c r="P151" s="12"/>
-      <c r="Q151" s="12"/>
-      <c r="R151" s="12"/>
-      <c r="S151" s="12"/>
       <c r="T151" s="6"/>
     </row>
     <row r="152" spans="2:20" x14ac:dyDescent="0.25">
@@ -3444,22 +3603,7 @@
       <c r="C152" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D152" s="12"/>
-      <c r="E152" s="12"/>
-      <c r="F152" s="12"/>
-      <c r="G152" s="12"/>
       <c r="H152" s="6"/>
-      <c r="I152" s="12"/>
-      <c r="J152" s="12"/>
-      <c r="K152" s="12"/>
-      <c r="L152" s="12"/>
-      <c r="M152" s="12"/>
-      <c r="N152" s="12"/>
-      <c r="O152" s="12"/>
-      <c r="P152" s="12"/>
-      <c r="Q152" s="12"/>
-      <c r="R152" s="12"/>
-      <c r="S152" s="12"/>
       <c r="T152" s="6"/>
     </row>
     <row r="153" spans="2:20" x14ac:dyDescent="0.25">
@@ -3467,22 +3611,7 @@
       <c r="C153" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D153" s="12"/>
-      <c r="E153" s="12"/>
-      <c r="F153" s="12"/>
-      <c r="G153" s="12"/>
       <c r="H153" s="6"/>
-      <c r="I153" s="12"/>
-      <c r="J153" s="12"/>
-      <c r="K153" s="12"/>
-      <c r="L153" s="12"/>
-      <c r="M153" s="12"/>
-      <c r="N153" s="12"/>
-      <c r="O153" s="12"/>
-      <c r="P153" s="12"/>
-      <c r="Q153" s="12"/>
-      <c r="R153" s="12"/>
-      <c r="S153" s="12"/>
       <c r="T153" s="6"/>
     </row>
     <row r="154" spans="2:20" x14ac:dyDescent="0.25">
@@ -3490,22 +3619,7 @@
       <c r="C154" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D154" s="12"/>
-      <c r="E154" s="12"/>
-      <c r="F154" s="12"/>
-      <c r="G154" s="12"/>
       <c r="H154" s="6"/>
-      <c r="I154" s="12"/>
-      <c r="J154" s="12"/>
-      <c r="K154" s="12"/>
-      <c r="L154" s="12"/>
-      <c r="M154" s="12"/>
-      <c r="N154" s="12"/>
-      <c r="O154" s="12"/>
-      <c r="P154" s="12"/>
-      <c r="Q154" s="12"/>
-      <c r="R154" s="12"/>
-      <c r="S154" s="12"/>
       <c r="T154" s="6"/>
     </row>
     <row r="155" spans="2:20" x14ac:dyDescent="0.25">
@@ -3513,22 +3627,7 @@
       <c r="C155" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D155" s="12"/>
-      <c r="E155" s="12"/>
-      <c r="F155" s="12"/>
-      <c r="G155" s="12"/>
       <c r="H155" s="6"/>
-      <c r="I155" s="12"/>
-      <c r="J155" s="12"/>
-      <c r="K155" s="12"/>
-      <c r="L155" s="12"/>
-      <c r="M155" s="12"/>
-      <c r="N155" s="12"/>
-      <c r="O155" s="12"/>
-      <c r="P155" s="12"/>
-      <c r="Q155" s="12"/>
-      <c r="R155" s="12"/>
-      <c r="S155" s="12"/>
       <c r="T155" s="6"/>
     </row>
     <row r="156" spans="2:20" x14ac:dyDescent="0.25">
@@ -3536,22 +3635,7 @@
       <c r="C156" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D156" s="12"/>
-      <c r="E156" s="12"/>
-      <c r="F156" s="12"/>
-      <c r="G156" s="12"/>
       <c r="H156" s="6"/>
-      <c r="I156" s="12"/>
-      <c r="J156" s="12"/>
-      <c r="K156" s="12"/>
-      <c r="L156" s="12"/>
-      <c r="M156" s="12"/>
-      <c r="N156" s="12"/>
-      <c r="O156" s="12"/>
-      <c r="P156" s="12"/>
-      <c r="Q156" s="12"/>
-      <c r="R156" s="12"/>
-      <c r="S156" s="12"/>
       <c r="T156" s="6"/>
     </row>
     <row r="157" spans="2:20" x14ac:dyDescent="0.25">
@@ -3559,22 +3643,7 @@
       <c r="C157" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D157" s="12"/>
-      <c r="E157" s="12"/>
-      <c r="F157" s="12"/>
-      <c r="G157" s="12"/>
       <c r="H157" s="6"/>
-      <c r="I157" s="12"/>
-      <c r="J157" s="12"/>
-      <c r="K157" s="12"/>
-      <c r="L157" s="12"/>
-      <c r="M157" s="12"/>
-      <c r="N157" s="12"/>
-      <c r="O157" s="12"/>
-      <c r="P157" s="12"/>
-      <c r="Q157" s="12"/>
-      <c r="R157" s="12"/>
-      <c r="S157" s="12"/>
       <c r="T157" s="6"/>
     </row>
     <row r="158" spans="2:20" x14ac:dyDescent="0.25">
@@ -3582,22 +3651,7 @@
       <c r="C158" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D158" s="12"/>
-      <c r="E158" s="12"/>
-      <c r="F158" s="12"/>
-      <c r="G158" s="12"/>
       <c r="H158" s="6"/>
-      <c r="I158" s="12"/>
-      <c r="J158" s="12"/>
-      <c r="K158" s="12"/>
-      <c r="L158" s="12"/>
-      <c r="M158" s="12"/>
-      <c r="N158" s="12"/>
-      <c r="O158" s="12"/>
-      <c r="P158" s="12"/>
-      <c r="Q158" s="12"/>
-      <c r="R158" s="12"/>
-      <c r="S158" s="12"/>
       <c r="T158" s="6"/>
     </row>
     <row r="159" spans="2:20" x14ac:dyDescent="0.25">
@@ -3605,22 +3659,7 @@
       <c r="C159" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D159" s="12"/>
-      <c r="E159" s="12"/>
-      <c r="F159" s="12"/>
-      <c r="G159" s="12"/>
       <c r="H159" s="6"/>
-      <c r="I159" s="12"/>
-      <c r="J159" s="12"/>
-      <c r="K159" s="12"/>
-      <c r="L159" s="12"/>
-      <c r="M159" s="12"/>
-      <c r="N159" s="12"/>
-      <c r="O159" s="12"/>
-      <c r="P159" s="12"/>
-      <c r="Q159" s="12"/>
-      <c r="R159" s="12"/>
-      <c r="S159" s="12"/>
       <c r="T159" s="6"/>
     </row>
     <row r="160" spans="2:20" x14ac:dyDescent="0.25">
@@ -3631,64 +3670,19 @@
       <c r="F160" s="8"/>
       <c r="G160" s="8"/>
       <c r="H160" s="9"/>
-      <c r="I160" s="12"/>
-      <c r="J160" s="12"/>
-      <c r="K160" s="12"/>
-      <c r="L160" s="12"/>
-      <c r="M160" s="12"/>
-      <c r="N160" s="12"/>
-      <c r="O160" s="12"/>
-      <c r="P160" s="12"/>
-      <c r="Q160" s="12"/>
-      <c r="R160" s="12"/>
-      <c r="S160" s="12"/>
       <c r="T160" s="6"/>
     </row>
     <row r="161" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B161" s="5"/>
-      <c r="C161" s="12"/>
-      <c r="D161" s="12"/>
-      <c r="E161" s="12"/>
-      <c r="F161" s="12"/>
-      <c r="G161" s="12"/>
-      <c r="H161" s="12"/>
-      <c r="I161" s="12"/>
-      <c r="J161" s="12"/>
-      <c r="K161" s="12"/>
-      <c r="L161" s="12"/>
-      <c r="M161" s="12"/>
-      <c r="N161" s="12"/>
-      <c r="O161" s="12"/>
-      <c r="P161" s="12"/>
-      <c r="Q161" s="12"/>
-      <c r="R161" s="12"/>
-      <c r="S161" s="12"/>
       <c r="T161" s="6"/>
     </row>
     <row r="162" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B162" s="5"/>
-      <c r="C162" s="12"/>
-      <c r="D162" s="12"/>
-      <c r="E162" s="12"/>
-      <c r="F162" s="12"/>
-      <c r="G162" s="12"/>
-      <c r="H162" s="12"/>
-      <c r="I162" s="12"/>
-      <c r="J162" s="12"/>
-      <c r="K162" s="12"/>
-      <c r="L162" s="12"/>
-      <c r="M162" s="12"/>
-      <c r="N162" s="12"/>
-      <c r="O162" s="12"/>
-      <c r="P162" s="12"/>
-      <c r="Q162" s="12"/>
-      <c r="R162" s="12"/>
-      <c r="S162" s="12"/>
       <c r="T162" s="6"/>
     </row>
     <row r="163" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B163" s="5"/>
-      <c r="C163" s="13" t="s">
+      <c r="C163" s="12" t="s">
         <v>271</v>
       </c>
       <c r="D163" s="3"/>
@@ -3712,651 +3706,186 @@
     <row r="164" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
-      <c r="D164" s="12"/>
-      <c r="E164" s="12"/>
-      <c r="F164" s="12"/>
-      <c r="G164" s="12"/>
-      <c r="H164" s="12"/>
-      <c r="I164" s="12"/>
-      <c r="J164" s="12"/>
-      <c r="K164" s="12"/>
-      <c r="L164" s="12"/>
-      <c r="M164" s="12"/>
-      <c r="N164" s="12"/>
-      <c r="O164" s="12"/>
-      <c r="P164" s="12"/>
-      <c r="Q164" s="12"/>
-      <c r="R164" s="12"/>
       <c r="S164" s="6"/>
       <c r="T164" s="6"/>
     </row>
     <row r="165" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
-      <c r="D165" s="12"/>
-      <c r="E165" s="12"/>
-      <c r="F165" s="12"/>
-      <c r="G165" s="12"/>
-      <c r="H165" s="12"/>
-      <c r="I165" s="12"/>
-      <c r="J165" s="12"/>
-      <c r="K165" s="12"/>
-      <c r="L165" s="12"/>
-      <c r="M165" s="12"/>
-      <c r="N165" s="12"/>
-      <c r="O165" s="12"/>
-      <c r="P165" s="12"/>
-      <c r="Q165" s="12"/>
-      <c r="R165" s="12"/>
       <c r="S165" s="6"/>
       <c r="T165" s="6"/>
     </row>
     <row r="166" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
-      <c r="D166" s="12"/>
-      <c r="E166" s="12"/>
-      <c r="F166" s="12"/>
-      <c r="G166" s="12"/>
-      <c r="H166" s="12"/>
-      <c r="I166" s="12"/>
-      <c r="J166" s="12"/>
-      <c r="K166" s="12"/>
-      <c r="L166" s="12"/>
-      <c r="M166" s="12"/>
-      <c r="N166" s="12"/>
-      <c r="O166" s="12"/>
-      <c r="P166" s="12"/>
-      <c r="Q166" s="12"/>
-      <c r="R166" s="12"/>
       <c r="S166" s="6"/>
       <c r="T166" s="6"/>
     </row>
     <row r="167" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
-      <c r="D167" s="12"/>
-      <c r="E167" s="12"/>
-      <c r="F167" s="12"/>
-      <c r="G167" s="12"/>
-      <c r="H167" s="12"/>
-      <c r="I167" s="12"/>
-      <c r="J167" s="12"/>
-      <c r="K167" s="12"/>
-      <c r="L167" s="12"/>
-      <c r="M167" s="12"/>
-      <c r="N167" s="12"/>
-      <c r="O167" s="12"/>
-      <c r="P167" s="12"/>
-      <c r="Q167" s="12"/>
-      <c r="R167" s="12"/>
       <c r="S167" s="6"/>
       <c r="T167" s="6"/>
     </row>
     <row r="168" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
-      <c r="D168" s="12"/>
-      <c r="E168" s="12"/>
-      <c r="F168" s="12"/>
-      <c r="G168" s="12"/>
-      <c r="H168" s="12"/>
-      <c r="I168" s="12"/>
-      <c r="J168" s="12"/>
-      <c r="K168" s="12"/>
-      <c r="L168" s="12"/>
-      <c r="M168" s="12"/>
-      <c r="N168" s="12"/>
-      <c r="O168" s="12"/>
-      <c r="P168" s="12"/>
-      <c r="Q168" s="12"/>
-      <c r="R168" s="12"/>
       <c r="S168" s="6"/>
       <c r="T168" s="6"/>
     </row>
     <row r="169" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
-      <c r="D169" s="12"/>
-      <c r="E169" s="12"/>
-      <c r="F169" s="12"/>
-      <c r="G169" s="12"/>
-      <c r="H169" s="12"/>
-      <c r="I169" s="12"/>
-      <c r="J169" s="12"/>
-      <c r="K169" s="12"/>
-      <c r="L169" s="12"/>
-      <c r="M169" s="12"/>
-      <c r="N169" s="12"/>
-      <c r="O169" s="12"/>
-      <c r="P169" s="12"/>
-      <c r="Q169" s="12"/>
-      <c r="R169" s="12"/>
       <c r="S169" s="6"/>
       <c r="T169" s="6"/>
     </row>
     <row r="170" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
-      <c r="D170" s="12"/>
-      <c r="E170" s="12"/>
-      <c r="F170" s="12"/>
-      <c r="G170" s="12"/>
-      <c r="H170" s="12"/>
-      <c r="I170" s="12"/>
-      <c r="J170" s="12"/>
-      <c r="K170" s="12"/>
-      <c r="L170" s="12"/>
-      <c r="M170" s="12"/>
-      <c r="N170" s="12"/>
-      <c r="O170" s="12"/>
-      <c r="P170" s="12"/>
-      <c r="Q170" s="12"/>
-      <c r="R170" s="12"/>
       <c r="S170" s="6"/>
       <c r="T170" s="6"/>
     </row>
     <row r="171" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
-      <c r="D171" s="12"/>
-      <c r="E171" s="12"/>
-      <c r="F171" s="12"/>
-      <c r="G171" s="12"/>
-      <c r="H171" s="12"/>
-      <c r="I171" s="12"/>
-      <c r="J171" s="12"/>
-      <c r="K171" s="12"/>
-      <c r="L171" s="12"/>
-      <c r="M171" s="12"/>
-      <c r="N171" s="12"/>
-      <c r="O171" s="12"/>
-      <c r="P171" s="12"/>
-      <c r="Q171" s="12"/>
-      <c r="R171" s="12"/>
       <c r="S171" s="6"/>
       <c r="T171" s="6"/>
     </row>
     <row r="172" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
-      <c r="D172" s="12"/>
-      <c r="E172" s="12"/>
-      <c r="F172" s="12"/>
-      <c r="G172" s="12"/>
-      <c r="H172" s="12"/>
-      <c r="I172" s="12"/>
-      <c r="J172" s="12"/>
-      <c r="K172" s="12"/>
-      <c r="L172" s="12"/>
-      <c r="M172" s="12"/>
-      <c r="N172" s="12"/>
-      <c r="O172" s="12"/>
-      <c r="P172" s="12"/>
-      <c r="Q172" s="12"/>
-      <c r="R172" s="12"/>
       <c r="S172" s="6"/>
       <c r="T172" s="6"/>
     </row>
     <row r="173" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
-      <c r="D173" s="12"/>
-      <c r="E173" s="12"/>
-      <c r="F173" s="12"/>
-      <c r="G173" s="12"/>
-      <c r="H173" s="12"/>
-      <c r="I173" s="12"/>
-      <c r="J173" s="12"/>
-      <c r="K173" s="12"/>
-      <c r="L173" s="12"/>
-      <c r="M173" s="12"/>
-      <c r="N173" s="12"/>
-      <c r="O173" s="12"/>
-      <c r="P173" s="12"/>
-      <c r="Q173" s="12"/>
-      <c r="R173" s="12"/>
       <c r="S173" s="6"/>
       <c r="T173" s="6"/>
     </row>
     <row r="174" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
-      <c r="D174" s="12"/>
-      <c r="E174" s="12"/>
-      <c r="F174" s="12"/>
-      <c r="G174" s="12"/>
-      <c r="H174" s="12"/>
-      <c r="I174" s="12"/>
-      <c r="J174" s="12"/>
-      <c r="K174" s="12"/>
-      <c r="L174" s="12"/>
-      <c r="M174" s="12"/>
-      <c r="N174" s="12"/>
-      <c r="O174" s="12"/>
-      <c r="P174" s="12"/>
-      <c r="Q174" s="12"/>
-      <c r="R174" s="12"/>
       <c r="S174" s="6"/>
       <c r="T174" s="6"/>
     </row>
     <row r="175" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
-      <c r="D175" s="12"/>
-      <c r="E175" s="12"/>
-      <c r="F175" s="12"/>
-      <c r="G175" s="12"/>
-      <c r="H175" s="12"/>
-      <c r="I175" s="12"/>
-      <c r="J175" s="12"/>
-      <c r="K175" s="12"/>
-      <c r="L175" s="12"/>
-      <c r="M175" s="12"/>
-      <c r="N175" s="12"/>
-      <c r="O175" s="12"/>
-      <c r="P175" s="12"/>
-      <c r="Q175" s="12"/>
-      <c r="R175" s="12"/>
       <c r="S175" s="6"/>
       <c r="T175" s="6"/>
     </row>
     <row r="176" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
-      <c r="D176" s="12"/>
-      <c r="E176" s="12"/>
-      <c r="F176" s="12"/>
-      <c r="G176" s="12"/>
-      <c r="H176" s="12"/>
-      <c r="I176" s="12"/>
-      <c r="J176" s="12"/>
-      <c r="K176" s="12"/>
-      <c r="L176" s="12"/>
-      <c r="M176" s="12"/>
-      <c r="N176" s="12"/>
-      <c r="O176" s="12"/>
-      <c r="P176" s="12"/>
-      <c r="Q176" s="12"/>
-      <c r="R176" s="12"/>
       <c r="S176" s="6"/>
       <c r="T176" s="6"/>
     </row>
     <row r="177" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
-      <c r="D177" s="12"/>
-      <c r="E177" s="12"/>
-      <c r="F177" s="12"/>
-      <c r="G177" s="12"/>
-      <c r="H177" s="12"/>
-      <c r="I177" s="12"/>
-      <c r="J177" s="12"/>
-      <c r="K177" s="12"/>
-      <c r="L177" s="12"/>
-      <c r="M177" s="12"/>
-      <c r="N177" s="12"/>
-      <c r="O177" s="12"/>
-      <c r="P177" s="12"/>
-      <c r="Q177" s="12"/>
-      <c r="R177" s="12"/>
       <c r="S177" s="6"/>
       <c r="T177" s="6"/>
     </row>
     <row r="178" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
-      <c r="D178" s="12"/>
-      <c r="E178" s="12"/>
-      <c r="F178" s="12"/>
-      <c r="G178" s="12"/>
-      <c r="H178" s="12"/>
-      <c r="I178" s="12"/>
-      <c r="J178" s="12"/>
-      <c r="K178" s="12"/>
-      <c r="L178" s="12"/>
-      <c r="M178" s="12"/>
-      <c r="N178" s="12"/>
-      <c r="O178" s="12"/>
-      <c r="P178" s="12"/>
-      <c r="Q178" s="12"/>
-      <c r="R178" s="12"/>
       <c r="S178" s="6"/>
       <c r="T178" s="6"/>
     </row>
     <row r="179" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
-      <c r="D179" s="12"/>
-      <c r="E179" s="12"/>
-      <c r="F179" s="12"/>
-      <c r="G179" s="12"/>
-      <c r="H179" s="12"/>
-      <c r="I179" s="12"/>
-      <c r="J179" s="12"/>
-      <c r="K179" s="12"/>
-      <c r="L179" s="12"/>
-      <c r="M179" s="12"/>
-      <c r="N179" s="12"/>
-      <c r="O179" s="12"/>
-      <c r="P179" s="12"/>
-      <c r="Q179" s="12"/>
-      <c r="R179" s="12"/>
       <c r="S179" s="6"/>
       <c r="T179" s="6"/>
     </row>
     <row r="180" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
-      <c r="D180" s="12"/>
-      <c r="E180" s="12"/>
-      <c r="F180" s="12"/>
-      <c r="G180" s="12"/>
-      <c r="H180" s="12"/>
-      <c r="I180" s="12"/>
-      <c r="J180" s="12"/>
-      <c r="K180" s="12"/>
-      <c r="L180" s="12"/>
-      <c r="M180" s="12"/>
-      <c r="N180" s="12"/>
-      <c r="O180" s="12"/>
-      <c r="P180" s="12"/>
-      <c r="Q180" s="12"/>
-      <c r="R180" s="12"/>
       <c r="S180" s="6"/>
       <c r="T180" s="6"/>
     </row>
     <row r="181" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
-      <c r="D181" s="12"/>
-      <c r="E181" s="12"/>
-      <c r="F181" s="12"/>
-      <c r="G181" s="12"/>
-      <c r="H181" s="12"/>
-      <c r="I181" s="12"/>
-      <c r="J181" s="12"/>
-      <c r="K181" s="12"/>
-      <c r="L181" s="12"/>
-      <c r="M181" s="12"/>
-      <c r="N181" s="12"/>
-      <c r="O181" s="12"/>
-      <c r="P181" s="12"/>
-      <c r="Q181" s="12"/>
-      <c r="R181" s="12"/>
       <c r="S181" s="6"/>
       <c r="T181" s="6"/>
     </row>
     <row r="182" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
-      <c r="D182" s="12"/>
-      <c r="E182" s="12"/>
-      <c r="F182" s="12"/>
-      <c r="G182" s="12"/>
-      <c r="H182" s="12"/>
-      <c r="I182" s="12"/>
-      <c r="J182" s="12"/>
-      <c r="K182" s="12"/>
-      <c r="L182" s="12"/>
-      <c r="M182" s="12"/>
-      <c r="N182" s="12"/>
-      <c r="O182" s="12"/>
-      <c r="P182" s="12"/>
-      <c r="Q182" s="12"/>
-      <c r="R182" s="12"/>
       <c r="S182" s="6"/>
       <c r="T182" s="6"/>
     </row>
     <row r="183" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
-      <c r="D183" s="12"/>
-      <c r="E183" s="12"/>
-      <c r="F183" s="12"/>
-      <c r="G183" s="12"/>
-      <c r="H183" s="12"/>
-      <c r="I183" s="12"/>
-      <c r="J183" s="12"/>
-      <c r="K183" s="12"/>
-      <c r="L183" s="12"/>
-      <c r="M183" s="12"/>
-      <c r="N183" s="12"/>
-      <c r="O183" s="12"/>
-      <c r="P183" s="12"/>
-      <c r="Q183" s="12"/>
-      <c r="R183" s="12"/>
       <c r="S183" s="6"/>
       <c r="T183" s="6"/>
     </row>
     <row r="184" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
-      <c r="D184" s="12"/>
-      <c r="E184" s="12"/>
-      <c r="F184" s="12"/>
-      <c r="G184" s="12"/>
-      <c r="H184" s="12"/>
-      <c r="I184" s="12"/>
-      <c r="J184" s="12"/>
-      <c r="K184" s="12"/>
-      <c r="L184" s="12"/>
-      <c r="M184" s="12"/>
-      <c r="N184" s="12"/>
-      <c r="O184" s="12"/>
-      <c r="P184" s="12"/>
-      <c r="Q184" s="12"/>
-      <c r="R184" s="12"/>
       <c r="S184" s="6"/>
       <c r="T184" s="6"/>
     </row>
     <row r="185" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
-      <c r="D185" s="12"/>
-      <c r="E185" s="12"/>
-      <c r="F185" s="12"/>
-      <c r="G185" s="12"/>
-      <c r="H185" s="12"/>
-      <c r="I185" s="12"/>
-      <c r="J185" s="12"/>
-      <c r="K185" s="12"/>
-      <c r="L185" s="12"/>
-      <c r="M185" s="12"/>
-      <c r="N185" s="12"/>
-      <c r="O185" s="12"/>
-      <c r="P185" s="12"/>
-      <c r="Q185" s="12"/>
-      <c r="R185" s="12"/>
       <c r="S185" s="6"/>
       <c r="T185" s="6"/>
     </row>
     <row r="186" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
-      <c r="D186" s="12"/>
-      <c r="E186" s="12"/>
-      <c r="F186" s="12"/>
-      <c r="G186" s="12"/>
-      <c r="H186" s="12"/>
-      <c r="I186" s="12"/>
-      <c r="J186" s="12"/>
-      <c r="K186" s="12"/>
-      <c r="L186" s="12"/>
-      <c r="M186" s="12"/>
-      <c r="N186" s="12"/>
-      <c r="O186" s="12"/>
-      <c r="P186" s="12"/>
-      <c r="Q186" s="12"/>
-      <c r="R186" s="12"/>
       <c r="S186" s="6"/>
       <c r="T186" s="6"/>
     </row>
     <row r="187" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
-      <c r="D187" s="12"/>
-      <c r="E187" s="12"/>
-      <c r="F187" s="12"/>
-      <c r="G187" s="12"/>
-      <c r="H187" s="12"/>
-      <c r="I187" s="12"/>
-      <c r="J187" s="12"/>
-      <c r="K187" s="12"/>
-      <c r="L187" s="12"/>
-      <c r="M187" s="12"/>
-      <c r="N187" s="12"/>
-      <c r="O187" s="12"/>
-      <c r="P187" s="12"/>
-      <c r="Q187" s="12"/>
-      <c r="R187" s="12"/>
       <c r="S187" s="6"/>
       <c r="T187" s="6"/>
     </row>
     <row r="188" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
-      <c r="D188" s="12"/>
-      <c r="E188" s="12"/>
-      <c r="F188" s="12"/>
-      <c r="G188" s="12"/>
-      <c r="H188" s="12"/>
-      <c r="I188" s="12"/>
-      <c r="J188" s="12"/>
-      <c r="K188" s="12"/>
-      <c r="L188" s="12"/>
-      <c r="M188" s="12"/>
-      <c r="N188" s="12"/>
-      <c r="O188" s="12"/>
-      <c r="P188" s="12"/>
-      <c r="Q188" s="12"/>
-      <c r="R188" s="12"/>
       <c r="S188" s="6"/>
       <c r="T188" s="6"/>
     </row>
     <row r="189" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
-      <c r="D189" s="12"/>
-      <c r="E189" s="12"/>
-      <c r="F189" s="12"/>
-      <c r="G189" s="12"/>
-      <c r="H189" s="12"/>
-      <c r="I189" s="12"/>
-      <c r="J189" s="12"/>
-      <c r="K189" s="12"/>
-      <c r="L189" s="12"/>
-      <c r="M189" s="12"/>
-      <c r="N189" s="12"/>
-      <c r="O189" s="12"/>
-      <c r="P189" s="12"/>
-      <c r="Q189" s="12"/>
-      <c r="R189" s="12"/>
       <c r="S189" s="6"/>
       <c r="T189" s="6"/>
     </row>
     <row r="190" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
-      <c r="D190" s="12"/>
-      <c r="E190" s="12"/>
-      <c r="F190" s="12"/>
-      <c r="G190" s="12"/>
-      <c r="H190" s="12"/>
-      <c r="I190" s="12"/>
-      <c r="J190" s="12"/>
-      <c r="K190" s="12"/>
-      <c r="L190" s="12"/>
-      <c r="M190" s="12"/>
-      <c r="N190" s="12"/>
-      <c r="O190" s="12"/>
-      <c r="P190" s="12"/>
-      <c r="Q190" s="12"/>
-      <c r="R190" s="12"/>
       <c r="S190" s="6"/>
       <c r="T190" s="6"/>
     </row>
     <row r="191" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
-      <c r="D191" s="12"/>
-      <c r="E191" s="12"/>
-      <c r="F191" s="12"/>
-      <c r="G191" s="12"/>
-      <c r="H191" s="12"/>
-      <c r="I191" s="12"/>
-      <c r="J191" s="12"/>
-      <c r="K191" s="12"/>
-      <c r="L191" s="12"/>
-      <c r="M191" s="12"/>
-      <c r="N191" s="12"/>
-      <c r="O191" s="12"/>
-      <c r="P191" s="12"/>
-      <c r="Q191" s="12"/>
-      <c r="R191" s="12"/>
       <c r="S191" s="6"/>
       <c r="T191" s="6"/>
     </row>
     <row r="192" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
-      <c r="D192" s="12"/>
-      <c r="E192" s="12"/>
-      <c r="F192" s="12"/>
-      <c r="G192" s="12"/>
-      <c r="H192" s="12"/>
-      <c r="I192" s="12"/>
-      <c r="J192" s="12"/>
-      <c r="K192" s="12"/>
-      <c r="L192" s="12"/>
-      <c r="M192" s="12"/>
-      <c r="N192" s="12"/>
-      <c r="O192" s="12"/>
-      <c r="P192" s="12"/>
-      <c r="Q192" s="12"/>
-      <c r="R192" s="12"/>
       <c r="S192" s="6"/>
       <c r="T192" s="6"/>
     </row>
     <row r="193" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
-      <c r="D193" s="12"/>
-      <c r="E193" s="12"/>
-      <c r="F193" s="12"/>
-      <c r="G193" s="12"/>
-      <c r="H193" s="12"/>
-      <c r="I193" s="12"/>
-      <c r="J193" s="12"/>
-      <c r="K193" s="12"/>
-      <c r="L193" s="12"/>
-      <c r="M193" s="12"/>
-      <c r="N193" s="12"/>
-      <c r="O193" s="12"/>
-      <c r="P193" s="12"/>
-      <c r="Q193" s="12"/>
-      <c r="R193" s="12"/>
       <c r="S193" s="6"/>
       <c r="T193" s="6"/>
     </row>
     <row r="194" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
-      <c r="D194" s="12"/>
-      <c r="E194" s="12"/>
-      <c r="F194" s="12"/>
-      <c r="G194" s="12"/>
-      <c r="H194" s="12"/>
-      <c r="I194" s="12"/>
-      <c r="J194" s="12"/>
-      <c r="K194" s="12"/>
-      <c r="L194" s="12"/>
-      <c r="M194" s="12"/>
-      <c r="N194" s="12"/>
-      <c r="O194" s="12"/>
-      <c r="P194" s="12"/>
-      <c r="Q194" s="12"/>
-      <c r="R194" s="12"/>
       <c r="S194" s="6"/>
       <c r="T194" s="6"/>
     </row>
@@ -4372,14 +3901,6 @@
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
       <c r="J195" s="4"/>
-      <c r="K195" s="12"/>
-      <c r="L195" s="12"/>
-      <c r="M195" s="12"/>
-      <c r="N195" s="12"/>
-      <c r="O195" s="12"/>
-      <c r="P195" s="12"/>
-      <c r="Q195" s="12"/>
-      <c r="R195" s="12"/>
       <c r="S195" s="6"/>
       <c r="T195" s="6"/>
     </row>
@@ -4389,20 +3910,7 @@
       <c r="D196" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E196" s="12"/>
-      <c r="F196" s="12"/>
-      <c r="G196" s="12"/>
-      <c r="H196" s="12"/>
-      <c r="I196" s="12"/>
       <c r="J196" s="6"/>
-      <c r="K196" s="12"/>
-      <c r="L196" s="12"/>
-      <c r="M196" s="12"/>
-      <c r="N196" s="12"/>
-      <c r="O196" s="12"/>
-      <c r="P196" s="12"/>
-      <c r="Q196" s="12"/>
-      <c r="R196" s="12"/>
       <c r="S196" s="6"/>
       <c r="T196" s="6"/>
     </row>
@@ -4412,20 +3920,7 @@
       <c r="D197" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E197" s="12"/>
-      <c r="F197" s="12"/>
-      <c r="G197" s="12"/>
-      <c r="H197" s="12"/>
-      <c r="I197" s="12"/>
       <c r="J197" s="6"/>
-      <c r="K197" s="12"/>
-      <c r="L197" s="12"/>
-      <c r="M197" s="12"/>
-      <c r="N197" s="12"/>
-      <c r="O197" s="12"/>
-      <c r="P197" s="12"/>
-      <c r="Q197" s="12"/>
-      <c r="R197" s="12"/>
       <c r="S197" s="6"/>
       <c r="T197" s="6"/>
     </row>
@@ -4435,20 +3930,7 @@
       <c r="D198" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E198" s="12"/>
-      <c r="F198" s="12"/>
-      <c r="G198" s="12"/>
-      <c r="H198" s="12"/>
-      <c r="I198" s="12"/>
       <c r="J198" s="6"/>
-      <c r="K198" s="12"/>
-      <c r="L198" s="12"/>
-      <c r="M198" s="12"/>
-      <c r="N198" s="12"/>
-      <c r="O198" s="12"/>
-      <c r="P198" s="12"/>
-      <c r="Q198" s="12"/>
-      <c r="R198" s="12"/>
       <c r="S198" s="6"/>
       <c r="T198" s="6"/>
     </row>
@@ -4458,20 +3940,7 @@
       <c r="D199" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E199" s="12"/>
-      <c r="F199" s="12"/>
-      <c r="G199" s="12"/>
-      <c r="H199" s="12"/>
-      <c r="I199" s="12"/>
       <c r="J199" s="6"/>
-      <c r="K199" s="12"/>
-      <c r="L199" s="12"/>
-      <c r="M199" s="12"/>
-      <c r="N199" s="12"/>
-      <c r="O199" s="12"/>
-      <c r="P199" s="12"/>
-      <c r="Q199" s="12"/>
-      <c r="R199" s="12"/>
       <c r="S199" s="6"/>
       <c r="T199" s="6"/>
     </row>
@@ -4481,20 +3950,7 @@
       <c r="D200" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E200" s="12"/>
-      <c r="F200" s="12"/>
-      <c r="G200" s="12"/>
-      <c r="H200" s="12"/>
-      <c r="I200" s="12"/>
       <c r="J200" s="6"/>
-      <c r="K200" s="12"/>
-      <c r="L200" s="12"/>
-      <c r="M200" s="12"/>
-      <c r="N200" s="12"/>
-      <c r="O200" s="12"/>
-      <c r="P200" s="12"/>
-      <c r="Q200" s="12"/>
-      <c r="R200" s="12"/>
       <c r="S200" s="6"/>
       <c r="T200" s="6"/>
     </row>
@@ -4504,20 +3960,7 @@
       <c r="D201" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E201" s="12"/>
-      <c r="F201" s="12"/>
-      <c r="G201" s="12"/>
-      <c r="H201" s="12"/>
-      <c r="I201" s="12"/>
       <c r="J201" s="6"/>
-      <c r="K201" s="12"/>
-      <c r="L201" s="12"/>
-      <c r="M201" s="12"/>
-      <c r="N201" s="12"/>
-      <c r="O201" s="12"/>
-      <c r="P201" s="12"/>
-      <c r="Q201" s="12"/>
-      <c r="R201" s="12"/>
       <c r="S201" s="6"/>
       <c r="T201" s="6"/>
     </row>
@@ -4527,20 +3970,7 @@
       <c r="D202" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E202" s="12"/>
-      <c r="F202" s="12"/>
-      <c r="G202" s="12"/>
-      <c r="H202" s="12"/>
-      <c r="I202" s="12"/>
       <c r="J202" s="6"/>
-      <c r="K202" s="12"/>
-      <c r="L202" s="12"/>
-      <c r="M202" s="12"/>
-      <c r="N202" s="12"/>
-      <c r="O202" s="12"/>
-      <c r="P202" s="12"/>
-      <c r="Q202" s="12"/>
-      <c r="R202" s="12"/>
       <c r="S202" s="6"/>
       <c r="T202" s="6"/>
     </row>
@@ -4550,20 +3980,7 @@
       <c r="D203" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E203" s="12"/>
-      <c r="F203" s="12"/>
-      <c r="G203" s="12"/>
-      <c r="H203" s="12"/>
-      <c r="I203" s="12"/>
       <c r="J203" s="6"/>
-      <c r="K203" s="12"/>
-      <c r="L203" s="12"/>
-      <c r="M203" s="12"/>
-      <c r="N203" s="12"/>
-      <c r="O203" s="12"/>
-      <c r="P203" s="12"/>
-      <c r="Q203" s="12"/>
-      <c r="R203" s="12"/>
       <c r="S203" s="6"/>
       <c r="T203" s="6"/>
     </row>
@@ -4573,20 +3990,7 @@
       <c r="D204" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E204" s="12"/>
-      <c r="F204" s="12"/>
-      <c r="G204" s="12"/>
-      <c r="H204" s="12"/>
-      <c r="I204" s="12"/>
       <c r="J204" s="6"/>
-      <c r="K204" s="12"/>
-      <c r="L204" s="12"/>
-      <c r="M204" s="12"/>
-      <c r="N204" s="12"/>
-      <c r="O204" s="12"/>
-      <c r="P204" s="12"/>
-      <c r="Q204" s="12"/>
-      <c r="R204" s="12"/>
       <c r="S204" s="6"/>
       <c r="T204" s="6"/>
     </row>
@@ -4596,20 +4000,7 @@
       <c r="D205" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E205" s="12"/>
-      <c r="F205" s="12"/>
-      <c r="G205" s="12"/>
-      <c r="H205" s="12"/>
-      <c r="I205" s="12"/>
       <c r="J205" s="6"/>
-      <c r="K205" s="12"/>
-      <c r="L205" s="12"/>
-      <c r="M205" s="12"/>
-      <c r="N205" s="12"/>
-      <c r="O205" s="12"/>
-      <c r="P205" s="12"/>
-      <c r="Q205" s="12"/>
-      <c r="R205" s="12"/>
       <c r="S205" s="6"/>
       <c r="T205" s="6"/>
     </row>
@@ -4619,20 +4010,7 @@
       <c r="D206" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E206" s="12"/>
-      <c r="F206" s="12"/>
-      <c r="G206" s="12"/>
-      <c r="H206" s="12"/>
-      <c r="I206" s="12"/>
       <c r="J206" s="6"/>
-      <c r="K206" s="12"/>
-      <c r="L206" s="12"/>
-      <c r="M206" s="12"/>
-      <c r="N206" s="12"/>
-      <c r="O206" s="12"/>
-      <c r="P206" s="12"/>
-      <c r="Q206" s="12"/>
-      <c r="R206" s="12"/>
       <c r="S206" s="6"/>
       <c r="T206" s="6"/>
     </row>
@@ -4642,20 +4020,7 @@
       <c r="D207" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E207" s="12"/>
-      <c r="F207" s="12"/>
-      <c r="G207" s="12"/>
-      <c r="H207" s="12"/>
-      <c r="I207" s="12"/>
       <c r="J207" s="6"/>
-      <c r="K207" s="12"/>
-      <c r="L207" s="12"/>
-      <c r="M207" s="12"/>
-      <c r="N207" s="12"/>
-      <c r="O207" s="12"/>
-      <c r="P207" s="12"/>
-      <c r="Q207" s="12"/>
-      <c r="R207" s="12"/>
       <c r="S207" s="6"/>
       <c r="T207" s="6"/>
     </row>
@@ -4665,20 +4030,7 @@
       <c r="D208" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E208" s="12"/>
-      <c r="F208" s="12"/>
-      <c r="G208" s="12"/>
-      <c r="H208" s="12"/>
-      <c r="I208" s="12"/>
       <c r="J208" s="6"/>
-      <c r="K208" s="12"/>
-      <c r="L208" s="12"/>
-      <c r="M208" s="12"/>
-      <c r="N208" s="12"/>
-      <c r="O208" s="12"/>
-      <c r="P208" s="12"/>
-      <c r="Q208" s="12"/>
-      <c r="R208" s="12"/>
       <c r="S208" s="6"/>
       <c r="T208" s="6"/>
     </row>
@@ -4688,20 +4040,7 @@
       <c r="D209" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E209" s="12"/>
-      <c r="F209" s="12"/>
-      <c r="G209" s="12"/>
-      <c r="H209" s="12"/>
-      <c r="I209" s="12"/>
       <c r="J209" s="6"/>
-      <c r="K209" s="12"/>
-      <c r="L209" s="12"/>
-      <c r="M209" s="12"/>
-      <c r="N209" s="12"/>
-      <c r="O209" s="12"/>
-      <c r="P209" s="12"/>
-      <c r="Q209" s="12"/>
-      <c r="R209" s="12"/>
       <c r="S209" s="6"/>
       <c r="T209" s="6"/>
     </row>
@@ -4711,20 +4050,7 @@
       <c r="D210" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E210" s="12"/>
-      <c r="F210" s="12"/>
-      <c r="G210" s="12"/>
-      <c r="H210" s="12"/>
-      <c r="I210" s="12"/>
       <c r="J210" s="6"/>
-      <c r="K210" s="12"/>
-      <c r="L210" s="12"/>
-      <c r="M210" s="12"/>
-      <c r="N210" s="12"/>
-      <c r="O210" s="12"/>
-      <c r="P210" s="12"/>
-      <c r="Q210" s="12"/>
-      <c r="R210" s="12"/>
       <c r="S210" s="6"/>
       <c r="T210" s="6"/>
     </row>
@@ -4734,20 +4060,7 @@
       <c r="D211" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E211" s="12"/>
-      <c r="F211" s="12"/>
-      <c r="G211" s="12"/>
-      <c r="H211" s="12"/>
-      <c r="I211" s="12"/>
       <c r="J211" s="6"/>
-      <c r="K211" s="12"/>
-      <c r="L211" s="12"/>
-      <c r="M211" s="12"/>
-      <c r="N211" s="12"/>
-      <c r="O211" s="12"/>
-      <c r="P211" s="12"/>
-      <c r="Q211" s="12"/>
-      <c r="R211" s="12"/>
       <c r="S211" s="6"/>
       <c r="T211" s="6"/>
     </row>
@@ -4757,20 +4070,7 @@
       <c r="D212" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E212" s="12"/>
-      <c r="F212" s="12"/>
-      <c r="G212" s="12"/>
-      <c r="H212" s="12"/>
-      <c r="I212" s="12"/>
       <c r="J212" s="6"/>
-      <c r="K212" s="12"/>
-      <c r="L212" s="12"/>
-      <c r="M212" s="12"/>
-      <c r="N212" s="12"/>
-      <c r="O212" s="12"/>
-      <c r="P212" s="12"/>
-      <c r="Q212" s="12"/>
-      <c r="R212" s="12"/>
       <c r="S212" s="6"/>
       <c r="T212" s="6"/>
     </row>
@@ -4780,20 +4080,7 @@
       <c r="D213" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E213" s="12"/>
-      <c r="F213" s="12"/>
-      <c r="G213" s="12"/>
-      <c r="H213" s="12"/>
-      <c r="I213" s="12"/>
       <c r="J213" s="6"/>
-      <c r="K213" s="12"/>
-      <c r="L213" s="12"/>
-      <c r="M213" s="12"/>
-      <c r="N213" s="12"/>
-      <c r="O213" s="12"/>
-      <c r="P213" s="12"/>
-      <c r="Q213" s="12"/>
-      <c r="R213" s="12"/>
       <c r="S213" s="6"/>
       <c r="T213" s="6"/>
     </row>
@@ -4803,20 +4090,7 @@
       <c r="D214" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E214" s="12"/>
-      <c r="F214" s="12"/>
-      <c r="G214" s="12"/>
-      <c r="H214" s="12"/>
-      <c r="I214" s="12"/>
       <c r="J214" s="6"/>
-      <c r="K214" s="12"/>
-      <c r="L214" s="12"/>
-      <c r="M214" s="12"/>
-      <c r="N214" s="12"/>
-      <c r="O214" s="12"/>
-      <c r="P214" s="12"/>
-      <c r="Q214" s="12"/>
-      <c r="R214" s="12"/>
       <c r="S214" s="6"/>
       <c r="T214" s="6"/>
     </row>
@@ -4826,20 +4100,7 @@
       <c r="D215" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E215" s="12"/>
-      <c r="F215" s="12"/>
-      <c r="G215" s="12"/>
-      <c r="H215" s="12"/>
-      <c r="I215" s="12"/>
       <c r="J215" s="6"/>
-      <c r="K215" s="12"/>
-      <c r="L215" s="12"/>
-      <c r="M215" s="12"/>
-      <c r="N215" s="12"/>
-      <c r="O215" s="12"/>
-      <c r="P215" s="12"/>
-      <c r="Q215" s="12"/>
-      <c r="R215" s="12"/>
       <c r="S215" s="6"/>
       <c r="T215" s="6"/>
     </row>
@@ -4849,20 +4110,7 @@
       <c r="D216" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E216" s="12"/>
-      <c r="F216" s="12"/>
-      <c r="G216" s="12"/>
-      <c r="H216" s="12"/>
-      <c r="I216" s="12"/>
       <c r="J216" s="6"/>
-      <c r="K216" s="12"/>
-      <c r="L216" s="12"/>
-      <c r="M216" s="12"/>
-      <c r="N216" s="12"/>
-      <c r="O216" s="12"/>
-      <c r="P216" s="12"/>
-      <c r="Q216" s="12"/>
-      <c r="R216" s="12"/>
       <c r="S216" s="6"/>
       <c r="T216" s="6"/>
     </row>
@@ -4872,20 +4120,7 @@
       <c r="D217" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E217" s="12"/>
-      <c r="F217" s="12"/>
-      <c r="G217" s="12"/>
-      <c r="H217" s="12"/>
-      <c r="I217" s="12"/>
       <c r="J217" s="6"/>
-      <c r="K217" s="12"/>
-      <c r="L217" s="12"/>
-      <c r="M217" s="12"/>
-      <c r="N217" s="12"/>
-      <c r="O217" s="12"/>
-      <c r="P217" s="12"/>
-      <c r="Q217" s="12"/>
-      <c r="R217" s="12"/>
       <c r="S217" s="6"/>
       <c r="T217" s="6"/>
     </row>
@@ -4895,20 +4130,7 @@
       <c r="D218" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E218" s="12"/>
-      <c r="F218" s="12"/>
-      <c r="G218" s="12"/>
-      <c r="H218" s="12"/>
-      <c r="I218" s="12"/>
       <c r="J218" s="6"/>
-      <c r="K218" s="12"/>
-      <c r="L218" s="12"/>
-      <c r="M218" s="12"/>
-      <c r="N218" s="12"/>
-      <c r="O218" s="12"/>
-      <c r="P218" s="12"/>
-      <c r="Q218" s="12"/>
-      <c r="R218" s="12"/>
       <c r="S218" s="6"/>
       <c r="T218" s="6"/>
     </row>
@@ -4918,20 +4140,7 @@
       <c r="D219" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E219" s="12"/>
-      <c r="F219" s="12"/>
-      <c r="G219" s="12"/>
-      <c r="H219" s="12"/>
-      <c r="I219" s="12"/>
       <c r="J219" s="6"/>
-      <c r="K219" s="12"/>
-      <c r="L219" s="12"/>
-      <c r="M219" s="12"/>
-      <c r="N219" s="12"/>
-      <c r="O219" s="12"/>
-      <c r="P219" s="12"/>
-      <c r="Q219" s="12"/>
-      <c r="R219" s="12"/>
       <c r="S219" s="6"/>
       <c r="T219" s="6"/>
     </row>
@@ -4941,20 +4150,7 @@
       <c r="D220" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E220" s="12"/>
-      <c r="F220" s="12"/>
-      <c r="G220" s="12"/>
-      <c r="H220" s="12"/>
-      <c r="I220" s="12"/>
       <c r="J220" s="6"/>
-      <c r="K220" s="12"/>
-      <c r="L220" s="12"/>
-      <c r="M220" s="12"/>
-      <c r="N220" s="12"/>
-      <c r="O220" s="12"/>
-      <c r="P220" s="12"/>
-      <c r="Q220" s="12"/>
-      <c r="R220" s="12"/>
       <c r="S220" s="6"/>
       <c r="T220" s="6"/>
     </row>
@@ -4964,20 +4160,7 @@
       <c r="D221" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E221" s="12"/>
-      <c r="F221" s="12"/>
-      <c r="G221" s="12"/>
-      <c r="H221" s="12"/>
-      <c r="I221" s="12"/>
       <c r="J221" s="6"/>
-      <c r="K221" s="12"/>
-      <c r="L221" s="12"/>
-      <c r="M221" s="12"/>
-      <c r="N221" s="12"/>
-      <c r="O221" s="12"/>
-      <c r="P221" s="12"/>
-      <c r="Q221" s="12"/>
-      <c r="R221" s="12"/>
       <c r="S221" s="6"/>
       <c r="T221" s="6"/>
     </row>
@@ -4987,20 +4170,7 @@
       <c r="D222" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E222" s="12"/>
-      <c r="F222" s="12"/>
-      <c r="G222" s="12"/>
-      <c r="H222" s="12"/>
-      <c r="I222" s="12"/>
       <c r="J222" s="6"/>
-      <c r="K222" s="12"/>
-      <c r="L222" s="12"/>
-      <c r="M222" s="12"/>
-      <c r="N222" s="12"/>
-      <c r="O222" s="12"/>
-      <c r="P222" s="12"/>
-      <c r="Q222" s="12"/>
-      <c r="R222" s="12"/>
       <c r="S222" s="6"/>
       <c r="T222" s="6"/>
     </row>
@@ -5010,20 +4180,7 @@
       <c r="D223" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E223" s="12"/>
-      <c r="F223" s="12"/>
-      <c r="G223" s="12"/>
-      <c r="H223" s="12"/>
-      <c r="I223" s="12"/>
       <c r="J223" s="6"/>
-      <c r="K223" s="12"/>
-      <c r="L223" s="12"/>
-      <c r="M223" s="12"/>
-      <c r="N223" s="12"/>
-      <c r="O223" s="12"/>
-      <c r="P223" s="12"/>
-      <c r="Q223" s="12"/>
-      <c r="R223" s="12"/>
       <c r="S223" s="6"/>
       <c r="T223" s="6"/>
     </row>
@@ -5033,20 +4190,7 @@
       <c r="D224" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E224" s="12"/>
-      <c r="F224" s="12"/>
-      <c r="G224" s="12"/>
-      <c r="H224" s="12"/>
-      <c r="I224" s="12"/>
       <c r="J224" s="6"/>
-      <c r="K224" s="12"/>
-      <c r="L224" s="12"/>
-      <c r="M224" s="12"/>
-      <c r="N224" s="12"/>
-      <c r="O224" s="12"/>
-      <c r="P224" s="12"/>
-      <c r="Q224" s="12"/>
-      <c r="R224" s="12"/>
       <c r="S224" s="6"/>
       <c r="T224" s="6"/>
     </row>
@@ -5056,20 +4200,7 @@
       <c r="D225" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E225" s="12"/>
-      <c r="F225" s="12"/>
-      <c r="G225" s="12"/>
-      <c r="H225" s="12"/>
-      <c r="I225" s="12"/>
       <c r="J225" s="6"/>
-      <c r="K225" s="12"/>
-      <c r="L225" s="12"/>
-      <c r="M225" s="12"/>
-      <c r="N225" s="12"/>
-      <c r="O225" s="12"/>
-      <c r="P225" s="12"/>
-      <c r="Q225" s="12"/>
-      <c r="R225" s="12"/>
       <c r="S225" s="6"/>
       <c r="T225" s="6"/>
     </row>
@@ -5079,20 +4210,7 @@
       <c r="D226" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E226" s="12"/>
-      <c r="F226" s="12"/>
-      <c r="G226" s="12"/>
-      <c r="H226" s="12"/>
-      <c r="I226" s="12"/>
       <c r="J226" s="6"/>
-      <c r="K226" s="12"/>
-      <c r="L226" s="12"/>
-      <c r="M226" s="12"/>
-      <c r="N226" s="12"/>
-      <c r="O226" s="12"/>
-      <c r="P226" s="12"/>
-      <c r="Q226" s="12"/>
-      <c r="R226" s="12"/>
       <c r="S226" s="6"/>
       <c r="T226" s="6"/>
     </row>
@@ -5102,20 +4220,7 @@
       <c r="D227" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E227" s="12"/>
-      <c r="F227" s="12"/>
-      <c r="G227" s="12"/>
-      <c r="H227" s="12"/>
-      <c r="I227" s="12"/>
       <c r="J227" s="6"/>
-      <c r="K227" s="12"/>
-      <c r="L227" s="12"/>
-      <c r="M227" s="12"/>
-      <c r="N227" s="12"/>
-      <c r="O227" s="12"/>
-      <c r="P227" s="12"/>
-      <c r="Q227" s="12"/>
-      <c r="R227" s="12"/>
       <c r="S227" s="6"/>
       <c r="T227" s="6"/>
     </row>
@@ -5125,20 +4230,7 @@
       <c r="D228" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E228" s="12"/>
-      <c r="F228" s="12"/>
-      <c r="G228" s="12"/>
-      <c r="H228" s="12"/>
-      <c r="I228" s="12"/>
       <c r="J228" s="6"/>
-      <c r="K228" s="12"/>
-      <c r="L228" s="12"/>
-      <c r="M228" s="12"/>
-      <c r="N228" s="12"/>
-      <c r="O228" s="12"/>
-      <c r="P228" s="12"/>
-      <c r="Q228" s="12"/>
-      <c r="R228" s="12"/>
       <c r="S228" s="6"/>
       <c r="T228" s="6"/>
     </row>
@@ -5148,20 +4240,7 @@
       <c r="D229" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E229" s="12"/>
-      <c r="F229" s="12"/>
-      <c r="G229" s="12"/>
-      <c r="H229" s="12"/>
-      <c r="I229" s="12"/>
       <c r="J229" s="6"/>
-      <c r="K229" s="12"/>
-      <c r="L229" s="12"/>
-      <c r="M229" s="12"/>
-      <c r="N229" s="12"/>
-      <c r="O229" s="12"/>
-      <c r="P229" s="12"/>
-      <c r="Q229" s="12"/>
-      <c r="R229" s="12"/>
       <c r="S229" s="6"/>
       <c r="T229" s="6"/>
     </row>
@@ -5171,20 +4250,7 @@
       <c r="D230" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E230" s="12"/>
-      <c r="F230" s="12"/>
-      <c r="G230" s="12"/>
-      <c r="H230" s="12"/>
-      <c r="I230" s="12"/>
       <c r="J230" s="6"/>
-      <c r="K230" s="12"/>
-      <c r="L230" s="12"/>
-      <c r="M230" s="12"/>
-      <c r="N230" s="12"/>
-      <c r="O230" s="12"/>
-      <c r="P230" s="12"/>
-      <c r="Q230" s="12"/>
-      <c r="R230" s="12"/>
       <c r="S230" s="6"/>
       <c r="T230" s="6"/>
     </row>
@@ -5194,20 +4260,7 @@
       <c r="D231" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E231" s="12"/>
-      <c r="F231" s="12"/>
-      <c r="G231" s="12"/>
-      <c r="H231" s="12"/>
-      <c r="I231" s="12"/>
       <c r="J231" s="6"/>
-      <c r="K231" s="12"/>
-      <c r="L231" s="12"/>
-      <c r="M231" s="12"/>
-      <c r="N231" s="12"/>
-      <c r="O231" s="12"/>
-      <c r="P231" s="12"/>
-      <c r="Q231" s="12"/>
-      <c r="R231" s="12"/>
       <c r="S231" s="6"/>
       <c r="T231" s="6"/>
     </row>
@@ -5217,20 +4270,7 @@
       <c r="D232" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E232" s="12"/>
-      <c r="F232" s="12"/>
-      <c r="G232" s="12"/>
-      <c r="H232" s="12"/>
-      <c r="I232" s="12"/>
       <c r="J232" s="6"/>
-      <c r="K232" s="12"/>
-      <c r="L232" s="12"/>
-      <c r="M232" s="12"/>
-      <c r="N232" s="12"/>
-      <c r="O232" s="12"/>
-      <c r="P232" s="12"/>
-      <c r="Q232" s="12"/>
-      <c r="R232" s="12"/>
       <c r="S232" s="6"/>
       <c r="T232" s="6"/>
     </row>
@@ -5240,20 +4280,7 @@
       <c r="D233" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E233" s="12"/>
-      <c r="F233" s="12"/>
-      <c r="G233" s="12"/>
-      <c r="H233" s="12"/>
-      <c r="I233" s="12"/>
       <c r="J233" s="6"/>
-      <c r="K233" s="12"/>
-      <c r="L233" s="12"/>
-      <c r="M233" s="12"/>
-      <c r="N233" s="12"/>
-      <c r="O233" s="12"/>
-      <c r="P233" s="12"/>
-      <c r="Q233" s="12"/>
-      <c r="R233" s="12"/>
       <c r="S233" s="6"/>
       <c r="T233" s="6"/>
     </row>
@@ -5263,20 +4290,7 @@
       <c r="D234" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E234" s="12"/>
-      <c r="F234" s="12"/>
-      <c r="G234" s="12"/>
-      <c r="H234" s="12"/>
-      <c r="I234" s="12"/>
       <c r="J234" s="6"/>
-      <c r="K234" s="12"/>
-      <c r="L234" s="12"/>
-      <c r="M234" s="12"/>
-      <c r="N234" s="12"/>
-      <c r="O234" s="12"/>
-      <c r="P234" s="12"/>
-      <c r="Q234" s="12"/>
-      <c r="R234" s="12"/>
       <c r="S234" s="6"/>
       <c r="T234" s="6"/>
     </row>
@@ -5286,20 +4300,7 @@
       <c r="D235" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E235" s="12"/>
-      <c r="F235" s="12"/>
-      <c r="G235" s="12"/>
-      <c r="H235" s="12"/>
-      <c r="I235" s="12"/>
       <c r="J235" s="6"/>
-      <c r="K235" s="12"/>
-      <c r="L235" s="12"/>
-      <c r="M235" s="12"/>
-      <c r="N235" s="12"/>
-      <c r="O235" s="12"/>
-      <c r="P235" s="12"/>
-      <c r="Q235" s="12"/>
-      <c r="R235" s="12"/>
       <c r="S235" s="6"/>
       <c r="T235" s="6"/>
     </row>
@@ -5309,20 +4310,7 @@
       <c r="D236" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E236" s="12"/>
-      <c r="F236" s="12"/>
-      <c r="G236" s="12"/>
-      <c r="H236" s="12"/>
-      <c r="I236" s="12"/>
       <c r="J236" s="6"/>
-      <c r="K236" s="12"/>
-      <c r="L236" s="12"/>
-      <c r="M236" s="12"/>
-      <c r="N236" s="12"/>
-      <c r="O236" s="12"/>
-      <c r="P236" s="12"/>
-      <c r="Q236" s="12"/>
-      <c r="R236" s="12"/>
       <c r="S236" s="6"/>
       <c r="T236" s="6"/>
     </row>
@@ -5332,20 +4320,7 @@
       <c r="D237" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E237" s="12"/>
-      <c r="F237" s="12"/>
-      <c r="G237" s="12"/>
-      <c r="H237" s="12"/>
-      <c r="I237" s="12"/>
       <c r="J237" s="6"/>
-      <c r="K237" s="12"/>
-      <c r="L237" s="12"/>
-      <c r="M237" s="12"/>
-      <c r="N237" s="12"/>
-      <c r="O237" s="12"/>
-      <c r="P237" s="12"/>
-      <c r="Q237" s="12"/>
-      <c r="R237" s="12"/>
       <c r="S237" s="6"/>
       <c r="T237" s="6"/>
     </row>
@@ -5355,20 +4330,7 @@
       <c r="D238" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E238" s="12"/>
-      <c r="F238" s="12"/>
-      <c r="G238" s="12"/>
-      <c r="H238" s="12"/>
-      <c r="I238" s="12"/>
       <c r="J238" s="6"/>
-      <c r="K238" s="12"/>
-      <c r="L238" s="12"/>
-      <c r="M238" s="12"/>
-      <c r="N238" s="12"/>
-      <c r="O238" s="12"/>
-      <c r="P238" s="12"/>
-      <c r="Q238" s="12"/>
-      <c r="R238" s="12"/>
       <c r="S238" s="6"/>
       <c r="T238" s="6"/>
     </row>
@@ -5378,20 +4340,7 @@
       <c r="D239" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E239" s="12"/>
-      <c r="F239" s="12"/>
-      <c r="G239" s="12"/>
-      <c r="H239" s="12"/>
-      <c r="I239" s="12"/>
       <c r="J239" s="6"/>
-      <c r="K239" s="12"/>
-      <c r="L239" s="12"/>
-      <c r="M239" s="12"/>
-      <c r="N239" s="12"/>
-      <c r="O239" s="12"/>
-      <c r="P239" s="12"/>
-      <c r="Q239" s="12"/>
-      <c r="R239" s="12"/>
       <c r="S239" s="6"/>
       <c r="T239" s="6"/>
     </row>
@@ -5401,20 +4350,7 @@
       <c r="D240" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E240" s="12"/>
-      <c r="F240" s="12"/>
-      <c r="G240" s="12"/>
-      <c r="H240" s="12"/>
-      <c r="I240" s="12"/>
       <c r="J240" s="6"/>
-      <c r="K240" s="12"/>
-      <c r="L240" s="12"/>
-      <c r="M240" s="12"/>
-      <c r="N240" s="12"/>
-      <c r="O240" s="12"/>
-      <c r="P240" s="12"/>
-      <c r="Q240" s="12"/>
-      <c r="R240" s="12"/>
       <c r="S240" s="6"/>
       <c r="T240" s="6"/>
     </row>
@@ -5424,20 +4360,7 @@
       <c r="D241" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E241" s="12"/>
-      <c r="F241" s="12"/>
-      <c r="G241" s="12"/>
-      <c r="H241" s="12"/>
-      <c r="I241" s="12"/>
       <c r="J241" s="6"/>
-      <c r="K241" s="12"/>
-      <c r="L241" s="12"/>
-      <c r="M241" s="12"/>
-      <c r="N241" s="12"/>
-      <c r="O241" s="12"/>
-      <c r="P241" s="12"/>
-      <c r="Q241" s="12"/>
-      <c r="R241" s="12"/>
       <c r="S241" s="6"/>
       <c r="T241" s="6"/>
     </row>
@@ -5447,20 +4370,7 @@
       <c r="D242" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E242" s="12"/>
-      <c r="F242" s="12"/>
-      <c r="G242" s="12"/>
-      <c r="H242" s="12"/>
-      <c r="I242" s="12"/>
       <c r="J242" s="6"/>
-      <c r="K242" s="12"/>
-      <c r="L242" s="12"/>
-      <c r="M242" s="12"/>
-      <c r="N242" s="12"/>
-      <c r="O242" s="12"/>
-      <c r="P242" s="12"/>
-      <c r="Q242" s="12"/>
-      <c r="R242" s="12"/>
       <c r="S242" s="6"/>
       <c r="T242" s="6"/>
     </row>
@@ -5470,20 +4380,7 @@
       <c r="D243" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E243" s="12"/>
-      <c r="F243" s="12"/>
-      <c r="G243" s="12"/>
-      <c r="H243" s="12"/>
-      <c r="I243" s="12"/>
       <c r="J243" s="6"/>
-      <c r="K243" s="12"/>
-      <c r="L243" s="12"/>
-      <c r="M243" s="12"/>
-      <c r="N243" s="12"/>
-      <c r="O243" s="12"/>
-      <c r="P243" s="12"/>
-      <c r="Q243" s="12"/>
-      <c r="R243" s="12"/>
       <c r="S243" s="6"/>
       <c r="T243" s="6"/>
     </row>
@@ -5493,20 +4390,7 @@
       <c r="D244" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E244" s="12"/>
-      <c r="F244" s="12"/>
-      <c r="G244" s="12"/>
-      <c r="H244" s="12"/>
-      <c r="I244" s="12"/>
       <c r="J244" s="6"/>
-      <c r="K244" s="12"/>
-      <c r="L244" s="12"/>
-      <c r="M244" s="12"/>
-      <c r="N244" s="12"/>
-      <c r="O244" s="12"/>
-      <c r="P244" s="12"/>
-      <c r="Q244" s="12"/>
-      <c r="R244" s="12"/>
       <c r="S244" s="6"/>
       <c r="T244" s="6"/>
     </row>
@@ -5516,20 +4400,7 @@
       <c r="D245" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E245" s="12"/>
-      <c r="F245" s="12"/>
-      <c r="G245" s="12"/>
-      <c r="H245" s="12"/>
-      <c r="I245" s="12"/>
       <c r="J245" s="6"/>
-      <c r="K245" s="12"/>
-      <c r="L245" s="12"/>
-      <c r="M245" s="12"/>
-      <c r="N245" s="12"/>
-      <c r="O245" s="12"/>
-      <c r="P245" s="12"/>
-      <c r="Q245" s="12"/>
-      <c r="R245" s="12"/>
       <c r="S245" s="6"/>
       <c r="T245" s="6"/>
     </row>
@@ -5539,20 +4410,7 @@
       <c r="D246" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E246" s="12"/>
-      <c r="F246" s="12"/>
-      <c r="G246" s="12"/>
-      <c r="H246" s="12"/>
-      <c r="I246" s="12"/>
       <c r="J246" s="6"/>
-      <c r="K246" s="12"/>
-      <c r="L246" s="12"/>
-      <c r="M246" s="12"/>
-      <c r="N246" s="12"/>
-      <c r="O246" s="12"/>
-      <c r="P246" s="12"/>
-      <c r="Q246" s="12"/>
-      <c r="R246" s="12"/>
       <c r="S246" s="6"/>
       <c r="T246" s="6"/>
     </row>
@@ -5562,20 +4420,7 @@
       <c r="D247" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E247" s="12"/>
-      <c r="F247" s="12"/>
-      <c r="G247" s="12"/>
-      <c r="H247" s="12"/>
-      <c r="I247" s="12"/>
       <c r="J247" s="6"/>
-      <c r="K247" s="12"/>
-      <c r="L247" s="12"/>
-      <c r="M247" s="12"/>
-      <c r="N247" s="12"/>
-      <c r="O247" s="12"/>
-      <c r="P247" s="12"/>
-      <c r="Q247" s="12"/>
-      <c r="R247" s="12"/>
       <c r="S247" s="6"/>
       <c r="T247" s="6"/>
     </row>
@@ -5585,20 +4430,7 @@
       <c r="D248" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E248" s="12"/>
-      <c r="F248" s="12"/>
-      <c r="G248" s="12"/>
-      <c r="H248" s="12"/>
-      <c r="I248" s="12"/>
       <c r="J248" s="6"/>
-      <c r="K248" s="12"/>
-      <c r="L248" s="12"/>
-      <c r="M248" s="12"/>
-      <c r="N248" s="12"/>
-      <c r="O248" s="12"/>
-      <c r="P248" s="12"/>
-      <c r="Q248" s="12"/>
-      <c r="R248" s="12"/>
       <c r="S248" s="6"/>
       <c r="T248" s="6"/>
     </row>
@@ -5608,20 +4440,7 @@
       <c r="D249" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E249" s="12"/>
-      <c r="F249" s="12"/>
-      <c r="G249" s="12"/>
-      <c r="H249" s="12"/>
-      <c r="I249" s="12"/>
       <c r="J249" s="6"/>
-      <c r="K249" s="12"/>
-      <c r="L249" s="12"/>
-      <c r="M249" s="12"/>
-      <c r="N249" s="12"/>
-      <c r="O249" s="12"/>
-      <c r="P249" s="12"/>
-      <c r="Q249" s="12"/>
-      <c r="R249" s="12"/>
       <c r="S249" s="6"/>
       <c r="T249" s="6"/>
     </row>
@@ -5631,20 +4450,7 @@
       <c r="D250" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E250" s="12"/>
-      <c r="F250" s="12"/>
-      <c r="G250" s="12"/>
-      <c r="H250" s="12"/>
-      <c r="I250" s="12"/>
       <c r="J250" s="6"/>
-      <c r="K250" s="12"/>
-      <c r="L250" s="12"/>
-      <c r="M250" s="12"/>
-      <c r="N250" s="12"/>
-      <c r="O250" s="12"/>
-      <c r="P250" s="12"/>
-      <c r="Q250" s="12"/>
-      <c r="R250" s="12"/>
       <c r="S250" s="6"/>
       <c r="T250" s="6"/>
     </row>
@@ -5654,20 +4460,7 @@
       <c r="D251" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E251" s="12"/>
-      <c r="F251" s="12"/>
-      <c r="G251" s="12"/>
-      <c r="H251" s="12"/>
-      <c r="I251" s="12"/>
       <c r="J251" s="6"/>
-      <c r="K251" s="12"/>
-      <c r="L251" s="12"/>
-      <c r="M251" s="12"/>
-      <c r="N251" s="12"/>
-      <c r="O251" s="12"/>
-      <c r="P251" s="12"/>
-      <c r="Q251" s="12"/>
-      <c r="R251" s="12"/>
       <c r="S251" s="6"/>
       <c r="T251" s="6"/>
     </row>
@@ -5677,20 +4470,7 @@
       <c r="D252" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E252" s="12"/>
-      <c r="F252" s="12"/>
-      <c r="G252" s="12"/>
-      <c r="H252" s="12"/>
-      <c r="I252" s="12"/>
       <c r="J252" s="6"/>
-      <c r="K252" s="12"/>
-      <c r="L252" s="12"/>
-      <c r="M252" s="12"/>
-      <c r="N252" s="12"/>
-      <c r="O252" s="12"/>
-      <c r="P252" s="12"/>
-      <c r="Q252" s="12"/>
-      <c r="R252" s="12"/>
       <c r="S252" s="6"/>
       <c r="T252" s="6"/>
     </row>
@@ -5700,20 +4480,7 @@
       <c r="D253" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E253" s="12"/>
-      <c r="F253" s="12"/>
-      <c r="G253" s="12"/>
-      <c r="H253" s="12"/>
-      <c r="I253" s="12"/>
       <c r="J253" s="6"/>
-      <c r="K253" s="12"/>
-      <c r="L253" s="12"/>
-      <c r="M253" s="12"/>
-      <c r="N253" s="12"/>
-      <c r="O253" s="12"/>
-      <c r="P253" s="12"/>
-      <c r="Q253" s="12"/>
-      <c r="R253" s="12"/>
       <c r="S253" s="6"/>
       <c r="T253" s="6"/>
     </row>
@@ -5723,20 +4490,7 @@
       <c r="D254" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E254" s="12"/>
-      <c r="F254" s="12"/>
-      <c r="G254" s="12"/>
-      <c r="H254" s="12"/>
-      <c r="I254" s="12"/>
       <c r="J254" s="6"/>
-      <c r="K254" s="12"/>
-      <c r="L254" s="12"/>
-      <c r="M254" s="12"/>
-      <c r="N254" s="12"/>
-      <c r="O254" s="12"/>
-      <c r="P254" s="12"/>
-      <c r="Q254" s="12"/>
-      <c r="R254" s="12"/>
       <c r="S254" s="6"/>
       <c r="T254" s="6"/>
     </row>
@@ -5746,20 +4500,7 @@
       <c r="D255" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E255" s="12"/>
-      <c r="F255" s="12"/>
-      <c r="G255" s="12"/>
-      <c r="H255" s="12"/>
-      <c r="I255" s="12"/>
       <c r="J255" s="6"/>
-      <c r="K255" s="12"/>
-      <c r="L255" s="12"/>
-      <c r="M255" s="12"/>
-      <c r="N255" s="12"/>
-      <c r="O255" s="12"/>
-      <c r="P255" s="12"/>
-      <c r="Q255" s="12"/>
-      <c r="R255" s="12"/>
       <c r="S255" s="6"/>
       <c r="T255" s="6"/>
     </row>
@@ -5769,20 +4510,7 @@
       <c r="D256" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E256" s="12"/>
-      <c r="F256" s="12"/>
-      <c r="G256" s="12"/>
-      <c r="H256" s="12"/>
-      <c r="I256" s="12"/>
       <c r="J256" s="6"/>
-      <c r="K256" s="12"/>
-      <c r="L256" s="12"/>
-      <c r="M256" s="12"/>
-      <c r="N256" s="12"/>
-      <c r="O256" s="12"/>
-      <c r="P256" s="12"/>
-      <c r="Q256" s="12"/>
-      <c r="R256" s="12"/>
       <c r="S256" s="6"/>
       <c r="T256" s="6"/>
     </row>
@@ -5792,20 +4520,7 @@
       <c r="D257" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E257" s="12"/>
-      <c r="F257" s="12"/>
-      <c r="G257" s="12"/>
-      <c r="H257" s="12"/>
-      <c r="I257" s="12"/>
       <c r="J257" s="6"/>
-      <c r="K257" s="12"/>
-      <c r="L257" s="12"/>
-      <c r="M257" s="12"/>
-      <c r="N257" s="12"/>
-      <c r="O257" s="12"/>
-      <c r="P257" s="12"/>
-      <c r="Q257" s="12"/>
-      <c r="R257" s="12"/>
       <c r="S257" s="6"/>
       <c r="T257" s="6"/>
     </row>
@@ -5815,20 +4530,7 @@
       <c r="D258" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E258" s="12"/>
-      <c r="F258" s="12"/>
-      <c r="G258" s="12"/>
-      <c r="H258" s="12"/>
-      <c r="I258" s="12"/>
       <c r="J258" s="6"/>
-      <c r="K258" s="12"/>
-      <c r="L258" s="12"/>
-      <c r="M258" s="12"/>
-      <c r="N258" s="12"/>
-      <c r="O258" s="12"/>
-      <c r="P258" s="12"/>
-      <c r="Q258" s="12"/>
-      <c r="R258" s="12"/>
       <c r="S258" s="6"/>
       <c r="T258" s="6"/>
     </row>
@@ -5838,20 +4540,7 @@
       <c r="D259" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E259" s="12"/>
-      <c r="F259" s="12"/>
-      <c r="G259" s="12"/>
-      <c r="H259" s="12"/>
-      <c r="I259" s="12"/>
       <c r="J259" s="6"/>
-      <c r="K259" s="12"/>
-      <c r="L259" s="12"/>
-      <c r="M259" s="12"/>
-      <c r="N259" s="12"/>
-      <c r="O259" s="12"/>
-      <c r="P259" s="12"/>
-      <c r="Q259" s="12"/>
-      <c r="R259" s="12"/>
       <c r="S259" s="6"/>
       <c r="T259" s="6"/>
     </row>
@@ -5861,20 +4550,7 @@
       <c r="D260" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E260" s="12"/>
-      <c r="F260" s="12"/>
-      <c r="G260" s="12"/>
-      <c r="H260" s="12"/>
-      <c r="I260" s="12"/>
       <c r="J260" s="6"/>
-      <c r="K260" s="12"/>
-      <c r="L260" s="12"/>
-      <c r="M260" s="12"/>
-      <c r="N260" s="12"/>
-      <c r="O260" s="12"/>
-      <c r="P260" s="12"/>
-      <c r="Q260" s="12"/>
-      <c r="R260" s="12"/>
       <c r="S260" s="6"/>
       <c r="T260" s="6"/>
     </row>
@@ -5884,20 +4560,7 @@
       <c r="D261" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E261" s="12"/>
-      <c r="F261" s="12"/>
-      <c r="G261" s="12"/>
-      <c r="H261" s="12"/>
-      <c r="I261" s="12"/>
       <c r="J261" s="6"/>
-      <c r="K261" s="12"/>
-      <c r="L261" s="12"/>
-      <c r="M261" s="12"/>
-      <c r="N261" s="12"/>
-      <c r="O261" s="12"/>
-      <c r="P261" s="12"/>
-      <c r="Q261" s="12"/>
-      <c r="R261" s="12"/>
       <c r="S261" s="6"/>
       <c r="T261" s="6"/>
     </row>
@@ -5907,20 +4570,7 @@
       <c r="D262" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E262" s="12"/>
-      <c r="F262" s="12"/>
-      <c r="G262" s="12"/>
-      <c r="H262" s="12"/>
-      <c r="I262" s="12"/>
       <c r="J262" s="6"/>
-      <c r="K262" s="12"/>
-      <c r="L262" s="12"/>
-      <c r="M262" s="12"/>
-      <c r="N262" s="12"/>
-      <c r="O262" s="12"/>
-      <c r="P262" s="12"/>
-      <c r="Q262" s="12"/>
-      <c r="R262" s="12"/>
       <c r="S262" s="6"/>
       <c r="T262" s="6"/>
     </row>
@@ -5930,20 +4580,7 @@
       <c r="D263" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E263" s="12"/>
-      <c r="F263" s="12"/>
-      <c r="G263" s="12"/>
-      <c r="H263" s="12"/>
-      <c r="I263" s="12"/>
       <c r="J263" s="6"/>
-      <c r="K263" s="12"/>
-      <c r="L263" s="12"/>
-      <c r="M263" s="12"/>
-      <c r="N263" s="12"/>
-      <c r="O263" s="12"/>
-      <c r="P263" s="12"/>
-      <c r="Q263" s="12"/>
-      <c r="R263" s="12"/>
       <c r="S263" s="6"/>
       <c r="T263" s="6"/>
     </row>
@@ -5953,20 +4590,7 @@
       <c r="D264" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E264" s="12"/>
-      <c r="F264" s="12"/>
-      <c r="G264" s="12"/>
-      <c r="H264" s="12"/>
-      <c r="I264" s="12"/>
       <c r="J264" s="6"/>
-      <c r="K264" s="12"/>
-      <c r="L264" s="12"/>
-      <c r="M264" s="12"/>
-      <c r="N264" s="12"/>
-      <c r="O264" s="12"/>
-      <c r="P264" s="12"/>
-      <c r="Q264" s="12"/>
-      <c r="R264" s="12"/>
       <c r="S264" s="6"/>
       <c r="T264" s="6"/>
     </row>
@@ -5976,20 +4600,7 @@
       <c r="D265" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E265" s="12"/>
-      <c r="F265" s="12"/>
-      <c r="G265" s="12"/>
-      <c r="H265" s="12"/>
-      <c r="I265" s="12"/>
       <c r="J265" s="6"/>
-      <c r="K265" s="12"/>
-      <c r="L265" s="12"/>
-      <c r="M265" s="12"/>
-      <c r="N265" s="12"/>
-      <c r="O265" s="12"/>
-      <c r="P265" s="12"/>
-      <c r="Q265" s="12"/>
-      <c r="R265" s="12"/>
       <c r="S265" s="6"/>
       <c r="T265" s="6"/>
     </row>
@@ -5999,20 +4610,7 @@
       <c r="D266" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E266" s="12"/>
-      <c r="F266" s="12"/>
-      <c r="G266" s="12"/>
-      <c r="H266" s="12"/>
-      <c r="I266" s="12"/>
       <c r="J266" s="6"/>
-      <c r="K266" s="12"/>
-      <c r="L266" s="12"/>
-      <c r="M266" s="12"/>
-      <c r="N266" s="12"/>
-      <c r="O266" s="12"/>
-      <c r="P266" s="12"/>
-      <c r="Q266" s="12"/>
-      <c r="R266" s="12"/>
       <c r="S266" s="6"/>
       <c r="T266" s="6"/>
     </row>
@@ -6022,20 +4620,7 @@
       <c r="D267" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E267" s="12"/>
-      <c r="F267" s="12"/>
-      <c r="G267" s="12"/>
-      <c r="H267" s="12"/>
-      <c r="I267" s="12"/>
       <c r="J267" s="6"/>
-      <c r="K267" s="12"/>
-      <c r="L267" s="12"/>
-      <c r="M267" s="12"/>
-      <c r="N267" s="12"/>
-      <c r="O267" s="12"/>
-      <c r="P267" s="12"/>
-      <c r="Q267" s="12"/>
-      <c r="R267" s="12"/>
       <c r="S267" s="6"/>
       <c r="T267" s="6"/>
     </row>
@@ -6045,20 +4630,7 @@
       <c r="D268" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E268" s="12"/>
-      <c r="F268" s="12"/>
-      <c r="G268" s="12"/>
-      <c r="H268" s="12"/>
-      <c r="I268" s="12"/>
       <c r="J268" s="6"/>
-      <c r="K268" s="12"/>
-      <c r="L268" s="12"/>
-      <c r="M268" s="12"/>
-      <c r="N268" s="12"/>
-      <c r="O268" s="12"/>
-      <c r="P268" s="12"/>
-      <c r="Q268" s="12"/>
-      <c r="R268" s="12"/>
       <c r="S268" s="6"/>
       <c r="T268" s="6"/>
     </row>
@@ -6068,20 +4640,7 @@
       <c r="D269" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E269" s="12"/>
-      <c r="F269" s="12"/>
-      <c r="G269" s="12"/>
-      <c r="H269" s="12"/>
-      <c r="I269" s="12"/>
       <c r="J269" s="6"/>
-      <c r="K269" s="12"/>
-      <c r="L269" s="12"/>
-      <c r="M269" s="12"/>
-      <c r="N269" s="12"/>
-      <c r="O269" s="12"/>
-      <c r="P269" s="12"/>
-      <c r="Q269" s="12"/>
-      <c r="R269" s="12"/>
       <c r="S269" s="6"/>
       <c r="T269" s="6"/>
     </row>
@@ -6091,20 +4650,7 @@
       <c r="D270" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E270" s="12"/>
-      <c r="F270" s="12"/>
-      <c r="G270" s="12"/>
-      <c r="H270" s="12"/>
-      <c r="I270" s="12"/>
       <c r="J270" s="6"/>
-      <c r="K270" s="12"/>
-      <c r="L270" s="12"/>
-      <c r="M270" s="12"/>
-      <c r="N270" s="12"/>
-      <c r="O270" s="12"/>
-      <c r="P270" s="12"/>
-      <c r="Q270" s="12"/>
-      <c r="R270" s="12"/>
       <c r="S270" s="6"/>
       <c r="T270" s="6"/>
     </row>
@@ -6114,20 +4660,7 @@
       <c r="D271" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E271" s="12"/>
-      <c r="F271" s="12"/>
-      <c r="G271" s="12"/>
-      <c r="H271" s="12"/>
-      <c r="I271" s="12"/>
       <c r="J271" s="6"/>
-      <c r="K271" s="12"/>
-      <c r="L271" s="12"/>
-      <c r="M271" s="12"/>
-      <c r="N271" s="12"/>
-      <c r="O271" s="12"/>
-      <c r="P271" s="12"/>
-      <c r="Q271" s="12"/>
-      <c r="R271" s="12"/>
       <c r="S271" s="6"/>
       <c r="T271" s="6"/>
     </row>
@@ -6137,20 +4670,7 @@
       <c r="D272" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="E272" s="12"/>
-      <c r="F272" s="12"/>
-      <c r="G272" s="12"/>
-      <c r="H272" s="12"/>
-      <c r="I272" s="12"/>
       <c r="J272" s="6"/>
-      <c r="K272" s="12"/>
-      <c r="L272" s="12"/>
-      <c r="M272" s="12"/>
-      <c r="N272" s="12"/>
-      <c r="O272" s="12"/>
-      <c r="P272" s="12"/>
-      <c r="Q272" s="12"/>
-      <c r="R272" s="12"/>
       <c r="S272" s="6"/>
       <c r="T272" s="6"/>
     </row>
@@ -6160,20 +4680,7 @@
       <c r="D273" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E273" s="12"/>
-      <c r="F273" s="12"/>
-      <c r="G273" s="12"/>
-      <c r="H273" s="12"/>
-      <c r="I273" s="12"/>
       <c r="J273" s="6"/>
-      <c r="K273" s="12"/>
-      <c r="L273" s="12"/>
-      <c r="M273" s="12"/>
-      <c r="N273" s="12"/>
-      <c r="O273" s="12"/>
-      <c r="P273" s="12"/>
-      <c r="Q273" s="12"/>
-      <c r="R273" s="12"/>
       <c r="S273" s="6"/>
       <c r="T273" s="6"/>
     </row>
@@ -6183,20 +4690,7 @@
       <c r="D274" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E274" s="12"/>
-      <c r="F274" s="12"/>
-      <c r="G274" s="12"/>
-      <c r="H274" s="12"/>
-      <c r="I274" s="12"/>
       <c r="J274" s="6"/>
-      <c r="K274" s="12"/>
-      <c r="L274" s="12"/>
-      <c r="M274" s="12"/>
-      <c r="N274" s="12"/>
-      <c r="O274" s="12"/>
-      <c r="P274" s="12"/>
-      <c r="Q274" s="12"/>
-      <c r="R274" s="12"/>
       <c r="S274" s="6"/>
       <c r="T274" s="6"/>
     </row>
@@ -6206,20 +4700,7 @@
       <c r="D275" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="E275" s="12"/>
-      <c r="F275" s="12"/>
-      <c r="G275" s="12"/>
-      <c r="H275" s="12"/>
-      <c r="I275" s="12"/>
       <c r="J275" s="6"/>
-      <c r="K275" s="12"/>
-      <c r="L275" s="12"/>
-      <c r="M275" s="12"/>
-      <c r="N275" s="12"/>
-      <c r="O275" s="12"/>
-      <c r="P275" s="12"/>
-      <c r="Q275" s="12"/>
-      <c r="R275" s="12"/>
       <c r="S275" s="6"/>
       <c r="T275" s="6"/>
     </row>
@@ -6229,20 +4710,7 @@
       <c r="D276" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="E276" s="12"/>
-      <c r="F276" s="12"/>
-      <c r="G276" s="12"/>
-      <c r="H276" s="12"/>
-      <c r="I276" s="12"/>
       <c r="J276" s="6"/>
-      <c r="K276" s="12"/>
-      <c r="L276" s="12"/>
-      <c r="M276" s="12"/>
-      <c r="N276" s="12"/>
-      <c r="O276" s="12"/>
-      <c r="P276" s="12"/>
-      <c r="Q276" s="12"/>
-      <c r="R276" s="12"/>
       <c r="S276" s="6"/>
       <c r="T276" s="6"/>
     </row>
@@ -6252,20 +4720,7 @@
       <c r="D277" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E277" s="12"/>
-      <c r="F277" s="12"/>
-      <c r="G277" s="12"/>
-      <c r="H277" s="12"/>
-      <c r="I277" s="12"/>
       <c r="J277" s="6"/>
-      <c r="K277" s="12"/>
-      <c r="L277" s="12"/>
-      <c r="M277" s="12"/>
-      <c r="N277" s="12"/>
-      <c r="O277" s="12"/>
-      <c r="P277" s="12"/>
-      <c r="Q277" s="12"/>
-      <c r="R277" s="12"/>
       <c r="S277" s="6"/>
       <c r="T277" s="6"/>
     </row>
@@ -6275,20 +4730,7 @@
       <c r="D278" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="E278" s="12"/>
-      <c r="F278" s="12"/>
-      <c r="G278" s="12"/>
-      <c r="H278" s="12"/>
-      <c r="I278" s="12"/>
       <c r="J278" s="6"/>
-      <c r="K278" s="12"/>
-      <c r="L278" s="12"/>
-      <c r="M278" s="12"/>
-      <c r="N278" s="12"/>
-      <c r="O278" s="12"/>
-      <c r="P278" s="12"/>
-      <c r="Q278" s="12"/>
-      <c r="R278" s="12"/>
       <c r="S278" s="6"/>
       <c r="T278" s="6"/>
     </row>
@@ -6298,20 +4740,7 @@
       <c r="D279" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E279" s="12"/>
-      <c r="F279" s="12"/>
-      <c r="G279" s="12"/>
-      <c r="H279" s="12"/>
-      <c r="I279" s="12"/>
       <c r="J279" s="6"/>
-      <c r="K279" s="12"/>
-      <c r="L279" s="12"/>
-      <c r="M279" s="12"/>
-      <c r="N279" s="12"/>
-      <c r="O279" s="12"/>
-      <c r="P279" s="12"/>
-      <c r="Q279" s="12"/>
-      <c r="R279" s="12"/>
       <c r="S279" s="6"/>
       <c r="T279" s="6"/>
     </row>
@@ -6321,20 +4750,7 @@
       <c r="D280" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E280" s="12"/>
-      <c r="F280" s="12"/>
-      <c r="G280" s="12"/>
-      <c r="H280" s="12"/>
-      <c r="I280" s="12"/>
       <c r="J280" s="6"/>
-      <c r="K280" s="12"/>
-      <c r="L280" s="12"/>
-      <c r="M280" s="12"/>
-      <c r="N280" s="12"/>
-      <c r="O280" s="12"/>
-      <c r="P280" s="12"/>
-      <c r="Q280" s="12"/>
-      <c r="R280" s="12"/>
       <c r="S280" s="6"/>
       <c r="T280" s="6"/>
     </row>
@@ -6344,20 +4760,7 @@
       <c r="D281" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E281" s="12"/>
-      <c r="F281" s="12"/>
-      <c r="G281" s="12"/>
-      <c r="H281" s="12"/>
-      <c r="I281" s="12"/>
       <c r="J281" s="6"/>
-      <c r="K281" s="12"/>
-      <c r="L281" s="12"/>
-      <c r="M281" s="12"/>
-      <c r="N281" s="12"/>
-      <c r="O281" s="12"/>
-      <c r="P281" s="12"/>
-      <c r="Q281" s="12"/>
-      <c r="R281" s="12"/>
       <c r="S281" s="6"/>
       <c r="T281" s="6"/>
     </row>
@@ -6367,20 +4770,7 @@
       <c r="D282" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E282" s="12"/>
-      <c r="F282" s="12"/>
-      <c r="G282" s="12"/>
-      <c r="H282" s="12"/>
-      <c r="I282" s="12"/>
       <c r="J282" s="6"/>
-      <c r="K282" s="12"/>
-      <c r="L282" s="12"/>
-      <c r="M282" s="12"/>
-      <c r="N282" s="12"/>
-      <c r="O282" s="12"/>
-      <c r="P282" s="12"/>
-      <c r="Q282" s="12"/>
-      <c r="R282" s="12"/>
       <c r="S282" s="6"/>
       <c r="T282" s="6"/>
     </row>
@@ -6390,20 +4780,7 @@
       <c r="D283" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E283" s="12"/>
-      <c r="F283" s="12"/>
-      <c r="G283" s="12"/>
-      <c r="H283" s="12"/>
-      <c r="I283" s="12"/>
       <c r="J283" s="6"/>
-      <c r="K283" s="12"/>
-      <c r="L283" s="12"/>
-      <c r="M283" s="12"/>
-      <c r="N283" s="12"/>
-      <c r="O283" s="12"/>
-      <c r="P283" s="12"/>
-      <c r="Q283" s="12"/>
-      <c r="R283" s="12"/>
       <c r="S283" s="6"/>
       <c r="T283" s="6"/>
     </row>
@@ -6413,20 +4790,7 @@
       <c r="D284" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E284" s="12"/>
-      <c r="F284" s="12"/>
-      <c r="G284" s="12"/>
-      <c r="H284" s="12"/>
-      <c r="I284" s="12"/>
       <c r="J284" s="6"/>
-      <c r="K284" s="12"/>
-      <c r="L284" s="12"/>
-      <c r="M284" s="12"/>
-      <c r="N284" s="12"/>
-      <c r="O284" s="12"/>
-      <c r="P284" s="12"/>
-      <c r="Q284" s="12"/>
-      <c r="R284" s="12"/>
       <c r="S284" s="6"/>
       <c r="T284" s="6"/>
     </row>
@@ -6436,20 +4800,7 @@
       <c r="D285" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E285" s="12"/>
-      <c r="F285" s="12"/>
-      <c r="G285" s="12"/>
-      <c r="H285" s="12"/>
-      <c r="I285" s="12"/>
       <c r="J285" s="6"/>
-      <c r="K285" s="12"/>
-      <c r="L285" s="12"/>
-      <c r="M285" s="12"/>
-      <c r="N285" s="12"/>
-      <c r="O285" s="12"/>
-      <c r="P285" s="12"/>
-      <c r="Q285" s="12"/>
-      <c r="R285" s="12"/>
       <c r="S285" s="6"/>
       <c r="T285" s="6"/>
     </row>
@@ -6459,20 +4810,7 @@
       <c r="D286" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="E286" s="12"/>
-      <c r="F286" s="12"/>
-      <c r="G286" s="12"/>
-      <c r="H286" s="12"/>
-      <c r="I286" s="12"/>
       <c r="J286" s="6"/>
-      <c r="K286" s="12"/>
-      <c r="L286" s="12"/>
-      <c r="M286" s="12"/>
-      <c r="N286" s="12"/>
-      <c r="O286" s="12"/>
-      <c r="P286" s="12"/>
-      <c r="Q286" s="12"/>
-      <c r="R286" s="12"/>
       <c r="S286" s="6"/>
       <c r="T286" s="6"/>
     </row>
@@ -6482,20 +4820,7 @@
       <c r="D287" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E287" s="12"/>
-      <c r="F287" s="12"/>
-      <c r="G287" s="12"/>
-      <c r="H287" s="12"/>
-      <c r="I287" s="12"/>
       <c r="J287" s="6"/>
-      <c r="K287" s="12"/>
-      <c r="L287" s="12"/>
-      <c r="M287" s="12"/>
-      <c r="N287" s="12"/>
-      <c r="O287" s="12"/>
-      <c r="P287" s="12"/>
-      <c r="Q287" s="12"/>
-      <c r="R287" s="12"/>
       <c r="S287" s="6"/>
       <c r="T287" s="6"/>
     </row>
@@ -6505,20 +4830,7 @@
       <c r="D288" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E288" s="12"/>
-      <c r="F288" s="12"/>
-      <c r="G288" s="12"/>
-      <c r="H288" s="12"/>
-      <c r="I288" s="12"/>
       <c r="J288" s="6"/>
-      <c r="K288" s="12"/>
-      <c r="L288" s="12"/>
-      <c r="M288" s="12"/>
-      <c r="N288" s="12"/>
-      <c r="O288" s="12"/>
-      <c r="P288" s="12"/>
-      <c r="Q288" s="12"/>
-      <c r="R288" s="12"/>
       <c r="S288" s="6"/>
       <c r="T288" s="6"/>
     </row>
@@ -6528,20 +4840,7 @@
       <c r="D289" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E289" s="12"/>
-      <c r="F289" s="12"/>
-      <c r="G289" s="12"/>
-      <c r="H289" s="12"/>
-      <c r="I289" s="12"/>
       <c r="J289" s="6"/>
-      <c r="K289" s="12"/>
-      <c r="L289" s="12"/>
-      <c r="M289" s="12"/>
-      <c r="N289" s="12"/>
-      <c r="O289" s="12"/>
-      <c r="P289" s="12"/>
-      <c r="Q289" s="12"/>
-      <c r="R289" s="12"/>
       <c r="S289" s="6"/>
       <c r="T289" s="6"/>
     </row>
@@ -6551,20 +4850,7 @@
       <c r="D290" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="E290" s="12"/>
-      <c r="F290" s="12"/>
-      <c r="G290" s="12"/>
-      <c r="H290" s="12"/>
-      <c r="I290" s="12"/>
       <c r="J290" s="6"/>
-      <c r="K290" s="12"/>
-      <c r="L290" s="12"/>
-      <c r="M290" s="12"/>
-      <c r="N290" s="12"/>
-      <c r="O290" s="12"/>
-      <c r="P290" s="12"/>
-      <c r="Q290" s="12"/>
-      <c r="R290" s="12"/>
       <c r="S290" s="6"/>
       <c r="T290" s="6"/>
     </row>
@@ -6574,20 +4860,7 @@
       <c r="D291" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="E291" s="12"/>
-      <c r="F291" s="12"/>
-      <c r="G291" s="12"/>
-      <c r="H291" s="12"/>
-      <c r="I291" s="12"/>
       <c r="J291" s="6"/>
-      <c r="K291" s="12"/>
-      <c r="L291" s="12"/>
-      <c r="M291" s="12"/>
-      <c r="N291" s="12"/>
-      <c r="O291" s="12"/>
-      <c r="P291" s="12"/>
-      <c r="Q291" s="12"/>
-      <c r="R291" s="12"/>
       <c r="S291" s="6"/>
       <c r="T291" s="6"/>
     </row>
@@ -6597,20 +4870,7 @@
       <c r="D292" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="E292" s="12"/>
-      <c r="F292" s="12"/>
-      <c r="G292" s="12"/>
-      <c r="H292" s="12"/>
-      <c r="I292" s="12"/>
       <c r="J292" s="6"/>
-      <c r="K292" s="12"/>
-      <c r="L292" s="12"/>
-      <c r="M292" s="12"/>
-      <c r="N292" s="12"/>
-      <c r="O292" s="12"/>
-      <c r="P292" s="12"/>
-      <c r="Q292" s="12"/>
-      <c r="R292" s="12"/>
       <c r="S292" s="6"/>
       <c r="T292" s="6"/>
     </row>
@@ -6620,20 +4880,7 @@
       <c r="D293" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E293" s="12"/>
-      <c r="F293" s="12"/>
-      <c r="G293" s="12"/>
-      <c r="H293" s="12"/>
-      <c r="I293" s="12"/>
       <c r="J293" s="6"/>
-      <c r="K293" s="12"/>
-      <c r="L293" s="12"/>
-      <c r="M293" s="12"/>
-      <c r="N293" s="12"/>
-      <c r="O293" s="12"/>
-      <c r="P293" s="12"/>
-      <c r="Q293" s="12"/>
-      <c r="R293" s="12"/>
       <c r="S293" s="6"/>
       <c r="T293" s="6"/>
     </row>
@@ -6643,20 +4890,7 @@
       <c r="D294" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E294" s="12"/>
-      <c r="F294" s="12"/>
-      <c r="G294" s="12"/>
-      <c r="H294" s="12"/>
-      <c r="I294" s="12"/>
       <c r="J294" s="6"/>
-      <c r="K294" s="12"/>
-      <c r="L294" s="12"/>
-      <c r="M294" s="12"/>
-      <c r="N294" s="12"/>
-      <c r="O294" s="12"/>
-      <c r="P294" s="12"/>
-      <c r="Q294" s="12"/>
-      <c r="R294" s="12"/>
       <c r="S294" s="6"/>
       <c r="T294" s="6"/>
     </row>
@@ -6666,20 +4900,7 @@
       <c r="D295" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="E295" s="12"/>
-      <c r="F295" s="12"/>
-      <c r="G295" s="12"/>
-      <c r="H295" s="12"/>
-      <c r="I295" s="12"/>
       <c r="J295" s="6"/>
-      <c r="K295" s="12"/>
-      <c r="L295" s="12"/>
-      <c r="M295" s="12"/>
-      <c r="N295" s="12"/>
-      <c r="O295" s="12"/>
-      <c r="P295" s="12"/>
-      <c r="Q295" s="12"/>
-      <c r="R295" s="12"/>
       <c r="S295" s="6"/>
       <c r="T295" s="6"/>
     </row>
@@ -6689,20 +4910,7 @@
       <c r="D296" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="E296" s="12"/>
-      <c r="F296" s="12"/>
-      <c r="G296" s="12"/>
-      <c r="H296" s="12"/>
-      <c r="I296" s="12"/>
       <c r="J296" s="6"/>
-      <c r="K296" s="12"/>
-      <c r="L296" s="12"/>
-      <c r="M296" s="12"/>
-      <c r="N296" s="12"/>
-      <c r="O296" s="12"/>
-      <c r="P296" s="12"/>
-      <c r="Q296" s="12"/>
-      <c r="R296" s="12"/>
       <c r="S296" s="6"/>
       <c r="T296" s="6"/>
     </row>
@@ -6712,20 +4920,7 @@
       <c r="D297" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="E297" s="12"/>
-      <c r="F297" s="12"/>
-      <c r="G297" s="12"/>
-      <c r="H297" s="12"/>
-      <c r="I297" s="12"/>
       <c r="J297" s="6"/>
-      <c r="K297" s="12"/>
-      <c r="L297" s="12"/>
-      <c r="M297" s="12"/>
-      <c r="N297" s="12"/>
-      <c r="O297" s="12"/>
-      <c r="P297" s="12"/>
-      <c r="Q297" s="12"/>
-      <c r="R297" s="12"/>
       <c r="S297" s="6"/>
       <c r="T297" s="6"/>
     </row>
@@ -6735,20 +4930,7 @@
       <c r="D298" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E298" s="12"/>
-      <c r="F298" s="12"/>
-      <c r="G298" s="12"/>
-      <c r="H298" s="12"/>
-      <c r="I298" s="12"/>
       <c r="J298" s="6"/>
-      <c r="K298" s="12"/>
-      <c r="L298" s="12"/>
-      <c r="M298" s="12"/>
-      <c r="N298" s="12"/>
-      <c r="O298" s="12"/>
-      <c r="P298" s="12"/>
-      <c r="Q298" s="12"/>
-      <c r="R298" s="12"/>
       <c r="S298" s="6"/>
       <c r="T298" s="6"/>
     </row>
@@ -6758,20 +4940,7 @@
       <c r="D299" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="E299" s="12"/>
-      <c r="F299" s="12"/>
-      <c r="G299" s="12"/>
-      <c r="H299" s="12"/>
-      <c r="I299" s="12"/>
       <c r="J299" s="6"/>
-      <c r="K299" s="12"/>
-      <c r="L299" s="12"/>
-      <c r="M299" s="12"/>
-      <c r="N299" s="12"/>
-      <c r="O299" s="12"/>
-      <c r="P299" s="12"/>
-      <c r="Q299" s="12"/>
-      <c r="R299" s="12"/>
       <c r="S299" s="6"/>
       <c r="T299" s="6"/>
     </row>
@@ -6781,20 +4950,7 @@
       <c r="D300" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="E300" s="12"/>
-      <c r="F300" s="12"/>
-      <c r="G300" s="12"/>
-      <c r="H300" s="12"/>
-      <c r="I300" s="12"/>
       <c r="J300" s="6"/>
-      <c r="K300" s="12"/>
-      <c r="L300" s="12"/>
-      <c r="M300" s="12"/>
-      <c r="N300" s="12"/>
-      <c r="O300" s="12"/>
-      <c r="P300" s="12"/>
-      <c r="Q300" s="12"/>
-      <c r="R300" s="12"/>
       <c r="S300" s="6"/>
       <c r="T300" s="6"/>
     </row>
@@ -6804,20 +4960,7 @@
       <c r="D301" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="E301" s="12"/>
-      <c r="F301" s="12"/>
-      <c r="G301" s="12"/>
-      <c r="H301" s="12"/>
-      <c r="I301" s="12"/>
       <c r="J301" s="6"/>
-      <c r="K301" s="12"/>
-      <c r="L301" s="12"/>
-      <c r="M301" s="12"/>
-      <c r="N301" s="12"/>
-      <c r="O301" s="12"/>
-      <c r="P301" s="12"/>
-      <c r="Q301" s="12"/>
-      <c r="R301" s="12"/>
       <c r="S301" s="6"/>
       <c r="T301" s="6"/>
     </row>
@@ -6827,20 +4970,7 @@
       <c r="D302" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="E302" s="12"/>
-      <c r="F302" s="12"/>
-      <c r="G302" s="12"/>
-      <c r="H302" s="12"/>
-      <c r="I302" s="12"/>
       <c r="J302" s="6"/>
-      <c r="K302" s="12"/>
-      <c r="L302" s="12"/>
-      <c r="M302" s="12"/>
-      <c r="N302" s="12"/>
-      <c r="O302" s="12"/>
-      <c r="P302" s="12"/>
-      <c r="Q302" s="12"/>
-      <c r="R302" s="12"/>
       <c r="S302" s="6"/>
       <c r="T302" s="6"/>
     </row>
@@ -6850,20 +4980,7 @@
       <c r="D303" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="E303" s="12"/>
-      <c r="F303" s="12"/>
-      <c r="G303" s="12"/>
-      <c r="H303" s="12"/>
-      <c r="I303" s="12"/>
       <c r="J303" s="6"/>
-      <c r="K303" s="12"/>
-      <c r="L303" s="12"/>
-      <c r="M303" s="12"/>
-      <c r="N303" s="12"/>
-      <c r="O303" s="12"/>
-      <c r="P303" s="12"/>
-      <c r="Q303" s="12"/>
-      <c r="R303" s="12"/>
       <c r="S303" s="6"/>
       <c r="T303" s="6"/>
     </row>
@@ -6873,20 +4990,7 @@
       <c r="D304" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="E304" s="12"/>
-      <c r="F304" s="12"/>
-      <c r="G304" s="12"/>
-      <c r="H304" s="12"/>
-      <c r="I304" s="12"/>
       <c r="J304" s="6"/>
-      <c r="K304" s="12"/>
-      <c r="L304" s="12"/>
-      <c r="M304" s="12"/>
-      <c r="N304" s="12"/>
-      <c r="O304" s="12"/>
-      <c r="P304" s="12"/>
-      <c r="Q304" s="12"/>
-      <c r="R304" s="12"/>
       <c r="S304" s="6"/>
       <c r="T304" s="6"/>
     </row>
@@ -6896,20 +5000,7 @@
       <c r="D305" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="E305" s="12"/>
-      <c r="F305" s="12"/>
-      <c r="G305" s="12"/>
-      <c r="H305" s="12"/>
-      <c r="I305" s="12"/>
       <c r="J305" s="6"/>
-      <c r="K305" s="12"/>
-      <c r="L305" s="12"/>
-      <c r="M305" s="12"/>
-      <c r="N305" s="12"/>
-      <c r="O305" s="12"/>
-      <c r="P305" s="12"/>
-      <c r="Q305" s="12"/>
-      <c r="R305" s="12"/>
       <c r="S305" s="6"/>
       <c r="T305" s="6"/>
     </row>
@@ -6919,20 +5010,7 @@
       <c r="D306" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="E306" s="12"/>
-      <c r="F306" s="12"/>
-      <c r="G306" s="12"/>
-      <c r="H306" s="12"/>
-      <c r="I306" s="12"/>
       <c r="J306" s="6"/>
-      <c r="K306" s="12"/>
-      <c r="L306" s="12"/>
-      <c r="M306" s="12"/>
-      <c r="N306" s="12"/>
-      <c r="O306" s="12"/>
-      <c r="P306" s="12"/>
-      <c r="Q306" s="12"/>
-      <c r="R306" s="12"/>
       <c r="S306" s="6"/>
       <c r="T306" s="6"/>
     </row>
@@ -6942,20 +5020,7 @@
       <c r="D307" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="E307" s="12"/>
-      <c r="F307" s="12"/>
-      <c r="G307" s="12"/>
-      <c r="H307" s="12"/>
-      <c r="I307" s="12"/>
       <c r="J307" s="6"/>
-      <c r="K307" s="12"/>
-      <c r="L307" s="12"/>
-      <c r="M307" s="12"/>
-      <c r="N307" s="12"/>
-      <c r="O307" s="12"/>
-      <c r="P307" s="12"/>
-      <c r="Q307" s="12"/>
-      <c r="R307" s="12"/>
       <c r="S307" s="6"/>
       <c r="T307" s="6"/>
     </row>
@@ -6965,20 +5030,7 @@
       <c r="D308" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="E308" s="12"/>
-      <c r="F308" s="12"/>
-      <c r="G308" s="12"/>
-      <c r="H308" s="12"/>
-      <c r="I308" s="12"/>
       <c r="J308" s="6"/>
-      <c r="K308" s="12"/>
-      <c r="L308" s="12"/>
-      <c r="M308" s="12"/>
-      <c r="N308" s="12"/>
-      <c r="O308" s="12"/>
-      <c r="P308" s="12"/>
-      <c r="Q308" s="12"/>
-      <c r="R308" s="12"/>
       <c r="S308" s="6"/>
       <c r="T308" s="6"/>
     </row>
@@ -6988,20 +5040,7 @@
       <c r="D309" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="E309" s="12"/>
-      <c r="F309" s="12"/>
-      <c r="G309" s="12"/>
-      <c r="H309" s="12"/>
-      <c r="I309" s="12"/>
       <c r="J309" s="6"/>
-      <c r="K309" s="12"/>
-      <c r="L309" s="12"/>
-      <c r="M309" s="12"/>
-      <c r="N309" s="12"/>
-      <c r="O309" s="12"/>
-      <c r="P309" s="12"/>
-      <c r="Q309" s="12"/>
-      <c r="R309" s="12"/>
       <c r="S309" s="6"/>
       <c r="T309" s="6"/>
     </row>
@@ -7011,20 +5050,7 @@
       <c r="D310" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="E310" s="12"/>
-      <c r="F310" s="12"/>
-      <c r="G310" s="12"/>
-      <c r="H310" s="12"/>
-      <c r="I310" s="12"/>
       <c r="J310" s="6"/>
-      <c r="K310" s="12"/>
-      <c r="L310" s="12"/>
-      <c r="M310" s="12"/>
-      <c r="N310" s="12"/>
-      <c r="O310" s="12"/>
-      <c r="P310" s="12"/>
-      <c r="Q310" s="12"/>
-      <c r="R310" s="12"/>
       <c r="S310" s="6"/>
       <c r="T310" s="6"/>
     </row>
@@ -7034,20 +5060,7 @@
       <c r="D311" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="E311" s="12"/>
-      <c r="F311" s="12"/>
-      <c r="G311" s="12"/>
-      <c r="H311" s="12"/>
-      <c r="I311" s="12"/>
       <c r="J311" s="6"/>
-      <c r="K311" s="12"/>
-      <c r="L311" s="12"/>
-      <c r="M311" s="12"/>
-      <c r="N311" s="12"/>
-      <c r="O311" s="12"/>
-      <c r="P311" s="12"/>
-      <c r="Q311" s="12"/>
-      <c r="R311" s="12"/>
       <c r="S311" s="6"/>
       <c r="T311" s="6"/>
     </row>
@@ -7057,20 +5070,7 @@
       <c r="D312" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="E312" s="12"/>
-      <c r="F312" s="12"/>
-      <c r="G312" s="12"/>
-      <c r="H312" s="12"/>
-      <c r="I312" s="12"/>
       <c r="J312" s="6"/>
-      <c r="K312" s="12"/>
-      <c r="L312" s="12"/>
-      <c r="M312" s="12"/>
-      <c r="N312" s="12"/>
-      <c r="O312" s="12"/>
-      <c r="P312" s="12"/>
-      <c r="Q312" s="12"/>
-      <c r="R312" s="12"/>
       <c r="S312" s="6"/>
       <c r="T312" s="6"/>
     </row>
@@ -7080,20 +5080,7 @@
       <c r="D313" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="E313" s="12"/>
-      <c r="F313" s="12"/>
-      <c r="G313" s="12"/>
-      <c r="H313" s="12"/>
-      <c r="I313" s="12"/>
       <c r="J313" s="6"/>
-      <c r="K313" s="12"/>
-      <c r="L313" s="12"/>
-      <c r="M313" s="12"/>
-      <c r="N313" s="12"/>
-      <c r="O313" s="12"/>
-      <c r="P313" s="12"/>
-      <c r="Q313" s="12"/>
-      <c r="R313" s="12"/>
       <c r="S313" s="6"/>
       <c r="T313" s="6"/>
     </row>
@@ -7103,20 +5090,7 @@
       <c r="D314" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="E314" s="12"/>
-      <c r="F314" s="12"/>
-      <c r="G314" s="12"/>
-      <c r="H314" s="12"/>
-      <c r="I314" s="12"/>
       <c r="J314" s="6"/>
-      <c r="K314" s="12"/>
-      <c r="L314" s="12"/>
-      <c r="M314" s="12"/>
-      <c r="N314" s="12"/>
-      <c r="O314" s="12"/>
-      <c r="P314" s="12"/>
-      <c r="Q314" s="12"/>
-      <c r="R314" s="12"/>
       <c r="S314" s="6"/>
       <c r="T314" s="6"/>
     </row>
@@ -7126,20 +5100,7 @@
       <c r="D315" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="E315" s="12"/>
-      <c r="F315" s="12"/>
-      <c r="G315" s="12"/>
-      <c r="H315" s="12"/>
-      <c r="I315" s="12"/>
       <c r="J315" s="6"/>
-      <c r="K315" s="12"/>
-      <c r="L315" s="12"/>
-      <c r="M315" s="12"/>
-      <c r="N315" s="12"/>
-      <c r="O315" s="12"/>
-      <c r="P315" s="12"/>
-      <c r="Q315" s="12"/>
-      <c r="R315" s="12"/>
       <c r="S315" s="6"/>
       <c r="T315" s="6"/>
     </row>
@@ -7149,20 +5110,7 @@
       <c r="D316" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="E316" s="12"/>
-      <c r="F316" s="12"/>
-      <c r="G316" s="12"/>
-      <c r="H316" s="12"/>
-      <c r="I316" s="12"/>
       <c r="J316" s="6"/>
-      <c r="K316" s="12"/>
-      <c r="L316" s="12"/>
-      <c r="M316" s="12"/>
-      <c r="N316" s="12"/>
-      <c r="O316" s="12"/>
-      <c r="P316" s="12"/>
-      <c r="Q316" s="12"/>
-      <c r="R316" s="12"/>
       <c r="S316" s="6"/>
       <c r="T316" s="6"/>
     </row>
@@ -7172,20 +5120,7 @@
       <c r="D317" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="E317" s="12"/>
-      <c r="F317" s="12"/>
-      <c r="G317" s="12"/>
-      <c r="H317" s="12"/>
-      <c r="I317" s="12"/>
       <c r="J317" s="6"/>
-      <c r="K317" s="12"/>
-      <c r="L317" s="12"/>
-      <c r="M317" s="12"/>
-      <c r="N317" s="12"/>
-      <c r="O317" s="12"/>
-      <c r="P317" s="12"/>
-      <c r="Q317" s="12"/>
-      <c r="R317" s="12"/>
       <c r="S317" s="6"/>
       <c r="T317" s="6"/>
     </row>
@@ -7195,20 +5130,7 @@
       <c r="D318" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="E318" s="12"/>
-      <c r="F318" s="12"/>
-      <c r="G318" s="12"/>
-      <c r="H318" s="12"/>
-      <c r="I318" s="12"/>
       <c r="J318" s="6"/>
-      <c r="K318" s="12"/>
-      <c r="L318" s="12"/>
-      <c r="M318" s="12"/>
-      <c r="N318" s="12"/>
-      <c r="O318" s="12"/>
-      <c r="P318" s="12"/>
-      <c r="Q318" s="12"/>
-      <c r="R318" s="12"/>
       <c r="S318" s="6"/>
       <c r="T318" s="6"/>
     </row>
@@ -7218,20 +5140,7 @@
       <c r="D319" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="E319" s="12"/>
-      <c r="F319" s="12"/>
-      <c r="G319" s="12"/>
-      <c r="H319" s="12"/>
-      <c r="I319" s="12"/>
       <c r="J319" s="6"/>
-      <c r="K319" s="12"/>
-      <c r="L319" s="12"/>
-      <c r="M319" s="12"/>
-      <c r="N319" s="12"/>
-      <c r="O319" s="12"/>
-      <c r="P319" s="12"/>
-      <c r="Q319" s="12"/>
-      <c r="R319" s="12"/>
       <c r="S319" s="6"/>
       <c r="T319" s="6"/>
     </row>
@@ -7241,20 +5150,7 @@
       <c r="D320" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E320" s="12"/>
-      <c r="F320" s="12"/>
-      <c r="G320" s="12"/>
-      <c r="H320" s="12"/>
-      <c r="I320" s="12"/>
       <c r="J320" s="6"/>
-      <c r="K320" s="12"/>
-      <c r="L320" s="12"/>
-      <c r="M320" s="12"/>
-      <c r="N320" s="12"/>
-      <c r="O320" s="12"/>
-      <c r="P320" s="12"/>
-      <c r="Q320" s="12"/>
-      <c r="R320" s="12"/>
       <c r="S320" s="6"/>
       <c r="T320" s="6"/>
     </row>
@@ -7264,20 +5160,7 @@
       <c r="D321" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="E321" s="12"/>
-      <c r="F321" s="12"/>
-      <c r="G321" s="12"/>
-      <c r="H321" s="12"/>
-      <c r="I321" s="12"/>
       <c r="J321" s="6"/>
-      <c r="K321" s="12"/>
-      <c r="L321" s="12"/>
-      <c r="M321" s="12"/>
-      <c r="N321" s="12"/>
-      <c r="O321" s="12"/>
-      <c r="P321" s="12"/>
-      <c r="Q321" s="12"/>
-      <c r="R321" s="12"/>
       <c r="S321" s="6"/>
       <c r="T321" s="6"/>
     </row>
@@ -7287,20 +5170,7 @@
       <c r="D322" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E322" s="12"/>
-      <c r="F322" s="12"/>
-      <c r="G322" s="12"/>
-      <c r="H322" s="12"/>
-      <c r="I322" s="12"/>
       <c r="J322" s="6"/>
-      <c r="K322" s="12"/>
-      <c r="L322" s="12"/>
-      <c r="M322" s="12"/>
-      <c r="N322" s="12"/>
-      <c r="O322" s="12"/>
-      <c r="P322" s="12"/>
-      <c r="Q322" s="12"/>
-      <c r="R322" s="12"/>
       <c r="S322" s="6"/>
       <c r="T322" s="6"/>
     </row>
@@ -7310,20 +5180,7 @@
       <c r="D323" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="E323" s="12"/>
-      <c r="F323" s="12"/>
-      <c r="G323" s="12"/>
-      <c r="H323" s="12"/>
-      <c r="I323" s="12"/>
       <c r="J323" s="6"/>
-      <c r="K323" s="12"/>
-      <c r="L323" s="12"/>
-      <c r="M323" s="12"/>
-      <c r="N323" s="12"/>
-      <c r="O323" s="12"/>
-      <c r="P323" s="12"/>
-      <c r="Q323" s="12"/>
-      <c r="R323" s="12"/>
       <c r="S323" s="6"/>
       <c r="T323" s="6"/>
     </row>
@@ -7333,20 +5190,7 @@
       <c r="D324" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="E324" s="12"/>
-      <c r="F324" s="12"/>
-      <c r="G324" s="12"/>
-      <c r="H324" s="12"/>
-      <c r="I324" s="12"/>
       <c r="J324" s="6"/>
-      <c r="K324" s="12"/>
-      <c r="L324" s="12"/>
-      <c r="M324" s="12"/>
-      <c r="N324" s="12"/>
-      <c r="O324" s="12"/>
-      <c r="P324" s="12"/>
-      <c r="Q324" s="12"/>
-      <c r="R324" s="12"/>
       <c r="S324" s="6"/>
       <c r="T324" s="6"/>
     </row>
@@ -7356,20 +5200,7 @@
       <c r="D325" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="E325" s="12"/>
-      <c r="F325" s="12"/>
-      <c r="G325" s="12"/>
-      <c r="H325" s="12"/>
-      <c r="I325" s="12"/>
       <c r="J325" s="6"/>
-      <c r="K325" s="12"/>
-      <c r="L325" s="12"/>
-      <c r="M325" s="12"/>
-      <c r="N325" s="12"/>
-      <c r="O325" s="12"/>
-      <c r="P325" s="12"/>
-      <c r="Q325" s="12"/>
-      <c r="R325" s="12"/>
       <c r="S325" s="6"/>
       <c r="T325" s="6"/>
     </row>
@@ -7379,20 +5210,7 @@
       <c r="D326" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="E326" s="12"/>
-      <c r="F326" s="12"/>
-      <c r="G326" s="12"/>
-      <c r="H326" s="12"/>
-      <c r="I326" s="12"/>
       <c r="J326" s="6"/>
-      <c r="K326" s="12"/>
-      <c r="L326" s="12"/>
-      <c r="M326" s="12"/>
-      <c r="N326" s="12"/>
-      <c r="O326" s="12"/>
-      <c r="P326" s="12"/>
-      <c r="Q326" s="12"/>
-      <c r="R326" s="12"/>
       <c r="S326" s="6"/>
       <c r="T326" s="6"/>
     </row>
@@ -7402,20 +5220,7 @@
       <c r="D327" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E327" s="12"/>
-      <c r="F327" s="12"/>
-      <c r="G327" s="12"/>
-      <c r="H327" s="12"/>
-      <c r="I327" s="12"/>
       <c r="J327" s="6"/>
-      <c r="K327" s="12"/>
-      <c r="L327" s="12"/>
-      <c r="M327" s="12"/>
-      <c r="N327" s="12"/>
-      <c r="O327" s="12"/>
-      <c r="P327" s="12"/>
-      <c r="Q327" s="12"/>
-      <c r="R327" s="12"/>
       <c r="S327" s="6"/>
       <c r="T327" s="6"/>
     </row>
@@ -7425,20 +5230,7 @@
       <c r="D328" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="E328" s="12"/>
-      <c r="F328" s="12"/>
-      <c r="G328" s="12"/>
-      <c r="H328" s="12"/>
-      <c r="I328" s="12"/>
       <c r="J328" s="6"/>
-      <c r="K328" s="12"/>
-      <c r="L328" s="12"/>
-      <c r="M328" s="12"/>
-      <c r="N328" s="12"/>
-      <c r="O328" s="12"/>
-      <c r="P328" s="12"/>
-      <c r="Q328" s="12"/>
-      <c r="R328" s="12"/>
       <c r="S328" s="6"/>
       <c r="T328" s="6"/>
     </row>
@@ -7448,20 +5240,7 @@
       <c r="D329" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="E329" s="12"/>
-      <c r="F329" s="12"/>
-      <c r="G329" s="12"/>
-      <c r="H329" s="12"/>
-      <c r="I329" s="12"/>
       <c r="J329" s="6"/>
-      <c r="K329" s="12"/>
-      <c r="L329" s="12"/>
-      <c r="M329" s="12"/>
-      <c r="N329" s="12"/>
-      <c r="O329" s="12"/>
-      <c r="P329" s="12"/>
-      <c r="Q329" s="12"/>
-      <c r="R329" s="12"/>
       <c r="S329" s="6"/>
       <c r="T329" s="6"/>
     </row>
@@ -7471,20 +5250,7 @@
       <c r="D330" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E330" s="12"/>
-      <c r="F330" s="12"/>
-      <c r="G330" s="12"/>
-      <c r="H330" s="12"/>
-      <c r="I330" s="12"/>
       <c r="J330" s="6"/>
-      <c r="K330" s="12"/>
-      <c r="L330" s="12"/>
-      <c r="M330" s="12"/>
-      <c r="N330" s="12"/>
-      <c r="O330" s="12"/>
-      <c r="P330" s="12"/>
-      <c r="Q330" s="12"/>
-      <c r="R330" s="12"/>
       <c r="S330" s="6"/>
       <c r="T330" s="6"/>
     </row>
@@ -7494,20 +5260,7 @@
       <c r="D331" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="E331" s="12"/>
-      <c r="F331" s="12"/>
-      <c r="G331" s="12"/>
-      <c r="H331" s="12"/>
-      <c r="I331" s="12"/>
       <c r="J331" s="6"/>
-      <c r="K331" s="12"/>
-      <c r="L331" s="12"/>
-      <c r="M331" s="12"/>
-      <c r="N331" s="12"/>
-      <c r="O331" s="12"/>
-      <c r="P331" s="12"/>
-      <c r="Q331" s="12"/>
-      <c r="R331" s="12"/>
       <c r="S331" s="6"/>
       <c r="T331" s="6"/>
     </row>
@@ -7517,20 +5270,7 @@
       <c r="D332" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="E332" s="12"/>
-      <c r="F332" s="12"/>
-      <c r="G332" s="12"/>
-      <c r="H332" s="12"/>
-      <c r="I332" s="12"/>
       <c r="J332" s="6"/>
-      <c r="K332" s="12"/>
-      <c r="L332" s="12"/>
-      <c r="M332" s="12"/>
-      <c r="N332" s="12"/>
-      <c r="O332" s="12"/>
-      <c r="P332" s="12"/>
-      <c r="Q332" s="12"/>
-      <c r="R332" s="12"/>
       <c r="S332" s="6"/>
       <c r="T332" s="6"/>
     </row>
@@ -7540,20 +5280,7 @@
       <c r="D333" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="E333" s="12"/>
-      <c r="F333" s="12"/>
-      <c r="G333" s="12"/>
-      <c r="H333" s="12"/>
-      <c r="I333" s="12"/>
       <c r="J333" s="6"/>
-      <c r="K333" s="12"/>
-      <c r="L333" s="12"/>
-      <c r="M333" s="12"/>
-      <c r="N333" s="12"/>
-      <c r="O333" s="12"/>
-      <c r="P333" s="12"/>
-      <c r="Q333" s="12"/>
-      <c r="R333" s="12"/>
       <c r="S333" s="6"/>
       <c r="T333" s="6"/>
     </row>
@@ -7563,20 +5290,7 @@
       <c r="D334" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="E334" s="12"/>
-      <c r="F334" s="12"/>
-      <c r="G334" s="12"/>
-      <c r="H334" s="12"/>
-      <c r="I334" s="12"/>
       <c r="J334" s="6"/>
-      <c r="K334" s="12"/>
-      <c r="L334" s="12"/>
-      <c r="M334" s="12"/>
-      <c r="N334" s="12"/>
-      <c r="O334" s="12"/>
-      <c r="P334" s="12"/>
-      <c r="Q334" s="12"/>
-      <c r="R334" s="12"/>
       <c r="S334" s="6"/>
       <c r="T334" s="6"/>
     </row>
@@ -7586,20 +5300,7 @@
       <c r="D335" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="E335" s="12"/>
-      <c r="F335" s="12"/>
-      <c r="G335" s="12"/>
-      <c r="H335" s="12"/>
-      <c r="I335" s="12"/>
       <c r="J335" s="6"/>
-      <c r="K335" s="12"/>
-      <c r="L335" s="12"/>
-      <c r="M335" s="12"/>
-      <c r="N335" s="12"/>
-      <c r="O335" s="12"/>
-      <c r="P335" s="12"/>
-      <c r="Q335" s="12"/>
-      <c r="R335" s="12"/>
       <c r="S335" s="6"/>
       <c r="T335" s="6"/>
     </row>
@@ -7609,20 +5310,7 @@
       <c r="D336" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="E336" s="12"/>
-      <c r="F336" s="12"/>
-      <c r="G336" s="12"/>
-      <c r="H336" s="12"/>
-      <c r="I336" s="12"/>
       <c r="J336" s="6"/>
-      <c r="K336" s="12"/>
-      <c r="L336" s="12"/>
-      <c r="M336" s="12"/>
-      <c r="N336" s="12"/>
-      <c r="O336" s="12"/>
-      <c r="P336" s="12"/>
-      <c r="Q336" s="12"/>
-      <c r="R336" s="12"/>
       <c r="S336" s="6"/>
       <c r="T336" s="6"/>
     </row>
@@ -7632,20 +5320,7 @@
       <c r="D337" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="E337" s="12"/>
-      <c r="F337" s="12"/>
-      <c r="G337" s="12"/>
-      <c r="H337" s="12"/>
-      <c r="I337" s="12"/>
       <c r="J337" s="6"/>
-      <c r="K337" s="12"/>
-      <c r="L337" s="12"/>
-      <c r="M337" s="12"/>
-      <c r="N337" s="12"/>
-      <c r="O337" s="12"/>
-      <c r="P337" s="12"/>
-      <c r="Q337" s="12"/>
-      <c r="R337" s="12"/>
       <c r="S337" s="6"/>
       <c r="T337" s="6"/>
     </row>
@@ -7655,20 +5330,7 @@
       <c r="D338" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="E338" s="12"/>
-      <c r="F338" s="12"/>
-      <c r="G338" s="12"/>
-      <c r="H338" s="12"/>
-      <c r="I338" s="12"/>
       <c r="J338" s="6"/>
-      <c r="K338" s="12"/>
-      <c r="L338" s="12"/>
-      <c r="M338" s="12"/>
-      <c r="N338" s="12"/>
-      <c r="O338" s="12"/>
-      <c r="P338" s="12"/>
-      <c r="Q338" s="12"/>
-      <c r="R338" s="12"/>
       <c r="S338" s="6"/>
       <c r="T338" s="6"/>
     </row>
@@ -7678,20 +5340,7 @@
       <c r="D339" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="E339" s="12"/>
-      <c r="F339" s="12"/>
-      <c r="G339" s="12"/>
-      <c r="H339" s="12"/>
-      <c r="I339" s="12"/>
       <c r="J339" s="6"/>
-      <c r="K339" s="12"/>
-      <c r="L339" s="12"/>
-      <c r="M339" s="12"/>
-      <c r="N339" s="12"/>
-      <c r="O339" s="12"/>
-      <c r="P339" s="12"/>
-      <c r="Q339" s="12"/>
-      <c r="R339" s="12"/>
       <c r="S339" s="6"/>
       <c r="T339" s="6"/>
     </row>
@@ -7701,20 +5350,7 @@
       <c r="D340" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="E340" s="12"/>
-      <c r="F340" s="12"/>
-      <c r="G340" s="12"/>
-      <c r="H340" s="12"/>
-      <c r="I340" s="12"/>
       <c r="J340" s="6"/>
-      <c r="K340" s="12"/>
-      <c r="L340" s="12"/>
-      <c r="M340" s="12"/>
-      <c r="N340" s="12"/>
-      <c r="O340" s="12"/>
-      <c r="P340" s="12"/>
-      <c r="Q340" s="12"/>
-      <c r="R340" s="12"/>
       <c r="S340" s="6"/>
       <c r="T340" s="6"/>
     </row>
@@ -7724,20 +5360,7 @@
       <c r="D341" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="E341" s="12"/>
-      <c r="F341" s="12"/>
-      <c r="G341" s="12"/>
-      <c r="H341" s="12"/>
-      <c r="I341" s="12"/>
       <c r="J341" s="6"/>
-      <c r="K341" s="12"/>
-      <c r="L341" s="12"/>
-      <c r="M341" s="12"/>
-      <c r="N341" s="12"/>
-      <c r="O341" s="12"/>
-      <c r="P341" s="12"/>
-      <c r="Q341" s="12"/>
-      <c r="R341" s="12"/>
       <c r="S341" s="6"/>
       <c r="T341" s="6"/>
     </row>
@@ -7747,20 +5370,7 @@
       <c r="D342" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="E342" s="12"/>
-      <c r="F342" s="12"/>
-      <c r="G342" s="12"/>
-      <c r="H342" s="12"/>
-      <c r="I342" s="12"/>
       <c r="J342" s="6"/>
-      <c r="K342" s="12"/>
-      <c r="L342" s="12"/>
-      <c r="M342" s="12"/>
-      <c r="N342" s="12"/>
-      <c r="O342" s="12"/>
-      <c r="P342" s="12"/>
-      <c r="Q342" s="12"/>
-      <c r="R342" s="12"/>
       <c r="S342" s="6"/>
       <c r="T342" s="6"/>
     </row>
@@ -7770,20 +5380,7 @@
       <c r="D343" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="E343" s="12"/>
-      <c r="F343" s="12"/>
-      <c r="G343" s="12"/>
-      <c r="H343" s="12"/>
-      <c r="I343" s="12"/>
       <c r="J343" s="6"/>
-      <c r="K343" s="12"/>
-      <c r="L343" s="12"/>
-      <c r="M343" s="12"/>
-      <c r="N343" s="12"/>
-      <c r="O343" s="12"/>
-      <c r="P343" s="12"/>
-      <c r="Q343" s="12"/>
-      <c r="R343" s="12"/>
       <c r="S343" s="6"/>
       <c r="T343" s="6"/>
     </row>
@@ -7793,20 +5390,7 @@
       <c r="D344" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="E344" s="12"/>
-      <c r="F344" s="12"/>
-      <c r="G344" s="12"/>
-      <c r="H344" s="12"/>
-      <c r="I344" s="12"/>
       <c r="J344" s="6"/>
-      <c r="K344" s="12"/>
-      <c r="L344" s="12"/>
-      <c r="M344" s="12"/>
-      <c r="N344" s="12"/>
-      <c r="O344" s="12"/>
-      <c r="P344" s="12"/>
-      <c r="Q344" s="12"/>
-      <c r="R344" s="12"/>
       <c r="S344" s="6"/>
       <c r="T344" s="6"/>
     </row>
@@ -7816,20 +5400,7 @@
       <c r="D345" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="E345" s="12"/>
-      <c r="F345" s="12"/>
-      <c r="G345" s="12"/>
-      <c r="H345" s="12"/>
-      <c r="I345" s="12"/>
       <c r="J345" s="6"/>
-      <c r="K345" s="12"/>
-      <c r="L345" s="12"/>
-      <c r="M345" s="12"/>
-      <c r="N345" s="12"/>
-      <c r="O345" s="12"/>
-      <c r="P345" s="12"/>
-      <c r="Q345" s="12"/>
-      <c r="R345" s="12"/>
       <c r="S345" s="6"/>
       <c r="T345" s="6"/>
     </row>
@@ -7839,20 +5410,7 @@
       <c r="D346" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="E346" s="12"/>
-      <c r="F346" s="12"/>
-      <c r="G346" s="12"/>
-      <c r="H346" s="12"/>
-      <c r="I346" s="12"/>
       <c r="J346" s="6"/>
-      <c r="K346" s="12"/>
-      <c r="L346" s="12"/>
-      <c r="M346" s="12"/>
-      <c r="N346" s="12"/>
-      <c r="O346" s="12"/>
-      <c r="P346" s="12"/>
-      <c r="Q346" s="12"/>
-      <c r="R346" s="12"/>
       <c r="S346" s="6"/>
       <c r="T346" s="6"/>
     </row>
@@ -7862,20 +5420,7 @@
       <c r="D347" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="E347" s="12"/>
-      <c r="F347" s="12"/>
-      <c r="G347" s="12"/>
-      <c r="H347" s="12"/>
-      <c r="I347" s="12"/>
       <c r="J347" s="6"/>
-      <c r="K347" s="12"/>
-      <c r="L347" s="12"/>
-      <c r="M347" s="12"/>
-      <c r="N347" s="12"/>
-      <c r="O347" s="12"/>
-      <c r="P347" s="12"/>
-      <c r="Q347" s="12"/>
-      <c r="R347" s="12"/>
       <c r="S347" s="6"/>
       <c r="T347" s="6"/>
     </row>
@@ -7885,20 +5430,7 @@
       <c r="D348" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="E348" s="12"/>
-      <c r="F348" s="12"/>
-      <c r="G348" s="12"/>
-      <c r="H348" s="12"/>
-      <c r="I348" s="12"/>
       <c r="J348" s="6"/>
-      <c r="K348" s="12"/>
-      <c r="L348" s="12"/>
-      <c r="M348" s="12"/>
-      <c r="N348" s="12"/>
-      <c r="O348" s="12"/>
-      <c r="P348" s="12"/>
-      <c r="Q348" s="12"/>
-      <c r="R348" s="12"/>
       <c r="S348" s="6"/>
       <c r="T348" s="6"/>
     </row>
@@ -7908,20 +5440,7 @@
       <c r="D349" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="E349" s="12"/>
-      <c r="F349" s="12"/>
-      <c r="G349" s="12"/>
-      <c r="H349" s="12"/>
-      <c r="I349" s="12"/>
       <c r="J349" s="6"/>
-      <c r="K349" s="12"/>
-      <c r="L349" s="12"/>
-      <c r="M349" s="12"/>
-      <c r="N349" s="12"/>
-      <c r="O349" s="12"/>
-      <c r="P349" s="12"/>
-      <c r="Q349" s="12"/>
-      <c r="R349" s="12"/>
       <c r="S349" s="6"/>
       <c r="T349" s="6"/>
     </row>
@@ -7931,20 +5450,7 @@
       <c r="D350" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="E350" s="12"/>
-      <c r="F350" s="12"/>
-      <c r="G350" s="12"/>
-      <c r="H350" s="12"/>
-      <c r="I350" s="12"/>
       <c r="J350" s="6"/>
-      <c r="K350" s="12"/>
-      <c r="L350" s="12"/>
-      <c r="M350" s="12"/>
-      <c r="N350" s="12"/>
-      <c r="O350" s="12"/>
-      <c r="P350" s="12"/>
-      <c r="Q350" s="12"/>
-      <c r="R350" s="12"/>
       <c r="S350" s="6"/>
       <c r="T350" s="6"/>
     </row>
@@ -7954,20 +5460,7 @@
       <c r="D351" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="E351" s="12"/>
-      <c r="F351" s="12"/>
-      <c r="G351" s="12"/>
-      <c r="H351" s="12"/>
-      <c r="I351" s="12"/>
       <c r="J351" s="6"/>
-      <c r="K351" s="12"/>
-      <c r="L351" s="12"/>
-      <c r="M351" s="12"/>
-      <c r="N351" s="12"/>
-      <c r="O351" s="12"/>
-      <c r="P351" s="12"/>
-      <c r="Q351" s="12"/>
-      <c r="R351" s="12"/>
       <c r="S351" s="6"/>
       <c r="T351" s="6"/>
     </row>
@@ -7977,20 +5470,7 @@
       <c r="D352" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="E352" s="12"/>
-      <c r="F352" s="12"/>
-      <c r="G352" s="12"/>
-      <c r="H352" s="12"/>
-      <c r="I352" s="12"/>
       <c r="J352" s="6"/>
-      <c r="K352" s="12"/>
-      <c r="L352" s="12"/>
-      <c r="M352" s="12"/>
-      <c r="N352" s="12"/>
-      <c r="O352" s="12"/>
-      <c r="P352" s="12"/>
-      <c r="Q352" s="12"/>
-      <c r="R352" s="12"/>
       <c r="S352" s="6"/>
       <c r="T352" s="6"/>
     </row>
@@ -8000,20 +5480,7 @@
       <c r="D353" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="E353" s="12"/>
-      <c r="F353" s="12"/>
-      <c r="G353" s="12"/>
-      <c r="H353" s="12"/>
-      <c r="I353" s="12"/>
       <c r="J353" s="6"/>
-      <c r="K353" s="12"/>
-      <c r="L353" s="12"/>
-      <c r="M353" s="12"/>
-      <c r="N353" s="12"/>
-      <c r="O353" s="12"/>
-      <c r="P353" s="12"/>
-      <c r="Q353" s="12"/>
-      <c r="R353" s="12"/>
       <c r="S353" s="6"/>
       <c r="T353" s="6"/>
     </row>
@@ -8023,20 +5490,7 @@
       <c r="D354" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E354" s="12"/>
-      <c r="F354" s="12"/>
-      <c r="G354" s="12"/>
-      <c r="H354" s="12"/>
-      <c r="I354" s="12"/>
       <c r="J354" s="6"/>
-      <c r="K354" s="12"/>
-      <c r="L354" s="12"/>
-      <c r="M354" s="12"/>
-      <c r="N354" s="12"/>
-      <c r="O354" s="12"/>
-      <c r="P354" s="12"/>
-      <c r="Q354" s="12"/>
-      <c r="R354" s="12"/>
       <c r="S354" s="6"/>
       <c r="T354" s="6"/>
     </row>
@@ -8046,20 +5500,7 @@
       <c r="D355" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="E355" s="12"/>
-      <c r="F355" s="12"/>
-      <c r="G355" s="12"/>
-      <c r="H355" s="12"/>
-      <c r="I355" s="12"/>
       <c r="J355" s="6"/>
-      <c r="K355" s="12"/>
-      <c r="L355" s="12"/>
-      <c r="M355" s="12"/>
-      <c r="N355" s="12"/>
-      <c r="O355" s="12"/>
-      <c r="P355" s="12"/>
-      <c r="Q355" s="12"/>
-      <c r="R355" s="12"/>
       <c r="S355" s="6"/>
       <c r="T355" s="6"/>
     </row>
@@ -8069,20 +5510,7 @@
       <c r="D356" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="E356" s="12"/>
-      <c r="F356" s="12"/>
-      <c r="G356" s="12"/>
-      <c r="H356" s="12"/>
-      <c r="I356" s="12"/>
       <c r="J356" s="6"/>
-      <c r="K356" s="12"/>
-      <c r="L356" s="12"/>
-      <c r="M356" s="12"/>
-      <c r="N356" s="12"/>
-      <c r="O356" s="12"/>
-      <c r="P356" s="12"/>
-      <c r="Q356" s="12"/>
-      <c r="R356" s="12"/>
       <c r="S356" s="6"/>
       <c r="T356" s="6"/>
     </row>
@@ -8092,20 +5520,7 @@
       <c r="D357" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="E357" s="12"/>
-      <c r="F357" s="12"/>
-      <c r="G357" s="12"/>
-      <c r="H357" s="12"/>
-      <c r="I357" s="12"/>
       <c r="J357" s="6"/>
-      <c r="K357" s="12"/>
-      <c r="L357" s="12"/>
-      <c r="M357" s="12"/>
-      <c r="N357" s="12"/>
-      <c r="O357" s="12"/>
-      <c r="P357" s="12"/>
-      <c r="Q357" s="12"/>
-      <c r="R357" s="12"/>
       <c r="S357" s="6"/>
       <c r="T357" s="6"/>
     </row>
@@ -8115,20 +5530,7 @@
       <c r="D358" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="E358" s="12"/>
-      <c r="F358" s="12"/>
-      <c r="G358" s="12"/>
-      <c r="H358" s="12"/>
-      <c r="I358" s="12"/>
       <c r="J358" s="6"/>
-      <c r="K358" s="12"/>
-      <c r="L358" s="12"/>
-      <c r="M358" s="12"/>
-      <c r="N358" s="12"/>
-      <c r="O358" s="12"/>
-      <c r="P358" s="12"/>
-      <c r="Q358" s="12"/>
-      <c r="R358" s="12"/>
       <c r="S358" s="6"/>
       <c r="T358" s="6"/>
     </row>
@@ -8138,20 +5540,7 @@
       <c r="D359" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="E359" s="12"/>
-      <c r="F359" s="12"/>
-      <c r="G359" s="12"/>
-      <c r="H359" s="12"/>
-      <c r="I359" s="12"/>
       <c r="J359" s="6"/>
-      <c r="K359" s="12"/>
-      <c r="L359" s="12"/>
-      <c r="M359" s="12"/>
-      <c r="N359" s="12"/>
-      <c r="O359" s="12"/>
-      <c r="P359" s="12"/>
-      <c r="Q359" s="12"/>
-      <c r="R359" s="12"/>
       <c r="S359" s="6"/>
       <c r="T359" s="6"/>
     </row>
@@ -8161,20 +5550,7 @@
       <c r="D360" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="E360" s="12"/>
-      <c r="F360" s="12"/>
-      <c r="G360" s="12"/>
-      <c r="H360" s="12"/>
-      <c r="I360" s="12"/>
       <c r="J360" s="6"/>
-      <c r="K360" s="12"/>
-      <c r="L360" s="12"/>
-      <c r="M360" s="12"/>
-      <c r="N360" s="12"/>
-      <c r="O360" s="12"/>
-      <c r="P360" s="12"/>
-      <c r="Q360" s="12"/>
-      <c r="R360" s="12"/>
       <c r="S360" s="6"/>
       <c r="T360" s="6"/>
     </row>
@@ -8184,20 +5560,7 @@
       <c r="D361" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="E361" s="12"/>
-      <c r="F361" s="12"/>
-      <c r="G361" s="12"/>
-      <c r="H361" s="12"/>
-      <c r="I361" s="12"/>
       <c r="J361" s="6"/>
-      <c r="K361" s="12"/>
-      <c r="L361" s="12"/>
-      <c r="M361" s="12"/>
-      <c r="N361" s="12"/>
-      <c r="O361" s="12"/>
-      <c r="P361" s="12"/>
-      <c r="Q361" s="12"/>
-      <c r="R361" s="12"/>
       <c r="S361" s="6"/>
       <c r="T361" s="6"/>
     </row>
@@ -8207,20 +5570,7 @@
       <c r="D362" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="E362" s="12"/>
-      <c r="F362" s="12"/>
-      <c r="G362" s="12"/>
-      <c r="H362" s="12"/>
-      <c r="I362" s="12"/>
       <c r="J362" s="6"/>
-      <c r="K362" s="12"/>
-      <c r="L362" s="12"/>
-      <c r="M362" s="12"/>
-      <c r="N362" s="12"/>
-      <c r="O362" s="12"/>
-      <c r="P362" s="12"/>
-      <c r="Q362" s="12"/>
-      <c r="R362" s="12"/>
       <c r="S362" s="6"/>
       <c r="T362" s="6"/>
     </row>
@@ -8230,20 +5580,7 @@
       <c r="D363" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="E363" s="12"/>
-      <c r="F363" s="12"/>
-      <c r="G363" s="12"/>
-      <c r="H363" s="12"/>
-      <c r="I363" s="12"/>
       <c r="J363" s="6"/>
-      <c r="K363" s="12"/>
-      <c r="L363" s="12"/>
-      <c r="M363" s="12"/>
-      <c r="N363" s="12"/>
-      <c r="O363" s="12"/>
-      <c r="P363" s="12"/>
-      <c r="Q363" s="12"/>
-      <c r="R363" s="12"/>
       <c r="S363" s="6"/>
       <c r="T363" s="6"/>
     </row>
@@ -8253,20 +5590,7 @@
       <c r="D364" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E364" s="12"/>
-      <c r="F364" s="12"/>
-      <c r="G364" s="12"/>
-      <c r="H364" s="12"/>
-      <c r="I364" s="12"/>
       <c r="J364" s="6"/>
-      <c r="K364" s="12"/>
-      <c r="L364" s="12"/>
-      <c r="M364" s="12"/>
-      <c r="N364" s="12"/>
-      <c r="O364" s="12"/>
-      <c r="P364" s="12"/>
-      <c r="Q364" s="12"/>
-      <c r="R364" s="12"/>
       <c r="S364" s="6"/>
       <c r="T364" s="6"/>
     </row>
@@ -8276,20 +5600,7 @@
       <c r="D365" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E365" s="12"/>
-      <c r="F365" s="12"/>
-      <c r="G365" s="12"/>
-      <c r="H365" s="12"/>
-      <c r="I365" s="12"/>
       <c r="J365" s="6"/>
-      <c r="K365" s="12"/>
-      <c r="L365" s="12"/>
-      <c r="M365" s="12"/>
-      <c r="N365" s="12"/>
-      <c r="O365" s="12"/>
-      <c r="P365" s="12"/>
-      <c r="Q365" s="12"/>
-      <c r="R365" s="12"/>
       <c r="S365" s="6"/>
       <c r="T365" s="6"/>
     </row>
@@ -8299,20 +5610,7 @@
       <c r="D366" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E366" s="12"/>
-      <c r="F366" s="12"/>
-      <c r="G366" s="12"/>
-      <c r="H366" s="12"/>
-      <c r="I366" s="12"/>
       <c r="J366" s="6"/>
-      <c r="K366" s="12"/>
-      <c r="L366" s="12"/>
-      <c r="M366" s="12"/>
-      <c r="N366" s="12"/>
-      <c r="O366" s="12"/>
-      <c r="P366" s="12"/>
-      <c r="Q366" s="12"/>
-      <c r="R366" s="12"/>
       <c r="S366" s="6"/>
       <c r="T366" s="6"/>
     </row>
@@ -8322,20 +5620,7 @@
       <c r="D367" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="E367" s="12"/>
-      <c r="F367" s="12"/>
-      <c r="G367" s="12"/>
-      <c r="H367" s="12"/>
-      <c r="I367" s="12"/>
       <c r="J367" s="6"/>
-      <c r="K367" s="12"/>
-      <c r="L367" s="12"/>
-      <c r="M367" s="12"/>
-      <c r="N367" s="12"/>
-      <c r="O367" s="12"/>
-      <c r="P367" s="12"/>
-      <c r="Q367" s="12"/>
-      <c r="R367" s="12"/>
       <c r="S367" s="6"/>
       <c r="T367" s="6"/>
     </row>
@@ -8345,20 +5630,7 @@
       <c r="D368" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E368" s="12"/>
-      <c r="F368" s="12"/>
-      <c r="G368" s="12"/>
-      <c r="H368" s="12"/>
-      <c r="I368" s="12"/>
       <c r="J368" s="6"/>
-      <c r="K368" s="12"/>
-      <c r="L368" s="12"/>
-      <c r="M368" s="12"/>
-      <c r="N368" s="12"/>
-      <c r="O368" s="12"/>
-      <c r="P368" s="12"/>
-      <c r="Q368" s="12"/>
-      <c r="R368" s="12"/>
       <c r="S368" s="6"/>
       <c r="T368" s="6"/>
     </row>
@@ -8368,20 +5640,7 @@
       <c r="D369" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="E369" s="12"/>
-      <c r="F369" s="12"/>
-      <c r="G369" s="12"/>
-      <c r="H369" s="12"/>
-      <c r="I369" s="12"/>
       <c r="J369" s="6"/>
-      <c r="K369" s="12"/>
-      <c r="L369" s="12"/>
-      <c r="M369" s="12"/>
-      <c r="N369" s="12"/>
-      <c r="O369" s="12"/>
-      <c r="P369" s="12"/>
-      <c r="Q369" s="12"/>
-      <c r="R369" s="12"/>
       <c r="S369" s="6"/>
       <c r="T369" s="6"/>
     </row>
@@ -8391,20 +5650,7 @@
       <c r="D370" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="E370" s="12"/>
-      <c r="F370" s="12"/>
-      <c r="G370" s="12"/>
-      <c r="H370" s="12"/>
-      <c r="I370" s="12"/>
       <c r="J370" s="6"/>
-      <c r="K370" s="12"/>
-      <c r="L370" s="12"/>
-      <c r="M370" s="12"/>
-      <c r="N370" s="12"/>
-      <c r="O370" s="12"/>
-      <c r="P370" s="12"/>
-      <c r="Q370" s="12"/>
-      <c r="R370" s="12"/>
       <c r="S370" s="6"/>
       <c r="T370" s="6"/>
     </row>
@@ -8414,20 +5660,7 @@
       <c r="D371" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="E371" s="12"/>
-      <c r="F371" s="12"/>
-      <c r="G371" s="12"/>
-      <c r="H371" s="12"/>
-      <c r="I371" s="12"/>
       <c r="J371" s="6"/>
-      <c r="K371" s="12"/>
-      <c r="L371" s="12"/>
-      <c r="M371" s="12"/>
-      <c r="N371" s="12"/>
-      <c r="O371" s="12"/>
-      <c r="P371" s="12"/>
-      <c r="Q371" s="12"/>
-      <c r="R371" s="12"/>
       <c r="S371" s="6"/>
       <c r="T371" s="6"/>
     </row>
@@ -8443,14 +5676,6 @@
       <c r="H372" s="8"/>
       <c r="I372" s="8"/>
       <c r="J372" s="9"/>
-      <c r="K372" s="12"/>
-      <c r="L372" s="12"/>
-      <c r="M372" s="12"/>
-      <c r="N372" s="12"/>
-      <c r="O372" s="12"/>
-      <c r="P372" s="12"/>
-      <c r="Q372" s="12"/>
-      <c r="R372" s="12"/>
       <c r="S372" s="6"/>
       <c r="T372" s="6"/>
     </row>
@@ -8497,7 +5722,7 @@
       <c r="T374" s="9"/>
     </row>
     <row r="377" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B377" s="13" t="s">
+      <c r="B377" s="12" t="s">
         <v>289</v>
       </c>
       <c r="C377" s="3"/>
@@ -8521,8 +5746,6 @@
       <c r="C379" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="D379" s="12"/>
-      <c r="E379" s="12"/>
       <c r="F379" s="6"/>
       <c r="G379" s="6"/>
     </row>
@@ -8531,8 +5754,6 @@
       <c r="C380" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="D380" s="12"/>
-      <c r="E380" s="12"/>
       <c r="F380" s="6"/>
       <c r="G380" s="6"/>
     </row>
@@ -8541,8 +5762,6 @@
       <c r="C381" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D381" s="12"/>
-      <c r="E381" s="12"/>
       <c r="F381" s="6"/>
       <c r="G381" s="6"/>
     </row>
@@ -8551,8 +5770,6 @@
       <c r="C382" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D382" s="12"/>
-      <c r="E382" s="12"/>
       <c r="F382" s="6"/>
       <c r="G382" s="6"/>
     </row>
@@ -8561,8 +5778,6 @@
       <c r="C383" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="D383" s="12"/>
-      <c r="E383" s="12"/>
       <c r="F383" s="6"/>
       <c r="G383" s="6"/>
     </row>
@@ -8571,8 +5786,6 @@
       <c r="C384" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="D384" s="12"/>
-      <c r="E384" s="12"/>
       <c r="F384" s="6"/>
       <c r="G384" s="6"/>
     </row>
@@ -8581,8 +5794,6 @@
       <c r="C385" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D385" s="12"/>
-      <c r="E385" s="12"/>
       <c r="F385" s="6"/>
       <c r="G385" s="6"/>
     </row>
@@ -8591,8 +5802,6 @@
       <c r="C386" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="D386" s="12"/>
-      <c r="E386" s="12"/>
       <c r="F386" s="6"/>
       <c r="G386" s="6"/>
     </row>
@@ -8601,8 +5810,6 @@
       <c r="C387" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="D387" s="12"/>
-      <c r="E387" s="12"/>
       <c r="F387" s="6"/>
       <c r="G387" s="6"/>
     </row>
@@ -8611,8 +5818,6 @@
       <c r="C388" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D388" s="12"/>
-      <c r="E388" s="12"/>
       <c r="F388" s="6"/>
       <c r="G388" s="6"/>
     </row>
@@ -8621,8 +5826,6 @@
       <c r="C389" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="D389" s="12"/>
-      <c r="E389" s="12"/>
       <c r="F389" s="6"/>
       <c r="G389" s="6"/>
     </row>
@@ -8631,8 +5834,6 @@
       <c r="C390" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="D390" s="12"/>
-      <c r="E390" s="12"/>
       <c r="F390" s="6"/>
       <c r="G390" s="6"/>
     </row>
@@ -8641,8 +5842,6 @@
       <c r="C391" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D391" s="12"/>
-      <c r="E391" s="12"/>
       <c r="F391" s="6"/>
       <c r="G391" s="6"/>
     </row>
@@ -8651,8 +5850,6 @@
       <c r="C392" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="D392" s="12"/>
-      <c r="E392" s="12"/>
       <c r="F392" s="6"/>
       <c r="G392" s="6"/>
     </row>
@@ -8661,8 +5858,6 @@
       <c r="C393" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D393" s="12"/>
-      <c r="E393" s="12"/>
       <c r="F393" s="6"/>
       <c r="G393" s="6"/>
     </row>
@@ -8671,8 +5866,6 @@
       <c r="C394" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D394" s="12"/>
-      <c r="E394" s="12"/>
       <c r="F394" s="6"/>
       <c r="G394" s="6"/>
     </row>
@@ -8681,8 +5874,6 @@
       <c r="C395" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="D395" s="12"/>
-      <c r="E395" s="12"/>
       <c r="F395" s="6"/>
       <c r="G395" s="6"/>
     </row>
@@ -8709,4 +5900,848 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7AF866-C655-48CE-BB05-A52BCCBB509A}">
+  <dimension ref="A2:O212"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A134" sqref="A134"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="19"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="19"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="19"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="19"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="19"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="19"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="19"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="19"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="19"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="19"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="19"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="19"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="19"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="19"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="19"/>
+      <c r="J31" t="s">
+        <v>49</v>
+      </c>
+      <c r="K31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="19"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="19"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="19"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="19"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="22"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="4"/>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B89" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="23"/>
+      <c r="J89" s="23"/>
+      <c r="K89" s="23"/>
+      <c r="L89" s="23"/>
+      <c r="M89" s="23"/>
+      <c r="N89" s="23"/>
+      <c r="O89" s="6"/>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B90" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="23"/>
+      <c r="I90" s="23"/>
+      <c r="J90" s="23"/>
+      <c r="K90" s="23"/>
+      <c r="L90" s="23"/>
+      <c r="M90" s="23"/>
+      <c r="N90" s="23"/>
+      <c r="O90" s="6"/>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B91" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="23"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="23"/>
+      <c r="L91" s="23"/>
+      <c r="M91" s="23"/>
+      <c r="N91" s="23"/>
+      <c r="O91" s="6"/>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B92" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C92" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="D92" s="23"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="23"/>
+      <c r="I92" s="23"/>
+      <c r="J92" s="23"/>
+      <c r="K92" s="23"/>
+      <c r="L92" s="23"/>
+      <c r="M92" s="23"/>
+      <c r="N92" s="23"/>
+      <c r="O92" s="6"/>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B93" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C93" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="D93" s="23"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="23"/>
+      <c r="I93" s="23"/>
+      <c r="J93" s="23"/>
+      <c r="K93" s="23"/>
+      <c r="L93" s="23"/>
+      <c r="M93" s="23"/>
+      <c r="N93" s="23"/>
+      <c r="O93" s="6"/>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B94" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="23"/>
+      <c r="I94" s="23"/>
+      <c r="J94" s="23"/>
+      <c r="K94" s="23"/>
+      <c r="L94" s="23"/>
+      <c r="M94" s="23"/>
+      <c r="N94" s="23"/>
+      <c r="O94" s="6"/>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B95" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="23"/>
+      <c r="I95" s="23"/>
+      <c r="J95" s="23"/>
+      <c r="K95" s="23"/>
+      <c r="L95" s="23"/>
+      <c r="M95" s="23"/>
+      <c r="N95" s="23"/>
+      <c r="O95" s="6"/>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B96" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="23"/>
+      <c r="I96" s="23"/>
+      <c r="J96" s="23"/>
+      <c r="K96" s="23"/>
+      <c r="L96" s="23"/>
+      <c r="M96" s="23"/>
+      <c r="N96" s="23"/>
+      <c r="O96" s="6"/>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B97" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C97" s="23"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="23"/>
+      <c r="I97" s="23"/>
+      <c r="J97" s="23"/>
+      <c r="K97" s="23"/>
+      <c r="L97" s="23"/>
+      <c r="M97" s="23"/>
+      <c r="N97" s="23"/>
+      <c r="O97" s="6"/>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B98" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C98" s="23"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="23"/>
+      <c r="I98" s="23"/>
+      <c r="J98" s="23"/>
+      <c r="K98" s="23"/>
+      <c r="L98" s="23"/>
+      <c r="M98" s="23"/>
+      <c r="N98" s="23"/>
+      <c r="O98" s="6"/>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B99" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C99" s="23"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="23"/>
+      <c r="H99" s="23"/>
+      <c r="I99" s="23"/>
+      <c r="J99" s="23"/>
+      <c r="K99" s="23"/>
+      <c r="L99" s="23"/>
+      <c r="M99" s="23"/>
+      <c r="N99" s="23"/>
+      <c r="O99" s="6"/>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B100" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="23"/>
+      <c r="H100" s="23"/>
+      <c r="I100" s="23"/>
+      <c r="J100" s="23"/>
+      <c r="K100" s="23"/>
+      <c r="L100" s="23"/>
+      <c r="M100" s="23"/>
+      <c r="N100" s="23"/>
+      <c r="O100" s="6"/>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B101" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C101" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="D101" s="23"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="23"/>
+      <c r="H101" s="23"/>
+      <c r="I101" s="23"/>
+      <c r="J101" s="23"/>
+      <c r="K101" s="23"/>
+      <c r="L101" s="23"/>
+      <c r="M101" s="23"/>
+      <c r="N101" s="23"/>
+      <c r="O101" s="6"/>
+    </row>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B102" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C102" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="D102" s="23"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="23"/>
+      <c r="G102" s="23"/>
+      <c r="H102" s="23"/>
+      <c r="I102" s="23"/>
+      <c r="J102" s="23"/>
+      <c r="K102" s="23"/>
+      <c r="L102" s="23"/>
+      <c r="M102" s="23"/>
+      <c r="N102" s="23"/>
+      <c r="O102" s="6"/>
+    </row>
+    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B103" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C103" s="23"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="23"/>
+      <c r="G103" s="23"/>
+      <c r="H103" s="23"/>
+      <c r="I103" s="23"/>
+      <c r="J103" s="23"/>
+      <c r="K103" s="23"/>
+      <c r="L103" s="23"/>
+      <c r="M103" s="23"/>
+      <c r="N103" s="23"/>
+      <c r="O103" s="6"/>
+    </row>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B104" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C104" s="23"/>
+      <c r="D104" s="23"/>
+      <c r="E104" s="23"/>
+      <c r="F104" s="23"/>
+      <c r="G104" s="23"/>
+      <c r="H104" s="23"/>
+      <c r="I104" s="23"/>
+      <c r="J104" s="23"/>
+      <c r="K104" s="23"/>
+      <c r="L104" s="23"/>
+      <c r="M104" s="23"/>
+      <c r="N104" s="23"/>
+      <c r="O104" s="6"/>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B105" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
+      <c r="K105" s="8"/>
+      <c r="L105" s="8"/>
+      <c r="M105" s="8"/>
+      <c r="N105" s="8"/>
+      <c r="O105" s="9"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B189" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C189" s="3"/>
+      <c r="D189" s="3"/>
+      <c r="E189" s="3"/>
+      <c r="F189" s="4"/>
+      <c r="G189" t="s">
+        <v>49</v>
+      </c>
+      <c r="H189" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B190" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C190" s="23"/>
+      <c r="D190" s="23"/>
+      <c r="E190" s="23"/>
+      <c r="F190" s="6"/>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B191" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C191" s="8"/>
+      <c r="D191" s="8"/>
+      <c r="E191" s="8"/>
+      <c r="F191" s="9"/>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
+        <v>317</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/6.Callouts-using-Apex.xlsx
+++ b/me/6.Callouts-using-Apex.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\salesforce-integration-with-external-systems\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89410DAA-4C32-4FF3-A928-F7B28F52C8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FD0AF9-9653-4A3C-B0BC-CF29AA82F84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Remote site settings" sheetId="1" r:id="rId1"/>
     <sheet name="Create an Apex class" sheetId="2" r:id="rId2"/>
     <sheet name="MakeHttpCalloutFromLightningCmp" sheetId="3" r:id="rId3"/>
+    <sheet name="CalloutShowDataInsideSalesforce" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="370">
   <si>
     <t>構成</t>
   </si>
@@ -999,6 +1000,163 @@
   </si>
   <si>
     <t>SampleComponentHelper.txt</t>
+  </si>
+  <si>
+    <t>Make HTTP Callout From Lightning Component And Show Data inside Salesforce</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    @AuraEnabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static Map&lt;String,Object&gt; getCalloutResponseContents(String url)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Http h=new Http();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        HttpRequest req=new HttpRequest();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        req.setEndpoint(url);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        req.setMethod('GET');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        HttpResponse res=h.send(req);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.debug('response--&gt;: '+res.getBody());</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Map&lt;String,Object&gt; resultsMap=  (Map&lt;String,Object&gt;)JSON.deserializeUntyped(res.getBody());</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.debug('resultsMap '+resultsMap);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return resultsMap;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t>salesforce-integration-with-external-systems\6.Callouts-using-Apex\2.Make-HTTP-Callout-from-Lightning-component\SampleComponentController.txt</t>
+  </si>
+  <si>
+    <t>({</t>
+  </si>
+  <si>
+    <t>helper.getResponse(component);</t>
+  </si>
+  <si>
+    <t>})</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>calloutCtrl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : function(component, event, helper) {</t>
+    </r>
+  </si>
+  <si>
+    <t>salesforce-integration-with-external-systems\6.Callouts-using-Apex\2.Make-HTTP-Callout-from-Lightning-component\SampleComponentHelper.txt</t>
+  </si>
+  <si>
+    <t>getResponse : function(component) {</t>
+  </si>
+  <si>
+    <t>console.log('I m inside the helper');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        var action=component.get("c.getCalloutResponseContents");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        action.setParams({</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "url":'http://data.fixer.io/api/latest?access_key=738c44d040238a6f33970d76d41de37f'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        });</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        action.setCallback(this,function(response){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            var state=response.getState();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if(component.isValid &amp;&amp; state==="SUCCESS")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                console.log('response.getReturnValue()=&gt; '+JSON.stringify(response.getReturnValue()));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                component.set("v.response",response.getReturnValue());</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                var getAllRates=component.get("v.response")['rates'];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                console.log('getAllRates=&gt;  '+JSON.stringify(getAllRates));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                var CurrencyList=[];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                for(var key in getAllRates)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    CurrencyList.push(key+'='+getAllRates[key]); //INR=70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                component.set("v.ListOfCurrency",CurrencyList);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                console.log('CurrencyList=&gt; '+CurrencyList);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             $A.enqueueAction(action);              </t>
+  </si>
+  <si>
+    <t>},</t>
+  </si>
+  <si>
+    <t>Check browser</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1141,17 +1299,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2452,6 +2603,187 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>59702</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7CE5878-4F26-B50E-160F-7027D874F133}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="19897725"/>
+          <a:ext cx="11229975" cy="5688977"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>56146</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F59AF894-6B33-3C41-3D11-0E506D3BFCC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="27308175"/>
+          <a:ext cx="11306175" cy="3227971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>123266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>358589</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>49960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC169FD3-2372-B8AD-635F-0852BB6312EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="672353" y="31365266"/>
+          <a:ext cx="11183471" cy="2022194"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>333</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5534380-E61D-8CE4-2611-CCBD263A9CA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="33642300"/>
+          <a:ext cx="13011150" cy="32766000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3050,8 +3382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2C8266-6748-44DC-B747-461F9850EDA7}">
   <dimension ref="A2:T397"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:I31"/>
+    <sheetView topLeftCell="A172" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5906,8 +6238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7AF866-C655-48CE-BB05-A52BCCBB509A}">
   <dimension ref="A2:O212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A134" sqref="A134"/>
+    <sheetView topLeftCell="A226" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5918,368 +6250,203 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="17"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="14" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="19"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="19"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="19"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14" t="s">
+      <c r="B9" s="5"/>
+      <c r="D9" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="19"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14" t="s">
+      <c r="B10" s="5"/>
+      <c r="E10" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="19"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14" t="s">
+      <c r="B11" s="5"/>
+      <c r="E11" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="19"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14" t="s">
+      <c r="B12" s="5"/>
+      <c r="E12" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="19"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14" t="s">
+      <c r="B13" s="5"/>
+      <c r="E13" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="19"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14" t="s">
+      <c r="B14" s="5"/>
+      <c r="F14" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="19"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14" t="s">
+      <c r="B15" s="5"/>
+      <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="19"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14" t="s">
+      <c r="B16" s="5"/>
+      <c r="F16" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="19"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14" t="s">
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="F17" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="19"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="14" t="s">
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="19"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14" t="s">
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="D19" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="19"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14" t="s">
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="D20" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="19"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14" t="s">
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="D21" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="19"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14" t="s">
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="E22" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="19"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14" t="s">
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="E23" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="19"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14" t="s">
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="D24" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="19"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14" t="s">
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="E25" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="19"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14" t="s">
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="E26" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="19"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="14" t="s">
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="19"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14" t="s">
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="D28" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="19"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14" t="s">
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="E29" t="s">
         <v>73</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="19"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14" t="s">
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="E30" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="19"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="14"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
       <c r="D31" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="19"/>
+      <c r="I31" s="6"/>
       <c r="J31" t="s">
         <v>49</v>
       </c>
@@ -6287,68 +6454,43 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
       <c r="E32" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="19"/>
+      <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
+      <c r="B33" s="5"/>
       <c r="E33" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="19"/>
+      <c r="I33" s="6"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
+      <c r="B34" s="5"/>
       <c r="E34" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="19"/>
+      <c r="I34" s="6"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
+      <c r="B35" s="5"/>
       <c r="E35" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="19"/>
+      <c r="I35" s="6"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="22"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="9"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -6382,296 +6524,108 @@
       <c r="B89" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="C89" s="23"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="23"/>
-      <c r="I89" s="23"/>
-      <c r="J89" s="23"/>
-      <c r="K89" s="23"/>
-      <c r="L89" s="23"/>
-      <c r="M89" s="23"/>
-      <c r="N89" s="23"/>
       <c r="O89" s="6"/>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B90" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C90" s="23"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="23"/>
-      <c r="I90" s="23"/>
-      <c r="J90" s="23"/>
-      <c r="K90" s="23"/>
-      <c r="L90" s="23"/>
-      <c r="M90" s="23"/>
-      <c r="N90" s="23"/>
       <c r="O90" s="6"/>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B91" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
-      <c r="I91" s="23"/>
-      <c r="J91" s="23"/>
-      <c r="K91" s="23"/>
-      <c r="L91" s="23"/>
-      <c r="M91" s="23"/>
-      <c r="N91" s="23"/>
       <c r="O91" s="6"/>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B92" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C92" s="23" t="s">
+      <c r="C92" t="s">
         <v>298</v>
       </c>
-      <c r="D92" s="23"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="23"/>
-      <c r="I92" s="23"/>
-      <c r="J92" s="23"/>
-      <c r="K92" s="23"/>
-      <c r="L92" s="23"/>
-      <c r="M92" s="23"/>
-      <c r="N92" s="23"/>
       <c r="O92" s="6"/>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B93" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="C93" s="23" t="s">
+      <c r="C93" t="s">
         <v>300</v>
       </c>
-      <c r="D93" s="23"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="23"/>
-      <c r="H93" s="23"/>
-      <c r="I93" s="23"/>
-      <c r="J93" s="23"/>
-      <c r="K93" s="23"/>
-      <c r="L93" s="23"/>
-      <c r="M93" s="23"/>
-      <c r="N93" s="23"/>
       <c r="O93" s="6"/>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B94" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="C94" s="23"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="23"/>
-      <c r="H94" s="23"/>
-      <c r="I94" s="23"/>
-      <c r="J94" s="23"/>
-      <c r="K94" s="23"/>
-      <c r="L94" s="23"/>
-      <c r="M94" s="23"/>
-      <c r="N94" s="23"/>
       <c r="O94" s="6"/>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B95" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="C95" s="23"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="23"/>
-      <c r="F95" s="23"/>
-      <c r="G95" s="23"/>
-      <c r="H95" s="23"/>
-      <c r="I95" s="23"/>
-      <c r="J95" s="23"/>
-      <c r="K95" s="23"/>
-      <c r="L95" s="23"/>
-      <c r="M95" s="23"/>
-      <c r="N95" s="23"/>
       <c r="O95" s="6"/>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B96" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C96" s="23"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="23"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="23"/>
-      <c r="I96" s="23"/>
-      <c r="J96" s="23"/>
-      <c r="K96" s="23"/>
-      <c r="L96" s="23"/>
-      <c r="M96" s="23"/>
-      <c r="N96" s="23"/>
       <c r="O96" s="6"/>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B97" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="C97" s="23"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="23"/>
-      <c r="F97" s="23"/>
-      <c r="G97" s="23"/>
-      <c r="H97" s="23"/>
-      <c r="I97" s="23"/>
-      <c r="J97" s="23"/>
-      <c r="K97" s="23"/>
-      <c r="L97" s="23"/>
-      <c r="M97" s="23"/>
-      <c r="N97" s="23"/>
       <c r="O97" s="6"/>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B98" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C98" s="23"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="23"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="23"/>
-      <c r="H98" s="23"/>
-      <c r="I98" s="23"/>
-      <c r="J98" s="23"/>
-      <c r="K98" s="23"/>
-      <c r="L98" s="23"/>
-      <c r="M98" s="23"/>
-      <c r="N98" s="23"/>
       <c r="O98" s="6"/>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B99" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C99" s="23"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="23"/>
-      <c r="F99" s="23"/>
-      <c r="G99" s="23"/>
-      <c r="H99" s="23"/>
-      <c r="I99" s="23"/>
-      <c r="J99" s="23"/>
-      <c r="K99" s="23"/>
-      <c r="L99" s="23"/>
-      <c r="M99" s="23"/>
-      <c r="N99" s="23"/>
       <c r="O99" s="6"/>
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B100" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="C100" s="23"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="23"/>
-      <c r="F100" s="23"/>
-      <c r="G100" s="23"/>
-      <c r="H100" s="23"/>
-      <c r="I100" s="23"/>
-      <c r="J100" s="23"/>
-      <c r="K100" s="23"/>
-      <c r="L100" s="23"/>
-      <c r="M100" s="23"/>
-      <c r="N100" s="23"/>
       <c r="O100" s="6"/>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B101" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C101" s="23" t="s">
+      <c r="C101" t="s">
         <v>306</v>
       </c>
-      <c r="D101" s="23"/>
-      <c r="E101" s="23"/>
-      <c r="F101" s="23"/>
-      <c r="G101" s="23"/>
-      <c r="H101" s="23"/>
-      <c r="I101" s="23"/>
-      <c r="J101" s="23"/>
-      <c r="K101" s="23"/>
-      <c r="L101" s="23"/>
-      <c r="M101" s="23"/>
-      <c r="N101" s="23"/>
       <c r="O101" s="6"/>
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B102" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="C102" s="23" t="s">
+      <c r="C102" t="s">
         <v>307</v>
       </c>
-      <c r="D102" s="23"/>
-      <c r="E102" s="23"/>
-      <c r="F102" s="23"/>
-      <c r="G102" s="23"/>
-      <c r="H102" s="23"/>
-      <c r="I102" s="23"/>
-      <c r="J102" s="23"/>
-      <c r="K102" s="23"/>
-      <c r="L102" s="23"/>
-      <c r="M102" s="23"/>
-      <c r="N102" s="23"/>
       <c r="O102" s="6"/>
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B103" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="C103" s="23"/>
-      <c r="D103" s="23"/>
-      <c r="E103" s="23"/>
-      <c r="F103" s="23"/>
-      <c r="G103" s="23"/>
-      <c r="H103" s="23"/>
-      <c r="I103" s="23"/>
-      <c r="J103" s="23"/>
-      <c r="K103" s="23"/>
-      <c r="L103" s="23"/>
-      <c r="M103" s="23"/>
-      <c r="N103" s="23"/>
       <c r="O103" s="6"/>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B104" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="C104" s="23"/>
-      <c r="D104" s="23"/>
-      <c r="E104" s="23"/>
-      <c r="F104" s="23"/>
-      <c r="G104" s="23"/>
-      <c r="H104" s="23"/>
-      <c r="I104" s="23"/>
-      <c r="J104" s="23"/>
-      <c r="K104" s="23"/>
-      <c r="L104" s="23"/>
-      <c r="M104" s="23"/>
-      <c r="N104" s="23"/>
       <c r="O104" s="6"/>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.25">
@@ -6721,9 +6675,6 @@
       <c r="B190" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="C190" s="23"/>
-      <c r="D190" s="23"/>
-      <c r="E190" s="23"/>
       <c r="F190" s="6"/>
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.25">
@@ -6738,6 +6689,1012 @@
     <row r="212" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
         <v>317</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6CCB49-5C29-4B49-8399-1E8AB5F55578}">
+  <dimension ref="A2:L149"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A340" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U59" sqref="U59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="E27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="E30" t="s">
+        <v>73</v>
+      </c>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="E31" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" s="6"/>
+      <c r="J31" t="s">
+        <v>49</v>
+      </c>
+      <c r="K31" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="D32" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="E33" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="E34" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="E35" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="I35" s="6"/>
+      <c r="J35" t="s">
+        <v>49</v>
+      </c>
+      <c r="K35" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="E36" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="I36" s="6"/>
+      <c r="J36" t="s">
+        <v>49</v>
+      </c>
+      <c r="K36" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="9"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="6"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="6"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="6"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="6"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="6"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="6"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="6"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="6"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="6"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="6"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="6"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="6"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="6"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="6"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="6"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B57" s="5"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="6"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B58" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="9"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="4"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B63" s="5"/>
+      <c r="C63" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="6"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B64" s="5"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="6"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B65" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="6"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="6"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B67" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="6"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B68" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="6"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B69" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="6"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B70" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="6"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="6"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B72" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="6"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="6"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B74" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="6"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="6"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B76" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="6"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="6"/>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B78" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="6"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B79" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="6"/>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
+      <c r="L80" s="6"/>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B81" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="6"/>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B82" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="14"/>
+      <c r="K82" s="14"/>
+      <c r="L82" s="6"/>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B83" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="14"/>
+      <c r="L83" s="6"/>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B84" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="14"/>
+      <c r="L84" s="6"/>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B85" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="14"/>
+      <c r="K85" s="14"/>
+      <c r="L85" s="6"/>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B86" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="14"/>
+      <c r="K86" s="14"/>
+      <c r="L86" s="6"/>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B87" s="5"/>
+      <c r="C87" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="14"/>
+      <c r="K87" s="14"/>
+      <c r="L87" s="6"/>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B88" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="9"/>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B123" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="4"/>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B124" s="5"/>
+      <c r="C124" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="14"/>
+      <c r="H124" s="6"/>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B125" s="5"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="14"/>
+      <c r="H125" s="6"/>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B126" s="5"/>
+      <c r="C126" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c r="G126" s="14"/>
+      <c r="H126" s="6"/>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B127" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="9"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>
